--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -1221,17 +1221,13 @@
         <v>135.3333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>135</v>
-      </c>
-      <c r="K24" t="n">
-        <v>135</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1260,1169 +1256,981 @@
         <v>135.6666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>136</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>135</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="C26" t="n">
+        <v>135</v>
+      </c>
+      <c r="D26" t="n">
+        <v>135</v>
+      </c>
+      <c r="E26" t="n">
+        <v>135</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1945.8257</v>
+      </c>
+      <c r="G26" t="n">
+        <v>135.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>135</v>
+      </c>
+      <c r="C27" t="n">
+        <v>135</v>
+      </c>
+      <c r="D27" t="n">
+        <v>135</v>
+      </c>
+      <c r="E27" t="n">
+        <v>135</v>
+      </c>
+      <c r="F27" t="n">
+        <v>371.0114</v>
+      </c>
+      <c r="G27" t="n">
+        <v>135.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>135</v>
+      </c>
+      <c r="C28" t="n">
+        <v>135</v>
+      </c>
+      <c r="D28" t="n">
+        <v>135</v>
+      </c>
+      <c r="E28" t="n">
+        <v>135</v>
+      </c>
+      <c r="F28" t="n">
+        <v>128.9886</v>
+      </c>
+      <c r="G28" t="n">
+        <v>135</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>134</v>
+      </c>
+      <c r="C29" t="n">
+        <v>134</v>
+      </c>
+      <c r="D29" t="n">
+        <v>134</v>
+      </c>
+      <c r="E29" t="n">
+        <v>134</v>
+      </c>
+      <c r="F29" t="n">
+        <v>399.4107</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134.6666666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>134</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134</v>
+      </c>
+      <c r="D30" t="n">
+        <v>134</v>
+      </c>
+      <c r="E30" t="n">
+        <v>134</v>
+      </c>
+      <c r="F30" t="n">
+        <v>350.5791</v>
+      </c>
+      <c r="G30" t="n">
+        <v>134.3333333333333</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>133</v>
+      </c>
+      <c r="C31" t="n">
+        <v>133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>133</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G31" t="n">
+        <v>133.6666666666667</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>132</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133</v>
+      </c>
+      <c r="E32" t="n">
+        <v>132</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G32" t="n">
+        <v>133</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>134</v>
+      </c>
+      <c r="C33" t="n">
+        <v>134</v>
+      </c>
+      <c r="D33" t="n">
+        <v>134</v>
+      </c>
+      <c r="E33" t="n">
+        <v>134</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2368.3059</v>
+      </c>
+      <c r="G33" t="n">
+        <v>133</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>136</v>
+      </c>
+      <c r="C34" t="n">
+        <v>136</v>
+      </c>
+      <c r="D34" t="n">
+        <v>136</v>
+      </c>
+      <c r="E34" t="n">
+        <v>136</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7573.5294</v>
+      </c>
+      <c r="G34" t="n">
+        <v>134</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>137</v>
+      </c>
+      <c r="C35" t="n">
+        <v>137</v>
+      </c>
+      <c r="D35" t="n">
+        <v>137</v>
+      </c>
+      <c r="E35" t="n">
+        <v>137</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6682.3288</v>
+      </c>
+      <c r="G35" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>137</v>
+      </c>
+      <c r="C36" t="n">
+        <v>137</v>
+      </c>
+      <c r="D36" t="n">
+        <v>137</v>
+      </c>
+      <c r="E36" t="n">
+        <v>137</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.6712</v>
+      </c>
+      <c r="G36" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>136</v>
+      </c>
+      <c r="C37" t="n">
+        <v>136</v>
+      </c>
+      <c r="D37" t="n">
+        <v>136</v>
+      </c>
+      <c r="E37" t="n">
+        <v>136</v>
+      </c>
+      <c r="F37" t="n">
+        <v>672.2727</v>
+      </c>
+      <c r="G37" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>135</v>
+      </c>
+      <c r="C38" t="n">
+        <v>135</v>
+      </c>
+      <c r="D38" t="n">
+        <v>135</v>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="n">
+        <v>408.3914</v>
+      </c>
+      <c r="G38" t="n">
+        <v>136</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>136</v>
+      </c>
+      <c r="C39" t="n">
+        <v>136</v>
+      </c>
+      <c r="D39" t="n">
+        <v>136</v>
+      </c>
+      <c r="E39" t="n">
+        <v>136</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17522.1565</v>
+      </c>
+      <c r="G39" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>136</v>
+      </c>
+      <c r="C40" t="n">
+        <v>136</v>
+      </c>
+      <c r="D40" t="n">
+        <v>136</v>
+      </c>
+      <c r="E40" t="n">
+        <v>136</v>
+      </c>
+      <c r="F40" t="n">
+        <v>407.6307</v>
+      </c>
+      <c r="G40" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>136</v>
+      </c>
+      <c r="K40" t="n">
+        <v>136</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>136</v>
+      </c>
+      <c r="C41" t="n">
+        <v>136</v>
+      </c>
+      <c r="D41" t="n">
+        <v>136</v>
+      </c>
+      <c r="E41" t="n">
+        <v>136</v>
+      </c>
+      <c r="F41" t="n">
+        <v>78</v>
+      </c>
+      <c r="G41" t="n">
+        <v>136</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>136</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>135</v>
-      </c>
-      <c r="C26" t="n">
-        <v>135</v>
-      </c>
-      <c r="D26" t="n">
-        <v>135</v>
-      </c>
-      <c r="E26" t="n">
-        <v>135</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1945.8257</v>
-      </c>
-      <c r="G26" t="n">
-        <v>135.3333333333333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>135</v>
-      </c>
-      <c r="K26" t="n">
-        <v>135</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>136</v>
+      </c>
+      <c r="C42" t="n">
+        <v>136</v>
+      </c>
+      <c r="D42" t="n">
+        <v>136</v>
+      </c>
+      <c r="E42" t="n">
+        <v>136</v>
+      </c>
+      <c r="F42" t="n">
+        <v>501.0538</v>
+      </c>
+      <c r="G42" t="n">
+        <v>136</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>136</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>136</v>
+      </c>
+      <c r="C43" t="n">
+        <v>136</v>
+      </c>
+      <c r="D43" t="n">
+        <v>136</v>
+      </c>
+      <c r="E43" t="n">
+        <v>136</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6180.4159</v>
+      </c>
+      <c r="G43" t="n">
+        <v>136</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>136</v>
+      </c>
+      <c r="C44" t="n">
+        <v>136</v>
+      </c>
+      <c r="D44" t="n">
+        <v>136</v>
+      </c>
+      <c r="E44" t="n">
+        <v>136</v>
+      </c>
+      <c r="F44" t="n">
+        <v>418.1537</v>
+      </c>
+      <c r="G44" t="n">
+        <v>136</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>136</v>
+      </c>
+      <c r="C45" t="n">
         <v>135</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D45" t="n">
+        <v>136</v>
+      </c>
+      <c r="E45" t="n">
         <v>135</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F45" t="n">
+        <v>2341.5389</v>
+      </c>
+      <c r="G45" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>135</v>
       </c>
-      <c r="E27" t="n">
+      <c r="C46" t="n">
         <v>135</v>
       </c>
-      <c r="F27" t="n">
-        <v>371.0114</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="D46" t="n">
+        <v>135</v>
+      </c>
+      <c r="E46" t="n">
+        <v>135</v>
+      </c>
+      <c r="F46" t="n">
+        <v>230</v>
+      </c>
+      <c r="G46" t="n">
         <v>135.3333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>135</v>
-      </c>
-      <c r="K27" t="n">
-        <v>135</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>135</v>
-      </c>
-      <c r="C28" t="n">
-        <v>135</v>
-      </c>
-      <c r="D28" t="n">
-        <v>135</v>
-      </c>
-      <c r="E28" t="n">
-        <v>135</v>
-      </c>
-      <c r="F28" t="n">
-        <v>128.9886</v>
-      </c>
-      <c r="G28" t="n">
-        <v>135</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>135</v>
-      </c>
-      <c r="K28" t="n">
-        <v>135</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>134</v>
-      </c>
-      <c r="C29" t="n">
-        <v>134</v>
-      </c>
-      <c r="D29" t="n">
-        <v>134</v>
-      </c>
-      <c r="E29" t="n">
-        <v>134</v>
-      </c>
-      <c r="F29" t="n">
-        <v>399.4107</v>
-      </c>
-      <c r="G29" t="n">
-        <v>134.6666666666667</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>134</v>
-      </c>
-      <c r="K29" t="n">
-        <v>135</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>134</v>
-      </c>
-      <c r="C30" t="n">
-        <v>134</v>
-      </c>
-      <c r="D30" t="n">
-        <v>134</v>
-      </c>
-      <c r="E30" t="n">
-        <v>134</v>
-      </c>
-      <c r="F30" t="n">
-        <v>350.5791</v>
-      </c>
-      <c r="G30" t="n">
-        <v>134.3333333333333</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>134</v>
-      </c>
-      <c r="K30" t="n">
-        <v>134</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>133</v>
-      </c>
-      <c r="C31" t="n">
-        <v>133</v>
-      </c>
-      <c r="D31" t="n">
-        <v>133</v>
-      </c>
-      <c r="E31" t="n">
-        <v>133</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G31" t="n">
-        <v>133.6666666666667</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>133</v>
-      </c>
-      <c r="K31" t="n">
-        <v>134</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>133</v>
-      </c>
-      <c r="C32" t="n">
-        <v>132</v>
-      </c>
-      <c r="D32" t="n">
-        <v>133</v>
-      </c>
-      <c r="E32" t="n">
-        <v>132</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G32" t="n">
-        <v>133</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>133</v>
-      </c>
-      <c r="K32" t="n">
-        <v>134</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>137</v>
+      </c>
+      <c r="C47" t="n">
+        <v>137</v>
+      </c>
+      <c r="D47" t="n">
+        <v>137</v>
+      </c>
+      <c r="E47" t="n">
+        <v>137</v>
+      </c>
+      <c r="F47" t="n">
+        <v>18.3288</v>
+      </c>
+      <c r="G47" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>137</v>
+      </c>
+      <c r="C48" t="n">
+        <v>137</v>
+      </c>
+      <c r="D48" t="n">
+        <v>137</v>
+      </c>
+      <c r="E48" t="n">
+        <v>137</v>
+      </c>
+      <c r="F48" t="n">
+        <v>269.07</v>
+      </c>
+      <c r="G48" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>136</v>
+      </c>
+      <c r="C49" t="n">
+        <v>136</v>
+      </c>
+      <c r="D49" t="n">
+        <v>136</v>
+      </c>
+      <c r="E49" t="n">
+        <v>136</v>
+      </c>
+      <c r="F49" t="n">
+        <v>386.649</v>
+      </c>
+      <c r="G49" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>136</v>
+      </c>
+      <c r="C50" t="n">
+        <v>136</v>
+      </c>
+      <c r="D50" t="n">
+        <v>136</v>
+      </c>
+      <c r="E50" t="n">
+        <v>136</v>
+      </c>
+      <c r="F50" t="n">
+        <v>136.1129</v>
+      </c>
+      <c r="G50" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>137</v>
+      </c>
+      <c r="C51" t="n">
+        <v>137</v>
+      </c>
+      <c r="D51" t="n">
+        <v>137</v>
+      </c>
+      <c r="E51" t="n">
+        <v>137</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3860.3357</v>
+      </c>
+      <c r="G51" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>136</v>
+      </c>
+      <c r="C52" t="n">
+        <v>139</v>
+      </c>
+      <c r="D52" t="n">
+        <v>139</v>
+      </c>
+      <c r="E52" t="n">
+        <v>136</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3469.6272</v>
+      </c>
+      <c r="G52" t="n">
+        <v>137.3333333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>137</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>134</v>
-      </c>
-      <c r="C33" t="n">
-        <v>134</v>
-      </c>
-      <c r="D33" t="n">
-        <v>134</v>
-      </c>
-      <c r="E33" t="n">
-        <v>134</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2368.3059</v>
-      </c>
-      <c r="G33" t="n">
-        <v>133</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>134</v>
-      </c>
-      <c r="K33" t="n">
-        <v>134</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>136</v>
-      </c>
-      <c r="C34" t="n">
-        <v>136</v>
-      </c>
-      <c r="D34" t="n">
-        <v>136</v>
-      </c>
-      <c r="E34" t="n">
-        <v>136</v>
-      </c>
-      <c r="F34" t="n">
-        <v>7573.5294</v>
-      </c>
-      <c r="G34" t="n">
-        <v>134</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>136</v>
-      </c>
-      <c r="K34" t="n">
-        <v>134</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>137</v>
-      </c>
-      <c r="C35" t="n">
-        <v>137</v>
-      </c>
-      <c r="D35" t="n">
-        <v>137</v>
-      </c>
-      <c r="E35" t="n">
-        <v>137</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6682.3288</v>
-      </c>
-      <c r="G35" t="n">
-        <v>135.6666666666667</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>137</v>
-      </c>
-      <c r="K35" t="n">
-        <v>134</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>137</v>
-      </c>
-      <c r="C36" t="n">
-        <v>137</v>
-      </c>
-      <c r="D36" t="n">
-        <v>137</v>
-      </c>
-      <c r="E36" t="n">
-        <v>137</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.6712</v>
-      </c>
-      <c r="G36" t="n">
-        <v>136.6666666666667</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>137</v>
-      </c>
-      <c r="K36" t="n">
-        <v>134</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>136</v>
-      </c>
-      <c r="C37" t="n">
-        <v>136</v>
-      </c>
-      <c r="D37" t="n">
-        <v>136</v>
-      </c>
-      <c r="E37" t="n">
-        <v>136</v>
-      </c>
-      <c r="F37" t="n">
-        <v>672.2727</v>
-      </c>
-      <c r="G37" t="n">
-        <v>136.6666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>136</v>
-      </c>
-      <c r="K37" t="n">
-        <v>134</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>135</v>
-      </c>
-      <c r="C38" t="n">
-        <v>135</v>
-      </c>
-      <c r="D38" t="n">
-        <v>135</v>
-      </c>
-      <c r="E38" t="n">
-        <v>135</v>
-      </c>
-      <c r="F38" t="n">
-        <v>408.3914</v>
-      </c>
-      <c r="G38" t="n">
-        <v>136</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>135</v>
-      </c>
-      <c r="K38" t="n">
-        <v>134</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>136</v>
-      </c>
-      <c r="C39" t="n">
-        <v>136</v>
-      </c>
-      <c r="D39" t="n">
-        <v>136</v>
-      </c>
-      <c r="E39" t="n">
-        <v>136</v>
-      </c>
-      <c r="F39" t="n">
-        <v>17522.1565</v>
-      </c>
-      <c r="G39" t="n">
-        <v>135.6666666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>136</v>
-      </c>
-      <c r="K39" t="n">
-        <v>134</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>136</v>
-      </c>
-      <c r="C40" t="n">
-        <v>136</v>
-      </c>
-      <c r="D40" t="n">
-        <v>136</v>
-      </c>
-      <c r="E40" t="n">
-        <v>136</v>
-      </c>
-      <c r="F40" t="n">
-        <v>407.6307</v>
-      </c>
-      <c r="G40" t="n">
-        <v>135.6666666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>136</v>
-      </c>
-      <c r="K40" t="n">
-        <v>134</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>136</v>
-      </c>
-      <c r="C41" t="n">
-        <v>136</v>
-      </c>
-      <c r="D41" t="n">
-        <v>136</v>
-      </c>
-      <c r="E41" t="n">
-        <v>136</v>
-      </c>
-      <c r="F41" t="n">
-        <v>78</v>
-      </c>
-      <c r="G41" t="n">
-        <v>136</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>136</v>
-      </c>
-      <c r="K41" t="n">
-        <v>134</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>136</v>
-      </c>
-      <c r="C42" t="n">
-        <v>136</v>
-      </c>
-      <c r="D42" t="n">
-        <v>136</v>
-      </c>
-      <c r="E42" t="n">
-        <v>136</v>
-      </c>
-      <c r="F42" t="n">
-        <v>501.0538</v>
-      </c>
-      <c r="G42" t="n">
-        <v>136</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>136</v>
-      </c>
-      <c r="K42" t="n">
-        <v>134</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>136</v>
-      </c>
-      <c r="C43" t="n">
-        <v>136</v>
-      </c>
-      <c r="D43" t="n">
-        <v>136</v>
-      </c>
-      <c r="E43" t="n">
-        <v>136</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6180.4159</v>
-      </c>
-      <c r="G43" t="n">
-        <v>136</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>136</v>
-      </c>
-      <c r="K43" t="n">
-        <v>134</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>136</v>
-      </c>
-      <c r="C44" t="n">
-        <v>136</v>
-      </c>
-      <c r="D44" t="n">
-        <v>136</v>
-      </c>
-      <c r="E44" t="n">
-        <v>136</v>
-      </c>
-      <c r="F44" t="n">
-        <v>418.1537</v>
-      </c>
-      <c r="G44" t="n">
-        <v>136</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>136</v>
-      </c>
-      <c r="K44" t="n">
-        <v>134</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>136</v>
-      </c>
-      <c r="C45" t="n">
-        <v>135</v>
-      </c>
-      <c r="D45" t="n">
-        <v>136</v>
-      </c>
-      <c r="E45" t="n">
-        <v>135</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2341.5389</v>
-      </c>
-      <c r="G45" t="n">
-        <v>135.6666666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>136</v>
-      </c>
-      <c r="K45" t="n">
-        <v>134</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>135</v>
-      </c>
-      <c r="C46" t="n">
-        <v>135</v>
-      </c>
-      <c r="D46" t="n">
-        <v>135</v>
-      </c>
-      <c r="E46" t="n">
-        <v>135</v>
-      </c>
-      <c r="F46" t="n">
-        <v>230</v>
-      </c>
-      <c r="G46" t="n">
-        <v>135.3333333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>135</v>
-      </c>
-      <c r="K46" t="n">
-        <v>134</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>137</v>
-      </c>
-      <c r="C47" t="n">
-        <v>137</v>
-      </c>
-      <c r="D47" t="n">
-        <v>137</v>
-      </c>
-      <c r="E47" t="n">
-        <v>137</v>
-      </c>
-      <c r="F47" t="n">
-        <v>18.3288</v>
-      </c>
-      <c r="G47" t="n">
-        <v>135.6666666666667</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>137</v>
-      </c>
-      <c r="K47" t="n">
-        <v>134</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>137</v>
-      </c>
-      <c r="C48" t="n">
-        <v>137</v>
-      </c>
-      <c r="D48" t="n">
-        <v>137</v>
-      </c>
-      <c r="E48" t="n">
-        <v>137</v>
-      </c>
-      <c r="F48" t="n">
-        <v>269.07</v>
-      </c>
-      <c r="G48" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>137</v>
-      </c>
-      <c r="K48" t="n">
-        <v>134</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>136</v>
-      </c>
-      <c r="C49" t="n">
-        <v>136</v>
-      </c>
-      <c r="D49" t="n">
-        <v>136</v>
-      </c>
-      <c r="E49" t="n">
-        <v>136</v>
-      </c>
-      <c r="F49" t="n">
-        <v>386.649</v>
-      </c>
-      <c r="G49" t="n">
-        <v>136.6666666666667</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>136</v>
-      </c>
-      <c r="K49" t="n">
-        <v>134</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>136</v>
-      </c>
-      <c r="C50" t="n">
-        <v>136</v>
-      </c>
-      <c r="D50" t="n">
-        <v>136</v>
-      </c>
-      <c r="E50" t="n">
-        <v>136</v>
-      </c>
-      <c r="F50" t="n">
-        <v>136.1129</v>
-      </c>
-      <c r="G50" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>134</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>137</v>
-      </c>
-      <c r="C51" t="n">
-        <v>137</v>
-      </c>
-      <c r="D51" t="n">
-        <v>137</v>
-      </c>
-      <c r="E51" t="n">
-        <v>137</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3860.3357</v>
-      </c>
-      <c r="G51" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>134</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>136</v>
-      </c>
-      <c r="C52" t="n">
-        <v>139</v>
-      </c>
-      <c r="D52" t="n">
-        <v>139</v>
-      </c>
-      <c r="E52" t="n">
-        <v>136</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3469.6272</v>
-      </c>
-      <c r="G52" t="n">
-        <v>137.3333333333333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>134</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2456,9 +2264,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>134</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,9 +2303,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>134</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,9 +2342,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>134</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2579,9 +2381,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>134</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,9 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>134</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,9 +2459,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>134</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2702,9 +2498,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>134</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2743,9 +2537,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>134</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,9 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>134</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,9 +2615,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>134</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,9 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>134</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,9 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>134</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,9 +2732,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>134</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,9 +2771,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>134</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,9 +2810,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>134</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,9 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>134</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,9 +2888,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>134</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,9 +2927,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>134</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,9 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>134</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,9 +3005,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>134</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,9 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>134</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,9 +3083,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>134</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,9 +3122,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>134</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,9 +3161,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>134</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3440,9 +3200,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>134</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3481,9 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>134</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>134</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,9 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>134</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,9 +3356,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>134</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3645,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>134</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,9 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>134</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,9 +3473,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>134</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3768,9 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>134</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,9 +3551,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>134</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>134</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3891,9 +3629,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>134</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,9 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>134</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,9 +3707,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>134</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,9 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>134</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,90 +3782,94 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>134</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>148</v>
+      </c>
+      <c r="C93" t="n">
+        <v>148</v>
+      </c>
+      <c r="D93" t="n">
+        <v>148</v>
+      </c>
+      <c r="E93" t="n">
+        <v>148</v>
+      </c>
+      <c r="F93" t="n">
+        <v>500</v>
+      </c>
+      <c r="G93" t="n">
+        <v>148</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>147</v>
+      </c>
+      <c r="C94" t="n">
+        <v>144</v>
+      </c>
+      <c r="D94" t="n">
+        <v>147</v>
+      </c>
+      <c r="E94" t="n">
+        <v>144</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8917.9398</v>
+      </c>
+      <c r="G94" t="n">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1.099477611940299</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>148</v>
-      </c>
-      <c r="C93" t="n">
-        <v>148</v>
-      </c>
-      <c r="D93" t="n">
-        <v>148</v>
-      </c>
-      <c r="E93" t="n">
-        <v>148</v>
-      </c>
-      <c r="F93" t="n">
-        <v>500</v>
-      </c>
-      <c r="G93" t="n">
-        <v>148</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>147</v>
-      </c>
-      <c r="C94" t="n">
-        <v>144</v>
-      </c>
-      <c r="D94" t="n">
-        <v>147</v>
-      </c>
-      <c r="E94" t="n">
-        <v>144</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8917.9398</v>
-      </c>
-      <c r="G94" t="n">
-        <v>146.6666666666667</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4163,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4198,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>976.2965</v>
+        <v>2135.0404</v>
       </c>
       <c r="G2" t="n">
-        <v>138.6666666666667</v>
+        <v>132.8833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>4441.355</v>
+        <v>976.2965</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>132.9666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>5916</v>
+        <v>4441.355</v>
       </c>
       <c r="G4" t="n">
-        <v>139</v>
+        <v>133.0833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>5916</v>
       </c>
       <c r="G5" t="n">
-        <v>139</v>
+        <v>133.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>139</v>
       </c>
       <c r="F6" t="n">
-        <v>614.0978</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>139</v>
+        <v>133.35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>139</v>
       </c>
       <c r="C7" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D7" t="n">
         <v>139</v>
       </c>
       <c r="E7" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F7" t="n">
-        <v>6819.633</v>
+        <v>614.0978</v>
       </c>
       <c r="G7" t="n">
-        <v>137.6666666666667</v>
+        <v>133.45</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" t="n">
-        <v>3417.9108</v>
+        <v>6819.633</v>
       </c>
       <c r="G8" t="n">
-        <v>137</v>
+        <v>133.5166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>3417.9108</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6666666666667</v>
+        <v>133.5833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
-        <v>563.372</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6666666666667</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" t="n">
-        <v>968.9999</v>
+        <v>563.372</v>
       </c>
       <c r="G11" t="n">
-        <v>136.3333333333333</v>
+        <v>133.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>136</v>
       </c>
       <c r="C12" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" t="n">
         <v>136</v>
       </c>
       <c r="F12" t="n">
-        <v>22927.3991</v>
+        <v>968.9999</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6666666666667</v>
+        <v>133.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E13" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" t="n">
-        <v>6236.6903</v>
+        <v>22927.3991</v>
       </c>
       <c r="G13" t="n">
-        <v>137.3333333333333</v>
+        <v>133.85</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>138</v>
       </c>
       <c r="E14" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" t="n">
-        <v>3994.3285</v>
+        <v>6236.6903</v>
       </c>
       <c r="G14" t="n">
-        <v>137.6666666666667</v>
+        <v>133.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
         <v>137</v>
       </c>
       <c r="D15" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E15" t="n">
         <v>137</v>
       </c>
       <c r="F15" t="n">
-        <v>600.2479</v>
+        <v>3994.3285</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>137</v>
       </c>
       <c r="F16" t="n">
-        <v>415.0927</v>
+        <v>600.2479</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>134.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>137</v>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D17" t="n">
         <v>137</v>
       </c>
       <c r="E17" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>415.0927</v>
       </c>
       <c r="G17" t="n">
-        <v>136.6666666666667</v>
+        <v>134.1833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" t="n">
-        <v>30345.4884</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>136</v>
+        <v>134.2333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>136</v>
       </c>
       <c r="C19" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" t="n">
         <v>136</v>
       </c>
       <c r="E19" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="n">
-        <v>285.664</v>
+        <v>30345.4884</v>
       </c>
       <c r="G19" t="n">
-        <v>135.6666666666667</v>
+        <v>134.2666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" t="n">
-        <v>23051.9783</v>
+        <v>285.664</v>
       </c>
       <c r="G20" t="n">
-        <v>135.3333333333333</v>
+        <v>134.3333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>135</v>
       </c>
       <c r="F21" t="n">
-        <v>517.1675</v>
+        <v>23051.9783</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3333333333333</v>
+        <v>134.3833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>135</v>
       </c>
       <c r="F22" t="n">
-        <v>2422.1832</v>
+        <v>517.1675</v>
       </c>
       <c r="G22" t="n">
-        <v>135</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" t="n">
-        <v>1.17</v>
+        <v>2422.1832</v>
       </c>
       <c r="G23" t="n">
-        <v>135.3333333333333</v>
+        <v>134.4666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24" t="n">
-        <v>409.5775</v>
+        <v>1.17</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3333333333333</v>
+        <v>134.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>409.5775</v>
       </c>
       <c r="G25" t="n">
-        <v>135.6666666666667</v>
+        <v>134.55</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D26" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" t="n">
-        <v>1945.8257</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>135.3333333333333</v>
+        <v>134.6166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>135</v>
       </c>
       <c r="F27" t="n">
-        <v>371.0114</v>
+        <v>1945.8257</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3333333333333</v>
+        <v>134.6833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>135</v>
       </c>
       <c r="F28" t="n">
-        <v>128.9886</v>
+        <v>371.0114</v>
       </c>
       <c r="G28" t="n">
-        <v>135</v>
+        <v>134.7666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" t="n">
-        <v>399.4107</v>
+        <v>128.9886</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6666666666667</v>
+        <v>134.8666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>134</v>
       </c>
       <c r="F30" t="n">
-        <v>350.5791</v>
+        <v>399.4107</v>
       </c>
       <c r="G30" t="n">
-        <v>134.3333333333333</v>
+        <v>134.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D31" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" t="n">
-        <v>3200</v>
+        <v>350.5791</v>
       </c>
       <c r="G31" t="n">
-        <v>133.6666666666667</v>
+        <v>134.9166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>133</v>
       </c>
       <c r="C32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
         <v>133</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G32" t="n">
-        <v>133</v>
+        <v>134.95</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" t="n">
-        <v>2368.3059</v>
+        <v>1600</v>
       </c>
       <c r="G33" t="n">
-        <v>133</v>
+        <v>134.9333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,31 +1553,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E34" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" t="n">
-        <v>7573.5294</v>
+        <v>2368.3059</v>
       </c>
       <c r="G34" t="n">
-        <v>134</v>
+        <v>134.95</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>132</v>
+      </c>
+      <c r="K34" t="n">
+        <v>132</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1588,32 +1592,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" t="n">
-        <v>6682.3288</v>
+        <v>7573.5294</v>
       </c>
       <c r="G35" t="n">
-        <v>135.6666666666667</v>
+        <v>135</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>134</v>
+      </c>
+      <c r="K35" t="n">
+        <v>132</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,20 +1647,28 @@
         <v>137</v>
       </c>
       <c r="F36" t="n">
-        <v>2.6712</v>
+        <v>6682.3288</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6666666666667</v>
+        <v>135.0666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>136</v>
+      </c>
+      <c r="K36" t="n">
+        <v>132</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" t="n">
-        <v>672.2727</v>
+        <v>2.6712</v>
       </c>
       <c r="G37" t="n">
-        <v>136.6666666666667</v>
+        <v>135.1833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1713,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38" t="n">
-        <v>408.3914</v>
+        <v>672.2727</v>
       </c>
       <c r="G38" t="n">
-        <v>136</v>
+        <v>135.2833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1748,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" t="n">
-        <v>17522.1565</v>
+        <v>408.3914</v>
       </c>
       <c r="G39" t="n">
-        <v>135.6666666666667</v>
+        <v>135.3166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,23 +1795,19 @@
         <v>136</v>
       </c>
       <c r="F40" t="n">
-        <v>407.6307</v>
+        <v>17522.1565</v>
       </c>
       <c r="G40" t="n">
-        <v>135.6666666666667</v>
+        <v>135.3833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>136</v>
-      </c>
-      <c r="K40" t="n">
-        <v>136</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
@@ -1814,10 +1830,10 @@
         <v>136</v>
       </c>
       <c r="F41" t="n">
-        <v>78</v>
+        <v>407.6307</v>
       </c>
       <c r="G41" t="n">
-        <v>136</v>
+        <v>135.45</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1826,14 +1842,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>136</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1855,10 +1865,10 @@
         <v>136</v>
       </c>
       <c r="F42" t="n">
-        <v>501.0538</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
-        <v>136</v>
+        <v>135.5166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1867,14 +1877,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>136</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1896,10 +1900,10 @@
         <v>136</v>
       </c>
       <c r="F43" t="n">
-        <v>6180.4159</v>
+        <v>501.0538</v>
       </c>
       <c r="G43" t="n">
-        <v>136</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1931,10 +1935,10 @@
         <v>136</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1537</v>
+        <v>6180.4159</v>
       </c>
       <c r="G44" t="n">
-        <v>136</v>
+        <v>135.65</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1957,19 +1961,19 @@
         <v>136</v>
       </c>
       <c r="C45" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" t="n">
         <v>136</v>
       </c>
       <c r="E45" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F45" t="n">
-        <v>2341.5389</v>
+        <v>418.1537</v>
       </c>
       <c r="G45" t="n">
-        <v>135.6666666666667</v>
+        <v>135.7166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1989,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" t="n">
         <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E46" t="n">
         <v>135</v>
       </c>
       <c r="F46" t="n">
-        <v>230</v>
+        <v>2341.5389</v>
       </c>
       <c r="G46" t="n">
-        <v>135.3333333333333</v>
+        <v>135.7833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F47" t="n">
-        <v>18.3288</v>
+        <v>230</v>
       </c>
       <c r="G47" t="n">
-        <v>135.6666666666667</v>
+        <v>135.85</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2071,10 +2075,10 @@
         <v>137</v>
       </c>
       <c r="F48" t="n">
-        <v>269.07</v>
+        <v>18.3288</v>
       </c>
       <c r="G48" t="n">
-        <v>136.3333333333333</v>
+        <v>135.9666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F49" t="n">
-        <v>386.649</v>
+        <v>269.07</v>
       </c>
       <c r="G49" t="n">
-        <v>136.6666666666667</v>
+        <v>136.0833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,10 +2145,10 @@
         <v>136</v>
       </c>
       <c r="F50" t="n">
-        <v>136.1129</v>
+        <v>386.649</v>
       </c>
       <c r="G50" t="n">
-        <v>136.3333333333333</v>
+        <v>136.1333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" t="n">
-        <v>3860.3357</v>
+        <v>136.1129</v>
       </c>
       <c r="G51" t="n">
-        <v>136.3333333333333</v>
+        <v>136.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2199,38 +2203,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F52" t="n">
-        <v>3469.6272</v>
+        <v>3860.3357</v>
       </c>
       <c r="G52" t="n">
-        <v>137.3333333333333</v>
+        <v>136.25</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>137</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,19 +2241,19 @@
         <v>136</v>
       </c>
       <c r="C53" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D53" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E53" t="n">
         <v>136</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>3469.6272</v>
       </c>
       <c r="G53" t="n">
-        <v>137.3333333333333</v>
+        <v>136.3166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,11 +2263,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2279,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" t="n">
         <v>136</v>
       </c>
       <c r="D54" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" t="n">
         <v>136</v>
       </c>
       <c r="F54" t="n">
-        <v>39597.5209</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>137</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,11 +2298,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2318,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="n">
         <v>136</v>
       </c>
       <c r="D55" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E55" t="n">
         <v>136</v>
       </c>
       <c r="F55" t="n">
-        <v>5847.4032</v>
+        <v>39597.5209</v>
       </c>
       <c r="G55" t="n">
-        <v>136</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2343,11 +2333,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2357,22 +2343,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" t="n">
-        <v>1960.7095</v>
+        <v>5847.4032</v>
       </c>
       <c r="G56" t="n">
-        <v>136.6666666666667</v>
+        <v>136.3166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2382,11 +2368,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2396,7 +2378,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" t="n">
         <v>138</v>
@@ -2405,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="E57" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>1960.7095</v>
       </c>
       <c r="G57" t="n">
-        <v>137.3333333333333</v>
+        <v>136.3666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2421,11 +2403,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2413,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" t="n">
         <v>138</v>
@@ -2444,13 +2422,13 @@
         <v>138</v>
       </c>
       <c r="E58" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58" t="n">
-        <v>628.9399</v>
+        <v>500</v>
       </c>
       <c r="G58" t="n">
-        <v>138</v>
+        <v>136.3666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2460,11 +2438,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2477,19 +2451,19 @@
         <v>137</v>
       </c>
       <c r="C59" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E59" t="n">
         <v>137</v>
       </c>
       <c r="F59" t="n">
-        <v>2950.7299</v>
+        <v>628.9399</v>
       </c>
       <c r="G59" t="n">
-        <v>137.6666666666667</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2499,11 +2473,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2525,10 +2495,10 @@
         <v>137</v>
       </c>
       <c r="F60" t="n">
-        <v>3258.3958</v>
+        <v>2950.7299</v>
       </c>
       <c r="G60" t="n">
-        <v>137.3333333333333</v>
+        <v>136.3166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2538,11 +2508,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2564,10 +2530,10 @@
         <v>137</v>
       </c>
       <c r="F61" t="n">
-        <v>913.775</v>
+        <v>3258.3958</v>
       </c>
       <c r="G61" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2577,11 +2543,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2591,22 +2553,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" t="n">
-        <v>482.93</v>
+        <v>913.775</v>
       </c>
       <c r="G62" t="n">
-        <v>137.3333333333333</v>
+        <v>136.2666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2616,11 +2578,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2642,10 +2600,10 @@
         <v>138</v>
       </c>
       <c r="F63" t="n">
-        <v>484.5083</v>
+        <v>482.93</v>
       </c>
       <c r="G63" t="n">
-        <v>137.6666666666667</v>
+        <v>136.25</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2655,11 +2613,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2681,10 +2635,10 @@
         <v>138</v>
       </c>
       <c r="F64" t="n">
-        <v>616.2546</v>
+        <v>484.5083</v>
       </c>
       <c r="G64" t="n">
-        <v>138</v>
+        <v>136.2333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,11 +2648,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2670,10 @@
         <v>138</v>
       </c>
       <c r="F65" t="n">
-        <v>1108.5634</v>
+        <v>616.2546</v>
       </c>
       <c r="G65" t="n">
-        <v>138</v>
+        <v>136.2166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2733,11 +2683,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2747,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C66" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E66" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F66" t="n">
-        <v>670.663</v>
+        <v>1108.5634</v>
       </c>
       <c r="G66" t="n">
-        <v>137</v>
+        <v>136.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2772,11 +2718,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2786,22 +2728,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E67" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F67" t="n">
-        <v>3876.6597</v>
+        <v>670.663</v>
       </c>
       <c r="G67" t="n">
-        <v>136.3333333333333</v>
+        <v>136.1333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2811,11 +2753,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2825,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D68" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E68" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F68" t="n">
-        <v>1120</v>
+        <v>3876.6597</v>
       </c>
       <c r="G68" t="n">
-        <v>136.6666666666667</v>
+        <v>136.15</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,11 +2788,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2876,10 +2810,10 @@
         <v>139</v>
       </c>
       <c r="F69" t="n">
-        <v>143.884</v>
+        <v>1120</v>
       </c>
       <c r="G69" t="n">
-        <v>138</v>
+        <v>136.1833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2889,11 +2823,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2903,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>143.884</v>
       </c>
       <c r="G70" t="n">
-        <v>139.3333333333333</v>
+        <v>136.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2928,11 +2858,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2954,10 +2880,10 @@
         <v>140</v>
       </c>
       <c r="F71" t="n">
-        <v>2887.8312</v>
+        <v>250</v>
       </c>
       <c r="G71" t="n">
-        <v>139.6666666666667</v>
+        <v>136.2833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2967,11 +2893,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2981,22 +2903,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E72" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" t="n">
-        <v>625.3052</v>
+        <v>2887.8312</v>
       </c>
       <c r="G72" t="n">
-        <v>140.3333333333333</v>
+        <v>136.35</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3006,11 +2928,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3032,10 +2950,10 @@
         <v>141</v>
       </c>
       <c r="F73" t="n">
-        <v>1581.5362</v>
+        <v>625.3052</v>
       </c>
       <c r="G73" t="n">
-        <v>140.6666666666667</v>
+        <v>136.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3045,11 +2963,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3059,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D74" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E74" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" t="n">
-        <v>1546.782</v>
+        <v>1581.5362</v>
       </c>
       <c r="G74" t="n">
-        <v>141.6666666666667</v>
+        <v>136.45</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,11 +2998,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3098,7 +3008,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" t="n">
         <v>143</v>
@@ -3107,13 +3017,13 @@
         <v>143</v>
       </c>
       <c r="E75" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F75" t="n">
-        <v>1555</v>
+        <v>1546.782</v>
       </c>
       <c r="G75" t="n">
-        <v>142.3333333333333</v>
+        <v>136.55</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3123,11 +3033,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3140,19 +3046,19 @@
         <v>143</v>
       </c>
       <c r="C76" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" t="n">
         <v>143</v>
       </c>
       <c r="F76" t="n">
-        <v>1739.86</v>
+        <v>1555</v>
       </c>
       <c r="G76" t="n">
-        <v>143.3333333333333</v>
+        <v>136.65</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3162,11 +3068,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3176,7 +3078,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" t="n">
         <v>144</v>
@@ -3185,13 +3087,13 @@
         <v>144</v>
       </c>
       <c r="E77" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F77" t="n">
-        <v>1880</v>
+        <v>1739.86</v>
       </c>
       <c r="G77" t="n">
-        <v>143.6666666666667</v>
+        <v>136.7666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3201,11 +3103,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3215,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C78" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D78" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E78" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F78" t="n">
-        <v>11973.8137</v>
+        <v>1880</v>
       </c>
       <c r="G78" t="n">
-        <v>143.6666666666667</v>
+        <v>136.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3240,11 +3138,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3254,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D79" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E79" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F79" t="n">
-        <v>25964.7685</v>
+        <v>11973.8137</v>
       </c>
       <c r="G79" t="n">
-        <v>144.3333333333333</v>
+        <v>137.0333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3279,11 +3173,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3293,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" t="n">
         <v>146</v>
       </c>
       <c r="D80" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E80" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F80" t="n">
-        <v>2379.7808</v>
+        <v>25964.7685</v>
       </c>
       <c r="G80" t="n">
-        <v>145</v>
+        <v>137.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,11 +3208,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3332,36 +3218,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C81" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D81" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E81" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F81" t="n">
-        <v>392.8296</v>
+        <v>2379.7808</v>
       </c>
       <c r="G81" t="n">
-        <v>145.3333333333333</v>
+        <v>137.3833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3371,36 +3253,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C82" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D82" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E82" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F82" t="n">
-        <v>264.2516</v>
+        <v>392.8296</v>
       </c>
       <c r="G82" t="n">
-        <v>144.3333333333333</v>
+        <v>137.5333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3410,36 +3288,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C83" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E83" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F83" t="n">
-        <v>4950.9878</v>
+        <v>264.2516</v>
       </c>
       <c r="G83" t="n">
-        <v>144</v>
+        <v>137.6666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3449,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" t="n">
         <v>145</v>
       </c>
       <c r="D84" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E84" t="n">
         <v>145</v>
       </c>
       <c r="F84" t="n">
-        <v>4910.2825</v>
+        <v>4950.9878</v>
       </c>
       <c r="G84" t="n">
-        <v>144.3333333333333</v>
+        <v>137.8166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3474,11 +3348,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3500,10 +3370,10 @@
         <v>145</v>
       </c>
       <c r="F85" t="n">
-        <v>2204</v>
+        <v>4910.2825</v>
       </c>
       <c r="G85" t="n">
-        <v>145</v>
+        <v>137.9833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3513,11 +3383,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3539,10 +3405,10 @@
         <v>145</v>
       </c>
       <c r="F86" t="n">
-        <v>4413.7931</v>
+        <v>2204</v>
       </c>
       <c r="G86" t="n">
-        <v>145</v>
+        <v>138.1333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3552,11 +3418,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3578,10 +3440,10 @@
         <v>145</v>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4413.7931</v>
       </c>
       <c r="G87" t="n">
-        <v>145</v>
+        <v>138.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3591,11 +3453,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3617,10 +3475,10 @@
         <v>145</v>
       </c>
       <c r="F88" t="n">
-        <v>164.5</v>
+        <v>250</v>
       </c>
       <c r="G88" t="n">
-        <v>145</v>
+        <v>138.4666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3630,11 +3488,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3644,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F89" t="n">
-        <v>2687.6969</v>
+        <v>164.5</v>
       </c>
       <c r="G89" t="n">
-        <v>145.3333333333333</v>
+        <v>138.6333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3669,11 +3523,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3686,19 +3536,19 @@
         <v>146</v>
       </c>
       <c r="C90" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E90" t="n">
         <v>146</v>
       </c>
       <c r="F90" t="n">
-        <v>2559.6786</v>
+        <v>2687.6969</v>
       </c>
       <c r="G90" t="n">
-        <v>146</v>
+        <v>138.8333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3708,11 +3558,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3722,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C91" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E91" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1</v>
+        <v>2559.6786</v>
       </c>
       <c r="G91" t="n">
-        <v>147</v>
+        <v>139.05</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3747,11 +3593,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3761,7 +3603,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C92" t="n">
         <v>148</v>
@@ -3770,13 +3612,13 @@
         <v>148</v>
       </c>
       <c r="E92" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F92" t="n">
-        <v>31124.2629</v>
+        <v>1.1</v>
       </c>
       <c r="G92" t="n">
-        <v>147.6666666666667</v>
+        <v>139.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3786,11 +3628,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3800,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" t="n">
         <v>148</v>
@@ -3809,13 +3647,13 @@
         <v>148</v>
       </c>
       <c r="E93" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>31124.2629</v>
       </c>
       <c r="G93" t="n">
-        <v>148</v>
+        <v>139.5666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3825,11 +3663,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3839,59 +3673,57 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D94" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E94" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F94" t="n">
-        <v>8917.9398</v>
+        <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>146.6666666666667</v>
+        <v>139.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C95" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E95" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F95" t="n">
-        <v>260.058</v>
+        <v>8917.9398</v>
       </c>
       <c r="G95" t="n">
-        <v>145.6666666666667</v>
+        <v>139.9333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3911,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E96" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F96" t="n">
-        <v>1.11</v>
+        <v>260.058</v>
       </c>
       <c r="G96" t="n">
-        <v>145.3333333333333</v>
+        <v>140.0666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3946,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C97" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D97" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E97" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F97" t="n">
-        <v>31832.961</v>
+        <v>1.11</v>
       </c>
       <c r="G97" t="n">
-        <v>145</v>
+        <v>140.2333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3984,19 +3816,19 @@
         <v>145</v>
       </c>
       <c r="C98" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D98" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E98" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F98" t="n">
-        <v>515.4267</v>
+        <v>31832.961</v>
       </c>
       <c r="G98" t="n">
-        <v>145.3333333333333</v>
+        <v>140.35</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4016,7 +3848,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" t="n">
         <v>146</v>
@@ -4028,10 +3860,10 @@
         <v>145</v>
       </c>
       <c r="F99" t="n">
-        <v>13745.571</v>
+        <v>515.4267</v>
       </c>
       <c r="G99" t="n">
-        <v>145</v>
+        <v>140.5333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4060,13 +3892,13 @@
         <v>146</v>
       </c>
       <c r="E100" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F100" t="n">
-        <v>2969.9934</v>
+        <v>13745.571</v>
       </c>
       <c r="G100" t="n">
-        <v>146</v>
+        <v>140.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4098,10 +3930,10 @@
         <v>146</v>
       </c>
       <c r="F101" t="n">
-        <v>3496.5034</v>
+        <v>2969.9934</v>
       </c>
       <c r="G101" t="n">
-        <v>146</v>
+        <v>140.8666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4121,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D102" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F102" t="n">
-        <v>9061.4426</v>
+        <v>3496.5034</v>
       </c>
       <c r="G102" t="n">
-        <v>145.6666666666667</v>
+        <v>141.0333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4168,10 +4000,10 @@
         <v>145</v>
       </c>
       <c r="F103" t="n">
-        <v>8274.2027</v>
+        <v>9061.4426</v>
       </c>
       <c r="G103" t="n">
-        <v>145.3333333333333</v>
+        <v>141.1833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4191,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C104" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D104" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F104" t="n">
-        <v>3424.678</v>
+        <v>8274.2027</v>
       </c>
       <c r="G104" t="n">
-        <v>144.3333333333333</v>
+        <v>141.3333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4226,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C105" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D105" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E105" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>3424.678</v>
       </c>
       <c r="G105" t="n">
-        <v>144.6666666666667</v>
+        <v>141.45</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4273,10 +4105,10 @@
         <v>146</v>
       </c>
       <c r="F106" t="n">
-        <v>20.1575</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>145</v>
+        <v>141.6333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4296,22 +4128,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F107" t="n">
-        <v>13476.8682</v>
+        <v>20.1575</v>
       </c>
       <c r="G107" t="n">
-        <v>145.3333333333333</v>
+        <v>141.8166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4337,16 +4169,16 @@
         <v>144</v>
       </c>
       <c r="D108" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E108" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F108" t="n">
-        <v>3176</v>
+        <v>13476.8682</v>
       </c>
       <c r="G108" t="n">
-        <v>144.6666666666667</v>
+        <v>141.9333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4372,16 +4204,16 @@
         <v>144</v>
       </c>
       <c r="D109" t="n">
+        <v>145</v>
+      </c>
+      <c r="E109" t="n">
         <v>144</v>
       </c>
-      <c r="E109" t="n">
-        <v>143</v>
-      </c>
       <c r="F109" t="n">
-        <v>4829.9526</v>
+        <v>3176</v>
       </c>
       <c r="G109" t="n">
-        <v>144</v>
+        <v>142.05</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4401,7 +4233,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" t="n">
         <v>144</v>
@@ -4413,10 +4245,10 @@
         <v>143</v>
       </c>
       <c r="F110" t="n">
-        <v>3416.4399</v>
+        <v>4829.9526</v>
       </c>
       <c r="G110" t="n">
-        <v>144</v>
+        <v>142.1833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4436,22 +4268,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>143</v>
+      </c>
+      <c r="C111" t="n">
         <v>144</v>
       </c>
-      <c r="C111" t="n">
-        <v>145</v>
-      </c>
       <c r="D111" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E111" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F111" t="n">
-        <v>17391.4588</v>
+        <v>3416.4399</v>
       </c>
       <c r="G111" t="n">
-        <v>144.3333333333333</v>
+        <v>142.3166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4471,22 +4303,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>144</v>
+      </c>
+      <c r="C112" t="n">
         <v>145</v>
       </c>
-      <c r="C112" t="n">
-        <v>146</v>
-      </c>
       <c r="D112" t="n">
         <v>146</v>
       </c>
       <c r="E112" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F112" t="n">
-        <v>360.7671</v>
+        <v>17391.4588</v>
       </c>
       <c r="G112" t="n">
-        <v>145</v>
+        <v>142.45</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4506,22 +4338,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C113" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D113" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F113" t="n">
-        <v>4320</v>
+        <v>360.7671</v>
       </c>
       <c r="G113" t="n">
-        <v>145</v>
+        <v>142.5666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4553,10 +4385,10 @@
         <v>144</v>
       </c>
       <c r="F114" t="n">
-        <v>4593.1355</v>
+        <v>4320</v>
       </c>
       <c r="G114" t="n">
-        <v>144.6666666666667</v>
+        <v>142.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4588,10 +4420,10 @@
         <v>144</v>
       </c>
       <c r="F115" t="n">
-        <v>510.3895</v>
+        <v>4593.1355</v>
       </c>
       <c r="G115" t="n">
-        <v>144</v>
+        <v>142.8333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4611,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E116" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F116" t="n">
-        <v>1.18</v>
+        <v>510.3895</v>
       </c>
       <c r="G116" t="n">
-        <v>144.3333333333333</v>
+        <v>142.9666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4658,10 +4490,10 @@
         <v>145</v>
       </c>
       <c r="F117" t="n">
-        <v>755.8445</v>
+        <v>1.18</v>
       </c>
       <c r="G117" t="n">
-        <v>144.6666666666667</v>
+        <v>143.0833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4684,19 +4516,19 @@
         <v>145</v>
       </c>
       <c r="C118" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D118" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E118" t="n">
         <v>145</v>
       </c>
       <c r="F118" t="n">
-        <v>3544.9764</v>
+        <v>755.8445</v>
       </c>
       <c r="G118" t="n">
-        <v>145.3333333333333</v>
+        <v>143.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4716,7 +4548,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" t="n">
         <v>146</v>
@@ -4725,13 +4557,13 @@
         <v>146</v>
       </c>
       <c r="E119" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F119" t="n">
-        <v>33548.2319</v>
+        <v>3544.9764</v>
       </c>
       <c r="G119" t="n">
-        <v>145.6666666666667</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4763,10 +4595,10 @@
         <v>146</v>
       </c>
       <c r="F120" t="n">
-        <v>1121.5692</v>
+        <v>33548.2319</v>
       </c>
       <c r="G120" t="n">
-        <v>146</v>
+        <v>143.4833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4786,22 +4618,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C121" t="n">
         <v>146</v>
       </c>
       <c r="D121" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E121" t="n">
         <v>146</v>
       </c>
       <c r="F121" t="n">
-        <v>391.3121</v>
+        <v>1121.5692</v>
       </c>
       <c r="G121" t="n">
-        <v>146</v>
+        <v>143.6333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4821,22 +4653,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C122" t="n">
         <v>146</v>
       </c>
       <c r="D122" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E122" t="n">
         <v>146</v>
       </c>
       <c r="F122" t="n">
-        <v>886.1741</v>
+        <v>391.3121</v>
       </c>
       <c r="G122" t="n">
-        <v>146</v>
+        <v>143.7833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4862,16 +4694,16 @@
         <v>146</v>
       </c>
       <c r="D123" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E123" t="n">
         <v>146</v>
       </c>
       <c r="F123" t="n">
-        <v>10042.3289</v>
+        <v>886.1741</v>
       </c>
       <c r="G123" t="n">
-        <v>146</v>
+        <v>143.9166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4897,16 +4729,16 @@
         <v>146</v>
       </c>
       <c r="D124" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E124" t="n">
         <v>146</v>
       </c>
       <c r="F124" t="n">
-        <v>2534.2466</v>
+        <v>10042.3289</v>
       </c>
       <c r="G124" t="n">
-        <v>146</v>
+        <v>144.05</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4938,10 +4770,10 @@
         <v>146</v>
       </c>
       <c r="F125" t="n">
-        <v>3038.406</v>
+        <v>2534.2466</v>
       </c>
       <c r="G125" t="n">
-        <v>146</v>
+        <v>144.1833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4961,22 +4793,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C126" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D126" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E126" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F126" t="n">
-        <v>14371.081</v>
+        <v>3038.406</v>
       </c>
       <c r="G126" t="n">
-        <v>146.6666666666667</v>
+        <v>144.3166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5008,10 +4840,10 @@
         <v>148</v>
       </c>
       <c r="F127" t="n">
-        <v>1740.3714</v>
+        <v>14371.081</v>
       </c>
       <c r="G127" t="n">
-        <v>147.3333333333333</v>
+        <v>144.5333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5043,10 +4875,10 @@
         <v>148</v>
       </c>
       <c r="F128" t="n">
-        <v>134.2763</v>
+        <v>1740.3714</v>
       </c>
       <c r="G128" t="n">
-        <v>148</v>
+        <v>144.7333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5078,10 +4910,10 @@
         <v>148</v>
       </c>
       <c r="F129" t="n">
-        <v>640</v>
+        <v>134.2763</v>
       </c>
       <c r="G129" t="n">
-        <v>148</v>
+        <v>144.8833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5101,22 +4933,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C130" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D130" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E130" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F130" t="n">
-        <v>3889.306</v>
+        <v>640</v>
       </c>
       <c r="G130" t="n">
-        <v>147.3333333333333</v>
+        <v>145.0333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5139,19 +4971,19 @@
         <v>147</v>
       </c>
       <c r="C131" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D131" t="n">
         <v>147</v>
       </c>
       <c r="E131" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F131" t="n">
-        <v>471.3025</v>
+        <v>3889.306</v>
       </c>
       <c r="G131" t="n">
-        <v>147</v>
+        <v>145.1333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5171,22 +5003,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D132" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E132" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F132" t="n">
-        <v>646.3108</v>
+        <v>471.3025</v>
       </c>
       <c r="G132" t="n">
-        <v>147</v>
+        <v>145.25</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5209,19 +5041,19 @@
         <v>148</v>
       </c>
       <c r="C133" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E133" t="n">
         <v>148</v>
       </c>
       <c r="F133" t="n">
-        <v>1931.0402</v>
+        <v>646.3108</v>
       </c>
       <c r="G133" t="n">
-        <v>148</v>
+        <v>145.3666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5241,22 +5073,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134" t="n">
         <v>149</v>
       </c>
       <c r="D134" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E134" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" t="n">
-        <v>18533.8582</v>
+        <v>1931.0402</v>
       </c>
       <c r="G134" t="n">
-        <v>148.6666666666667</v>
+        <v>145.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5279,19 +5111,19 @@
         <v>149</v>
       </c>
       <c r="C135" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D135" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" t="n">
         <v>149</v>
       </c>
       <c r="F135" t="n">
-        <v>7028.0872</v>
+        <v>18533.8582</v>
       </c>
       <c r="G135" t="n">
-        <v>149.6666666666667</v>
+        <v>145.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5311,7 +5143,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C136" t="n">
         <v>151</v>
@@ -5323,10 +5155,10 @@
         <v>149</v>
       </c>
       <c r="F136" t="n">
-        <v>1222.3179</v>
+        <v>7028.0872</v>
       </c>
       <c r="G136" t="n">
-        <v>150.3333333333333</v>
+        <v>145.7333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5355,13 +5187,13 @@
         <v>151</v>
       </c>
       <c r="E137" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F137" t="n">
-        <v>22</v>
+        <v>1222.3179</v>
       </c>
       <c r="G137" t="n">
-        <v>151</v>
+        <v>145.85</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5393,10 +5225,10 @@
         <v>151</v>
       </c>
       <c r="F138" t="n">
-        <v>50188.5164</v>
+        <v>22</v>
       </c>
       <c r="G138" t="n">
-        <v>151</v>
+        <v>145.9666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5416,22 +5248,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C139" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D139" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E139" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F139" t="n">
-        <v>37752.6393</v>
+        <v>50188.5164</v>
       </c>
       <c r="G139" t="n">
-        <v>150.6666666666667</v>
+        <v>146.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5451,7 +5283,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C140" t="n">
         <v>150</v>
@@ -5460,13 +5292,13 @@
         <v>152</v>
       </c>
       <c r="E140" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F140" t="n">
-        <v>3500.6701</v>
+        <v>37752.6393</v>
       </c>
       <c r="G140" t="n">
-        <v>150.3333333333333</v>
+        <v>146.1666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5489,7 +5321,7 @@
         <v>152</v>
       </c>
       <c r="C141" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D141" t="n">
         <v>152</v>
@@ -5498,10 +5330,10 @@
         <v>150</v>
       </c>
       <c r="F141" t="n">
-        <v>11935.7138</v>
+        <v>3500.6701</v>
       </c>
       <c r="G141" t="n">
-        <v>150.6666666666667</v>
+        <v>146.2333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5524,19 +5356,19 @@
         <v>152</v>
       </c>
       <c r="C142" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E142" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F142" t="n">
-        <v>1436.4502</v>
+        <v>11935.7138</v>
       </c>
       <c r="G142" t="n">
-        <v>151.6666666666667</v>
+        <v>146.3666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5556,22 +5388,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>152</v>
+      </c>
+      <c r="C143" t="n">
         <v>153</v>
-      </c>
-      <c r="C143" t="n">
-        <v>151</v>
       </c>
       <c r="D143" t="n">
         <v>153</v>
       </c>
       <c r="E143" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F143" t="n">
-        <v>8110.5531</v>
+        <v>1436.4502</v>
       </c>
       <c r="G143" t="n">
-        <v>152</v>
+        <v>146.5333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5594,19 +5426,19 @@
         <v>153</v>
       </c>
       <c r="C144" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D144" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E144" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F144" t="n">
-        <v>1266.5338</v>
+        <v>8110.5531</v>
       </c>
       <c r="G144" t="n">
-        <v>152.6666666666667</v>
+        <v>146.6333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5626,22 +5458,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C145" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D145" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E145" t="n">
         <v>152</v>
       </c>
       <c r="F145" t="n">
-        <v>10879.259</v>
+        <v>1266.5338</v>
       </c>
       <c r="G145" t="n">
-        <v>152.3333333333333</v>
+        <v>146.7833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5664,19 +5496,19 @@
         <v>152</v>
       </c>
       <c r="C146" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D146" t="n">
         <v>153</v>
       </c>
       <c r="E146" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F146" t="n">
-        <v>25213.1837</v>
+        <v>10879.259</v>
       </c>
       <c r="G146" t="n">
-        <v>152</v>
+        <v>146.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5696,22 +5528,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C147" t="n">
         <v>150</v>
       </c>
       <c r="D147" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E147" t="n">
         <v>150</v>
       </c>
       <c r="F147" t="n">
-        <v>3366.198</v>
+        <v>25213.1837</v>
       </c>
       <c r="G147" t="n">
-        <v>150.6666666666667</v>
+        <v>146.9833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5731,22 +5563,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C148" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D148" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E148" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F148" t="n">
-        <v>3190.6439</v>
+        <v>3366.198</v>
       </c>
       <c r="G148" t="n">
-        <v>149</v>
+        <v>147.0666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5769,19 +5601,19 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D149" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E149" t="n">
         <v>147</v>
       </c>
       <c r="F149" t="n">
-        <v>1501.0037</v>
+        <v>3190.6439</v>
       </c>
       <c r="G149" t="n">
-        <v>149.6666666666667</v>
+        <v>147.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5801,7 +5633,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C150" t="n">
         <v>152</v>
@@ -5810,13 +5642,13 @@
         <v>152</v>
       </c>
       <c r="E150" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>1501.0037</v>
       </c>
       <c r="G150" t="n">
-        <v>150.3333333333333</v>
+        <v>147.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5836,22 +5668,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D151" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E151" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F151" t="n">
-        <v>9821.133099999999</v>
+        <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>151.3333333333333</v>
+        <v>147.2833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5871,22 +5703,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" t="n">
         <v>150</v>
       </c>
       <c r="D152" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E152" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F152" t="n">
-        <v>42938.7896</v>
+        <v>9821.133099999999</v>
       </c>
       <c r="G152" t="n">
-        <v>150.6666666666667</v>
+        <v>147.3166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5906,22 +5738,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D153" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E153" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F153" t="n">
-        <v>331.8447</v>
+        <v>42938.7896</v>
       </c>
       <c r="G153" t="n">
-        <v>149.6666666666667</v>
+        <v>147.35</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5941,22 +5773,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" t="n">
         <v>149</v>
       </c>
       <c r="D154" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E154" t="n">
         <v>149</v>
       </c>
       <c r="F154" t="n">
-        <v>4004.4369</v>
+        <v>331.8447</v>
       </c>
       <c r="G154" t="n">
-        <v>149.3333333333333</v>
+        <v>147.3666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5976,22 +5808,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C155" t="n">
         <v>149</v>
       </c>
       <c r="D155" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E155" t="n">
         <v>149</v>
       </c>
       <c r="F155" t="n">
-        <v>292.3972</v>
+        <v>4004.4369</v>
       </c>
       <c r="G155" t="n">
-        <v>149</v>
+        <v>147.45</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6006,6 +5838,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>149</v>
+      </c>
+      <c r="C156" t="n">
+        <v>149</v>
+      </c>
+      <c r="D156" t="n">
+        <v>149</v>
+      </c>
+      <c r="E156" t="n">
+        <v>149</v>
+      </c>
+      <c r="F156" t="n">
+        <v>292.3972</v>
+      </c>
+      <c r="G156" t="n">
+        <v>147.5166666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2135.0404</v>
       </c>
       <c r="G2" t="n">
+        <v>135.3333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>132.8833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>976.2965</v>
       </c>
       <c r="G3" t="n">
+        <v>135.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>132.9666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4441.355</v>
       </c>
       <c r="G4" t="n">
+        <v>136.5333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>133.0833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5916</v>
       </c>
       <c r="G5" t="n">
+        <v>136.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>133.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>14</v>
       </c>
       <c r="G6" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>133.35</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>614.0978</v>
       </c>
       <c r="G7" t="n">
+        <v>137.7333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>133.45</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>6819.633</v>
       </c>
       <c r="G8" t="n">
+        <v>137.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>133.5166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,25 @@
         <v>3417.9108</v>
       </c>
       <c r="G9" t="n">
+        <v>137.8666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>133.5833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>135</v>
+      </c>
+      <c r="L9" t="n">
+        <v>135</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +761,29 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
+        <v>138</v>
+      </c>
+      <c r="H10" t="n">
         <v>133.6666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>137</v>
+      </c>
+      <c r="L10" t="n">
+        <v>135</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +807,29 @@
         <v>563.372</v>
       </c>
       <c r="G11" t="n">
+        <v>137.8666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>133.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>138</v>
+      </c>
+      <c r="L11" t="n">
+        <v>135</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +853,25 @@
         <v>968.9999</v>
       </c>
       <c r="G12" t="n">
+        <v>137.9333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>133.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>135</v>
+      </c>
+      <c r="L12" t="n">
+        <v>135</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +895,29 @@
         <v>22927.3991</v>
       </c>
       <c r="G13" t="n">
+        <v>138</v>
+      </c>
+      <c r="H13" t="n">
         <v>133.85</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>136</v>
+      </c>
+      <c r="L13" t="n">
+        <v>135</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +941,29 @@
         <v>6236.6903</v>
       </c>
       <c r="G14" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>133.95</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>139</v>
+      </c>
+      <c r="L14" t="n">
+        <v>135</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +987,27 @@
         <v>3994.3285</v>
       </c>
       <c r="G15" t="n">
+        <v>137.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>134.0166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>135</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1031,27 @@
         <v>600.2479</v>
       </c>
       <c r="G16" t="n">
+        <v>137.6666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>134.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>135</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1075,27 @@
         <v>415.0927</v>
       </c>
       <c r="G17" t="n">
+        <v>137.5333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>134.1833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>135</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1119,27 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
+        <v>137.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>134.2333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>135</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1163,27 @@
         <v>30345.4884</v>
       </c>
       <c r="G19" t="n">
+        <v>137.0666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>134.2666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>135</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1207,27 @@
         <v>285.664</v>
       </c>
       <c r="G20" t="n">
+        <v>136.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>134.3333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>135</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1251,27 @@
         <v>23051.9783</v>
       </c>
       <c r="G21" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>134.3833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>135</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1295,27 @@
         <v>517.1675</v>
       </c>
       <c r="G22" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>134.4333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>135</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1339,27 @@
         <v>2422.1832</v>
       </c>
       <c r="G23" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>134.4666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>135</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1383,27 @@
         <v>1.17</v>
       </c>
       <c r="G24" t="n">
+        <v>136.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>134.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>135</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1427,27 @@
         <v>409.5775</v>
       </c>
       <c r="G25" t="n">
+        <v>136.0666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>134.55</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>135</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1471,27 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>136.1333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>134.6166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>135</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1515,27 @@
         <v>1945.8257</v>
       </c>
       <c r="G27" t="n">
+        <v>136.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>134.6833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>135</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1559,27 @@
         <v>371.0114</v>
       </c>
       <c r="G28" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>134.7666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>135</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1603,27 @@
         <v>128.9886</v>
       </c>
       <c r="G29" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>134.8666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>135</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1647,27 @@
         <v>399.4107</v>
       </c>
       <c r="G30" t="n">
+        <v>135.4666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>134.9</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>135</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1691,27 @@
         <v>350.5791</v>
       </c>
       <c r="G31" t="n">
+        <v>135.2666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>134.9166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>135</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1735,29 @@
         <v>3200</v>
       </c>
       <c r="G32" t="n">
+        <v>135</v>
+      </c>
+      <c r="H32" t="n">
         <v>134.95</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>134</v>
+      </c>
+      <c r="L32" t="n">
+        <v>135</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1781,29 @@
         <v>1600</v>
       </c>
       <c r="G33" t="n">
+        <v>134.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>134.9333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>133</v>
+      </c>
+      <c r="L33" t="n">
+        <v>135</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,22 +1827,29 @@
         <v>2368.3059</v>
       </c>
       <c r="G34" t="n">
+        <v>134.6666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>134.95</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>132</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>135</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,26 +1873,29 @@
         <v>7573.5294</v>
       </c>
       <c r="G35" t="n">
-        <v>135</v>
+        <v>134.6666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>134</v>
       </c>
-      <c r="K35" t="n">
-        <v>132</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>135</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,26 +1919,27 @@
         <v>6682.3288</v>
       </c>
       <c r="G36" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="H36" t="n">
         <v>135.0666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136</v>
-      </c>
-      <c r="K36" t="n">
-        <v>132</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>135</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1963,27 @@
         <v>2.6712</v>
       </c>
       <c r="G37" t="n">
+        <v>134.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>135.1833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>135</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +2007,27 @@
         <v>672.2727</v>
       </c>
       <c r="G38" t="n">
+        <v>135</v>
+      </c>
+      <c r="H38" t="n">
         <v>135.2833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>135</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +2051,27 @@
         <v>408.3914</v>
       </c>
       <c r="G39" t="n">
+        <v>134.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>135.3166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>135</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +2095,27 @@
         <v>17522.1565</v>
       </c>
       <c r="G40" t="n">
+        <v>135</v>
+      </c>
+      <c r="H40" t="n">
         <v>135.3833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>135</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +2139,27 @@
         <v>407.6307</v>
       </c>
       <c r="G41" t="n">
+        <v>135</v>
+      </c>
+      <c r="H41" t="n">
         <v>135.45</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>135</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2183,27 @@
         <v>78</v>
       </c>
       <c r="G42" t="n">
+        <v>135.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>135.5166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>135</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2227,27 @@
         <v>501.0538</v>
       </c>
       <c r="G43" t="n">
+        <v>135.1333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>135.5833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>135</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2271,27 @@
         <v>6180.4159</v>
       </c>
       <c r="G44" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>135.65</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>135</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2315,27 @@
         <v>418.1537</v>
       </c>
       <c r="G45" t="n">
+        <v>135.3333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>135.7166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>135</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2359,27 @@
         <v>2341.5389</v>
       </c>
       <c r="G46" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>135.7833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>135</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2403,27 @@
         <v>230</v>
       </c>
       <c r="G47" t="n">
+        <v>135.5333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>135.85</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>135</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2447,27 @@
         <v>18.3288</v>
       </c>
       <c r="G48" t="n">
+        <v>135.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>135.9666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>135</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2491,27 @@
         <v>269.07</v>
       </c>
       <c r="G49" t="n">
+        <v>136.0666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>136.0833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>135</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2535,27 @@
         <v>386.649</v>
       </c>
       <c r="G50" t="n">
+        <v>136.0666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>136.1333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>135</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2579,27 @@
         <v>136.1129</v>
       </c>
       <c r="G51" t="n">
+        <v>136</v>
+      </c>
+      <c r="H51" t="n">
         <v>136.2</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>135</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2623,27 @@
         <v>3860.3357</v>
       </c>
       <c r="G52" t="n">
+        <v>136</v>
+      </c>
+      <c r="H52" t="n">
         <v>136.25</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>135</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2667,27 @@
         <v>3469.6272</v>
       </c>
       <c r="G53" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>136.3166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>135</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2711,27 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>136.2666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>136.3333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>135</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2755,27 @@
         <v>39597.5209</v>
       </c>
       <c r="G55" t="n">
+        <v>136.2666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>136.3333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>135</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2799,27 @@
         <v>5847.4032</v>
       </c>
       <c r="G56" t="n">
+        <v>136.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>136.3166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>135</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2843,27 @@
         <v>1960.7095</v>
       </c>
       <c r="G57" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>136.3666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>135</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2887,27 @@
         <v>500</v>
       </c>
       <c r="G58" t="n">
+        <v>136.5333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>136.3666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>135</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2931,27 @@
         <v>628.9399</v>
       </c>
       <c r="G59" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>136.3333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>135</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2975,27 @@
         <v>2950.7299</v>
       </c>
       <c r="G60" t="n">
+        <v>136.7333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>136.3166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>135</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +3019,27 @@
         <v>3258.3958</v>
       </c>
       <c r="G61" t="n">
+        <v>136.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>136.3</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>135</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +3063,27 @@
         <v>913.775</v>
       </c>
       <c r="G62" t="n">
+        <v>137</v>
+      </c>
+      <c r="H62" t="n">
         <v>136.2666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>135</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +3107,27 @@
         <v>482.93</v>
       </c>
       <c r="G63" t="n">
+        <v>137.0666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>136.25</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>135</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +3151,27 @@
         <v>484.5083</v>
       </c>
       <c r="G64" t="n">
+        <v>137.1333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>136.2333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>135</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3195,27 @@
         <v>616.2546</v>
       </c>
       <c r="G65" t="n">
+        <v>137.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>136.2166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>135</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3239,27 @@
         <v>1108.5634</v>
       </c>
       <c r="G66" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>136.2</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>135</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3283,27 @@
         <v>670.663</v>
       </c>
       <c r="G67" t="n">
+        <v>137.2666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>136.1333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>135</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3327,27 @@
         <v>3876.6597</v>
       </c>
       <c r="G68" t="n">
+        <v>137.0666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>136.15</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>135</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3371,27 @@
         <v>1120</v>
       </c>
       <c r="G69" t="n">
+        <v>137.2666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>136.1833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>135</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3415,27 @@
         <v>143.884</v>
       </c>
       <c r="G70" t="n">
+        <v>137.4666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>136.2</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>135</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3459,27 @@
         <v>250</v>
       </c>
       <c r="G71" t="n">
+        <v>137.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>136.2833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>135</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3503,27 @@
         <v>2887.8312</v>
       </c>
       <c r="G72" t="n">
+        <v>137.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>136.35</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>135</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3547,27 @@
         <v>625.3052</v>
       </c>
       <c r="G73" t="n">
+        <v>138.0666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>136.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>135</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3591,27 @@
         <v>1581.5362</v>
       </c>
       <c r="G74" t="n">
+        <v>138.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>136.45</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>135</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3635,27 @@
         <v>1546.782</v>
       </c>
       <c r="G75" t="n">
+        <v>138.6666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>136.55</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>135</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3679,27 @@
         <v>1555</v>
       </c>
       <c r="G76" t="n">
+        <v>139.0666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>136.65</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>135</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3723,27 @@
         <v>1739.86</v>
       </c>
       <c r="G77" t="n">
+        <v>139.5333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>136.7666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>135</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3767,27 @@
         <v>1880</v>
       </c>
       <c r="G78" t="n">
+        <v>139.9333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>136.9</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>135</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3811,27 @@
         <v>11973.8137</v>
       </c>
       <c r="G79" t="n">
+        <v>140.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>137.0333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>135</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3855,27 @@
         <v>25964.7685</v>
       </c>
       <c r="G80" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="H80" t="n">
         <v>137.2</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>135</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3899,27 @@
         <v>2379.7808</v>
       </c>
       <c r="G81" t="n">
+        <v>141.3333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>137.3833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>135</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3943,27 @@
         <v>392.8296</v>
       </c>
       <c r="G82" t="n">
+        <v>141.9333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>137.5333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>135</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3987,27 @@
         <v>264.2516</v>
       </c>
       <c r="G83" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="H83" t="n">
         <v>137.6666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>135</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +4031,27 @@
         <v>4950.9878</v>
       </c>
       <c r="G84" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>137.8166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>135</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +4075,27 @@
         <v>4910.2825</v>
       </c>
       <c r="G85" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="H85" t="n">
         <v>137.9833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>135</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +4119,27 @@
         <v>2204</v>
       </c>
       <c r="G86" t="n">
+        <v>143.5333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>138.1333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>135</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +4163,27 @@
         <v>4413.7931</v>
       </c>
       <c r="G87" t="n">
+        <v>143.8666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>138.3</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>135</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +4207,27 @@
         <v>250</v>
       </c>
       <c r="G88" t="n">
+        <v>144.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>138.4666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>135</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +4251,27 @@
         <v>164.5</v>
       </c>
       <c r="G89" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="H89" t="n">
         <v>138.6333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>135</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4295,27 @@
         <v>2687.6969</v>
       </c>
       <c r="G90" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>138.8333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>135</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4339,27 @@
         <v>2559.6786</v>
       </c>
       <c r="G91" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>139.05</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>135</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4383,27 @@
         <v>1.1</v>
       </c>
       <c r="G92" t="n">
+        <v>145.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>139.3</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>135</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4427,27 @@
         <v>31124.2629</v>
       </c>
       <c r="G93" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>139.5666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>135</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4471,27 @@
         <v>500</v>
       </c>
       <c r="G94" t="n">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>139.8</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>135</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4515,27 @@
         <v>8917.9398</v>
       </c>
       <c r="G95" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>139.9333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>135</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4559,27 @@
         <v>260.058</v>
       </c>
       <c r="G96" t="n">
+        <v>145.5333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>140.0666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>135</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4603,27 @@
         <v>1.11</v>
       </c>
       <c r="G97" t="n">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>140.2333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>135</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4647,27 @@
         <v>31832.961</v>
       </c>
       <c r="G98" t="n">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>140.35</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>135</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4691,27 @@
         <v>515.4267</v>
       </c>
       <c r="G99" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="H99" t="n">
         <v>140.5333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>135</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4735,27 @@
         <v>13745.571</v>
       </c>
       <c r="G100" t="n">
+        <v>145.8666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>140.7</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>135</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4779,27 @@
         <v>2969.9934</v>
       </c>
       <c r="G101" t="n">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>140.8666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>135</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4823,27 @@
         <v>3496.5034</v>
       </c>
       <c r="G102" t="n">
+        <v>146</v>
+      </c>
+      <c r="H102" t="n">
         <v>141.0333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>135</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4867,27 @@
         <v>9061.4426</v>
       </c>
       <c r="G103" t="n">
+        <v>146</v>
+      </c>
+      <c r="H103" t="n">
         <v>141.1833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>135</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4911,27 @@
         <v>8274.2027</v>
       </c>
       <c r="G104" t="n">
+        <v>146</v>
+      </c>
+      <c r="H104" t="n">
         <v>141.3333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>135</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4955,27 @@
         <v>3424.678</v>
       </c>
       <c r="G105" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="H105" t="n">
         <v>141.45</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>135</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4999,27 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>141.6333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>135</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +5043,27 @@
         <v>20.1575</v>
       </c>
       <c r="G107" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="H107" t="n">
         <v>141.8166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>135</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +5087,27 @@
         <v>13476.8682</v>
       </c>
       <c r="G108" t="n">
+        <v>145.3333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>141.9333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>135</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +5131,27 @@
         <v>3176</v>
       </c>
       <c r="G109" t="n">
+        <v>145.0666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>142.05</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>135</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +5175,27 @@
         <v>4829.9526</v>
       </c>
       <c r="G110" t="n">
+        <v>145.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>142.1833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>135</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +5219,27 @@
         <v>3416.4399</v>
       </c>
       <c r="G111" t="n">
+        <v>145</v>
+      </c>
+      <c r="H111" t="n">
         <v>142.3166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>135</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +5263,27 @@
         <v>17391.4588</v>
       </c>
       <c r="G112" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>142.45</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>135</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +5307,27 @@
         <v>360.7671</v>
       </c>
       <c r="G113" t="n">
+        <v>145.0666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>142.5666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>135</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +5351,27 @@
         <v>4320</v>
       </c>
       <c r="G114" t="n">
+        <v>144.9333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>142.7</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>135</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +5395,27 @@
         <v>4593.1355</v>
       </c>
       <c r="G115" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="H115" t="n">
         <v>142.8333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>135</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +5439,27 @@
         <v>510.3895</v>
       </c>
       <c r="G116" t="n">
+        <v>144.6666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>142.9666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>135</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +5483,27 @@
         <v>1.18</v>
       </c>
       <c r="G117" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>143.0833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>135</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +5527,27 @@
         <v>755.8445</v>
       </c>
       <c r="G118" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>143.2</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>135</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +5571,27 @@
         <v>3544.9764</v>
       </c>
       <c r="G119" t="n">
+        <v>144.6666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>143.3333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>135</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +5615,27 @@
         <v>33548.2319</v>
       </c>
       <c r="G120" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>143.4833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>135</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5659,27 @@
         <v>1121.5692</v>
       </c>
       <c r="G121" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>143.6333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>135</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5703,27 @@
         <v>391.3121</v>
       </c>
       <c r="G122" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>143.7833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>135</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5747,27 @@
         <v>886.1741</v>
       </c>
       <c r="G123" t="n">
+        <v>145</v>
+      </c>
+      <c r="H123" t="n">
         <v>143.9166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>135</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5791,27 @@
         <v>10042.3289</v>
       </c>
       <c r="G124" t="n">
+        <v>145.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>144.05</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>135</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5835,27 @@
         <v>2534.2466</v>
       </c>
       <c r="G125" t="n">
+        <v>145.2666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>144.1833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>135</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5879,27 @@
         <v>3038.406</v>
       </c>
       <c r="G126" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>144.3166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>135</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5923,27 @@
         <v>14371.081</v>
       </c>
       <c r="G127" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="H127" t="n">
         <v>144.5333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>135</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5967,27 @@
         <v>1740.3714</v>
       </c>
       <c r="G128" t="n">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>144.7333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>135</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +6011,27 @@
         <v>134.2763</v>
       </c>
       <c r="G129" t="n">
+        <v>146</v>
+      </c>
+      <c r="H129" t="n">
         <v>144.8833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>135</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,18 +6055,27 @@
         <v>640</v>
       </c>
       <c r="G130" t="n">
+        <v>146.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>145.0333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>135</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,18 +6099,27 @@
         <v>3889.306</v>
       </c>
       <c r="G131" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>145.1333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>135</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,18 +6143,27 @@
         <v>471.3025</v>
       </c>
       <c r="G132" t="n">
+        <v>146.5333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>145.25</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>135</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,18 +6187,27 @@
         <v>646.3108</v>
       </c>
       <c r="G133" t="n">
+        <v>146.7333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>145.3666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>135</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,18 +6231,27 @@
         <v>1931.0402</v>
       </c>
       <c r="G134" t="n">
+        <v>146.9333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>145.5</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>135</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,18 +6275,27 @@
         <v>18533.8582</v>
       </c>
       <c r="G135" t="n">
+        <v>147.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>145.6</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>135</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,18 +6319,27 @@
         <v>7028.0872</v>
       </c>
       <c r="G136" t="n">
+        <v>147.4666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>145.7333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>135</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,18 +6363,27 @@
         <v>1222.3179</v>
       </c>
       <c r="G137" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="H137" t="n">
         <v>145.85</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>135</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,18 +6407,27 @@
         <v>22</v>
       </c>
       <c r="G138" t="n">
+        <v>148.1333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>145.9666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>135</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,18 +6451,27 @@
         <v>50188.5164</v>
       </c>
       <c r="G139" t="n">
+        <v>148.4666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>146.1</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>135</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,18 +6495,27 @@
         <v>37752.6393</v>
       </c>
       <c r="G140" t="n">
+        <v>148.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>146.1666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>135</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,18 +6539,27 @@
         <v>3500.6701</v>
       </c>
       <c r="G141" t="n">
+        <v>149</v>
+      </c>
+      <c r="H141" t="n">
         <v>146.2333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>135</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,19 +6583,28 @@
         <v>11935.7138</v>
       </c>
       <c r="G142" t="n">
+        <v>149.2666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>146.3666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
+      <c r="L142" t="n">
+        <v>135</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1.120925925925926</v>
       </c>
     </row>
     <row r="143">
@@ -5403,18 +6627,21 @@
         <v>1436.4502</v>
       </c>
       <c r="G143" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="H143" t="n">
         <v>146.5333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,18 +6665,21 @@
         <v>8110.5531</v>
       </c>
       <c r="G144" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="H144" t="n">
         <v>146.6333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,18 +6703,21 @@
         <v>1266.5338</v>
       </c>
       <c r="G145" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="H145" t="n">
         <v>146.7833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +6741,21 @@
         <v>10879.259</v>
       </c>
       <c r="G146" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="H146" t="n">
         <v>146.9</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +6779,21 @@
         <v>25213.1837</v>
       </c>
       <c r="G147" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H147" t="n">
         <v>146.9833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,18 +6817,21 @@
         <v>3366.198</v>
       </c>
       <c r="G148" t="n">
+        <v>150.9333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>147.0666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,18 +6855,21 @@
         <v>3190.6439</v>
       </c>
       <c r="G149" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H149" t="n">
         <v>147.1</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,18 +6893,21 @@
         <v>1501.0037</v>
       </c>
       <c r="G150" t="n">
+        <v>151</v>
+      </c>
+      <c r="H150" t="n">
         <v>147.2</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,18 +6931,21 @@
         <v>4</v>
       </c>
       <c r="G151" t="n">
+        <v>151.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>147.2833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,18 +6969,21 @@
         <v>9821.133099999999</v>
       </c>
       <c r="G152" t="n">
+        <v>151</v>
+      </c>
+      <c r="H152" t="n">
         <v>147.3166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5753,18 +7007,21 @@
         <v>42938.7896</v>
       </c>
       <c r="G153" t="n">
+        <v>150.9333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>147.35</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,18 +7045,21 @@
         <v>331.8447</v>
       </c>
       <c r="G154" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H154" t="n">
         <v>147.3666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,18 +7083,21 @@
         <v>4004.4369</v>
       </c>
       <c r="G155" t="n">
+        <v>150.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>147.45</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,18 +7121,401 @@
         <v>292.3972</v>
       </c>
       <c r="G156" t="n">
+        <v>150.6666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>147.5166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>149</v>
+      </c>
+      <c r="C157" t="n">
+        <v>150</v>
+      </c>
+      <c r="D157" t="n">
+        <v>150</v>
+      </c>
+      <c r="E157" t="n">
+        <v>149</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5650.6855</v>
+      </c>
+      <c r="G157" t="n">
+        <v>150.5333333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>147.5666666666667</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>150</v>
+      </c>
+      <c r="C158" t="n">
+        <v>150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>150</v>
+      </c>
+      <c r="E158" t="n">
+        <v>150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1131.408</v>
+      </c>
+      <c r="G158" t="n">
+        <v>150.3333333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>147.6833333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>149</v>
+      </c>
+      <c r="C159" t="n">
+        <v>149</v>
+      </c>
+      <c r="D159" t="n">
+        <v>149</v>
+      </c>
+      <c r="E159" t="n">
+        <v>149</v>
+      </c>
+      <c r="F159" t="n">
+        <v>300</v>
+      </c>
+      <c r="G159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>147.7333333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>147</v>
+      </c>
+      <c r="C160" t="n">
+        <v>147</v>
+      </c>
+      <c r="D160" t="n">
+        <v>147</v>
+      </c>
+      <c r="E160" t="n">
+        <v>147</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3598.0157</v>
+      </c>
+      <c r="G160" t="n">
+        <v>149.7333333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>147.75</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>147</v>
+      </c>
+      <c r="C161" t="n">
+        <v>147</v>
+      </c>
+      <c r="D161" t="n">
+        <v>147</v>
+      </c>
+      <c r="E161" t="n">
+        <v>147</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2191.714</v>
+      </c>
+      <c r="G161" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>147.7666666666667</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>147</v>
+      </c>
+      <c r="C162" t="n">
+        <v>147</v>
+      </c>
+      <c r="D162" t="n">
+        <v>147</v>
+      </c>
+      <c r="E162" t="n">
+        <v>147</v>
+      </c>
+      <c r="F162" t="n">
+        <v>22266.8955</v>
+      </c>
+      <c r="G162" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="H162" t="n">
+        <v>147.7833333333333</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>146</v>
+      </c>
+      <c r="C163" t="n">
+        <v>146</v>
+      </c>
+      <c r="D163" t="n">
+        <v>146</v>
+      </c>
+      <c r="E163" t="n">
+        <v>146</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G163" t="n">
+        <v>148.9333333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>146</v>
+      </c>
+      <c r="C164" t="n">
+        <v>145</v>
+      </c>
+      <c r="D164" t="n">
+        <v>146</v>
+      </c>
+      <c r="E164" t="n">
+        <v>145</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2520.7177</v>
+      </c>
+      <c r="G164" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="H164" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>145</v>
+      </c>
+      <c r="C165" t="n">
+        <v>145</v>
+      </c>
+      <c r="D165" t="n">
+        <v>145</v>
+      </c>
+      <c r="E165" t="n">
+        <v>145</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1609.1953</v>
+      </c>
+      <c r="G165" t="n">
+        <v>148.3333333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>147.8333333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>144</v>
+      </c>
+      <c r="C166" t="n">
+        <v>145</v>
+      </c>
+      <c r="D166" t="n">
+        <v>148</v>
+      </c>
+      <c r="E166" t="n">
+        <v>143</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7614.967</v>
+      </c>
+      <c r="G166" t="n">
+        <v>147.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>147.8166666666667</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
-        <v>2565.085</v>
+        <v>3994.3285</v>
       </c>
       <c r="G2" t="n">
-        <v>-7686.766299999997</v>
+        <v>137.6666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,67 +467,65 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F3" t="n">
-        <v>3026.6466</v>
+        <v>600.2479</v>
       </c>
       <c r="G3" t="n">
-        <v>-7686.766299999997</v>
+        <v>137</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>133</v>
-      </c>
-      <c r="K3" t="n">
-        <v>133</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F4" t="n">
-        <v>250.1366</v>
+        <v>415.0927</v>
       </c>
       <c r="G4" t="n">
-        <v>-7686.766299999997</v>
+        <v>137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -531,39 +534,34 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>133</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-7686.766299999997</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,39 +570,34 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>133</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F6" t="n">
-        <v>5988.1214</v>
+        <v>30345.4884</v>
       </c>
       <c r="G6" t="n">
-        <v>-13674.8877</v>
+        <v>136</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F7" t="n">
-        <v>3019.08</v>
+        <v>285.664</v>
       </c>
       <c r="G7" t="n">
-        <v>-13674.8877</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" t="n">
-        <v>7230.5912</v>
+        <v>23051.9783</v>
       </c>
       <c r="G8" t="n">
-        <v>-6444.296499999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>281.6658</v>
+        <v>517.1675</v>
       </c>
       <c r="G9" t="n">
-        <v>-6725.962299999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F10" t="n">
-        <v>5353.5065</v>
+        <v>2422.1832</v>
       </c>
       <c r="G10" t="n">
-        <v>-6725.962299999996</v>
+        <v>135</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -758,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E11" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11" t="n">
-        <v>696.1639</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="n">
-        <v>-6725.962299999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -793,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E12" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F12" t="n">
-        <v>1208.8974</v>
+        <v>409.5775</v>
       </c>
       <c r="G12" t="n">
-        <v>-6725.962299999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -828,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13" t="n">
-        <v>2241.7772</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-6725.962299999996</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D14" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E14" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14" t="n">
-        <v>7115.5224</v>
+        <v>1945.8257</v>
       </c>
       <c r="G14" t="n">
-        <v>-6725.962299999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,153 +899,182 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D15" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F15" t="n">
-        <v>224.4003</v>
+        <v>371.0114</v>
       </c>
       <c r="G15" t="n">
-        <v>-6950.362599999996</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>135</v>
+      </c>
+      <c r="K15" t="n">
+        <v>135</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C16" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
-        <v>799.8702</v>
+        <v>128.9886</v>
       </c>
       <c r="G16" t="n">
-        <v>-6950.362599999996</v>
+        <v>135</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>135</v>
+      </c>
+      <c r="K16" t="n">
+        <v>135</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>1502.8437</v>
+        <v>399.4107</v>
       </c>
       <c r="G17" t="n">
-        <v>-8453.206299999996</v>
+        <v>134.6666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>135</v>
+      </c>
+      <c r="K17" t="n">
+        <v>135</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D18" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E18" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F18" t="n">
-        <v>446.5206</v>
+        <v>350.5791</v>
       </c>
       <c r="G18" t="n">
-        <v>-8453.206299999996</v>
+        <v>134.3333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>134</v>
+      </c>
+      <c r="K18" t="n">
+        <v>134</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
         <v>133</v>
@@ -1053,61 +1083,79 @@
         <v>133</v>
       </c>
       <c r="E19" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" t="n">
-        <v>8169</v>
+        <v>3200</v>
       </c>
       <c r="G19" t="n">
-        <v>-284.2062999999962</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>134</v>
+      </c>
+      <c r="K19" t="n">
+        <v>134</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
         <v>132</v>
       </c>
       <c r="D20" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" t="n">
         <v>132</v>
       </c>
       <c r="F20" t="n">
-        <v>351.8238</v>
+        <v>1600</v>
       </c>
       <c r="G20" t="n">
-        <v>-636.0300999999962</v>
+        <v>133</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>133</v>
+      </c>
+      <c r="K20" t="n">
+        <v>134</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1126,163 +1174,208 @@
         <v>134</v>
       </c>
       <c r="F21" t="n">
-        <v>2998.8797</v>
+        <v>2368.3059</v>
       </c>
       <c r="G21" t="n">
-        <v>2362.849600000004</v>
+        <v>133</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>132</v>
+      </c>
+      <c r="K21" t="n">
+        <v>134</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>7573.5294</v>
       </c>
       <c r="G22" t="n">
-        <v>2412.849600000004</v>
+        <v>134</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>134</v>
+      </c>
+      <c r="K22" t="n">
+        <v>134</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D23" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E23" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23" t="n">
-        <v>283.939</v>
+        <v>6682.3288</v>
       </c>
       <c r="G23" t="n">
-        <v>2412.849600000004</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>136</v>
+      </c>
+      <c r="K23" t="n">
+        <v>134</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" t="n">
-        <v>818.2814</v>
+        <v>2.6712</v>
       </c>
       <c r="G24" t="n">
-        <v>3231.131000000003</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>137</v>
+      </c>
+      <c r="K24" t="n">
+        <v>134</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>136</v>
+      </c>
+      <c r="C25" t="n">
+        <v>136</v>
+      </c>
+      <c r="D25" t="n">
+        <v>136</v>
+      </c>
+      <c r="E25" t="n">
+        <v>136</v>
+      </c>
+      <c r="F25" t="n">
+        <v>672.2727</v>
+      </c>
+      <c r="G25" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>137</v>
       </c>
-      <c r="C25" t="n">
-        <v>137</v>
-      </c>
-      <c r="D25" t="n">
-        <v>137</v>
-      </c>
-      <c r="E25" t="n">
-        <v>137</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2585.5373</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5816.668300000003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>134</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1301,115 +1394,142 @@
         <v>135</v>
       </c>
       <c r="F26" t="n">
-        <v>294</v>
+        <v>408.3914</v>
       </c>
       <c r="G26" t="n">
-        <v>5522.668300000003</v>
+        <v>136</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>136</v>
+      </c>
+      <c r="K26" t="n">
+        <v>134</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" t="n">
-        <v>33911.5784</v>
+        <v>17522.1565</v>
       </c>
       <c r="G27" t="n">
-        <v>39434.2467</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>135</v>
+      </c>
+      <c r="K27" t="n">
+        <v>134</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D28" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E28" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" t="n">
-        <v>17916.7204</v>
+        <v>407.6307</v>
       </c>
       <c r="G28" t="n">
-        <v>57350.9671</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>136</v>
+      </c>
+      <c r="K28" t="n">
+        <v>134</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" t="n">
-        <v>292.5711</v>
+        <v>78</v>
       </c>
       <c r="G29" t="n">
-        <v>57058.396</v>
+        <v>136</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1418,33 +1538,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>134</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C30" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E30" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" t="n">
-        <v>3305.7427</v>
+        <v>501.0538</v>
       </c>
       <c r="G30" t="n">
-        <v>57058.396</v>
+        <v>136</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1453,33 +1580,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>134</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C31" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D31" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F31" t="n">
-        <v>2135.0404</v>
+        <v>6180.4159</v>
       </c>
       <c r="G31" t="n">
-        <v>59193.4364</v>
+        <v>136</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1488,33 +1622,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>134</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D32" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E32" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F32" t="n">
-        <v>976.2965</v>
+        <v>418.1537</v>
       </c>
       <c r="G32" t="n">
-        <v>59193.4364</v>
+        <v>136</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1523,33 +1664,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>134</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C33" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D33" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E33" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F33" t="n">
-        <v>4441.355</v>
+        <v>2341.5389</v>
       </c>
       <c r="G33" t="n">
-        <v>59193.4364</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1558,33 +1706,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>134</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C34" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D34" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E34" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F34" t="n">
-        <v>5916</v>
+        <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>59193.4364</v>
+        <v>135.3333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1593,33 +1748,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>134</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>18.3288</v>
       </c>
       <c r="G35" t="n">
-        <v>59193.4364</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1628,33 +1790,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>134</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" t="n">
-        <v>614.0978</v>
+        <v>269.07</v>
       </c>
       <c r="G36" t="n">
-        <v>59193.4364</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1663,33 +1832,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>134</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D37" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E37" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" t="n">
-        <v>6819.633</v>
+        <v>386.649</v>
       </c>
       <c r="G37" t="n">
-        <v>52373.8034</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1698,33 +1874,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>134</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" t="n">
-        <v>3417.9108</v>
+        <v>136.1129</v>
       </c>
       <c r="G38" t="n">
-        <v>55791.71419999999</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1733,33 +1916,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>134</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>3860.3357</v>
       </c>
       <c r="G39" t="n">
-        <v>55891.71419999999</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1768,33 +1958,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>134</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D40" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E40" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" t="n">
-        <v>563.372</v>
+        <v>3469.6272</v>
       </c>
       <c r="G40" t="n">
-        <v>55328.34219999999</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1803,11 +2000,18 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>134</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1826,10 +2030,10 @@
         <v>136</v>
       </c>
       <c r="F41" t="n">
-        <v>968.9999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>56297.34209999999</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1838,33 +2042,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>134</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D42" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" t="n">
         <v>136</v>
       </c>
       <c r="F42" t="n">
-        <v>22927.3991</v>
+        <v>39597.5209</v>
       </c>
       <c r="G42" t="n">
-        <v>79224.74119999999</v>
+        <v>137</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1873,33 +2084,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>134</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F43" t="n">
-        <v>6236.6903</v>
+        <v>5847.4032</v>
       </c>
       <c r="G43" t="n">
-        <v>72988.05089999999</v>
+        <v>136</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1908,21 +2126,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>134</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>137</v>
+      </c>
+      <c r="C44" t="n">
         <v>138</v>
-      </c>
-      <c r="C44" t="n">
-        <v>137</v>
       </c>
       <c r="D44" t="n">
         <v>138</v>
@@ -1931,10 +2156,10 @@
         <v>137</v>
       </c>
       <c r="F44" t="n">
-        <v>3994.3285</v>
+        <v>1960.7095</v>
       </c>
       <c r="G44" t="n">
-        <v>72988.05089999999</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1943,33 +2168,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>134</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C45" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F45" t="n">
-        <v>600.2479</v>
+        <v>500</v>
       </c>
       <c r="G45" t="n">
-        <v>72988.05089999999</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1978,11 +2210,18 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>134</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1992,19 +2231,19 @@
         <v>137</v>
       </c>
       <c r="C46" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" t="n">
         <v>137</v>
       </c>
       <c r="F46" t="n">
-        <v>415.0927</v>
+        <v>628.9399</v>
       </c>
       <c r="G46" t="n">
-        <v>72988.05089999999</v>
+        <v>138</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2013,11 +2252,18 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>134</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2027,19 +2273,19 @@
         <v>137</v>
       </c>
       <c r="C47" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" t="n">
         <v>137</v>
       </c>
       <c r="E47" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>2950.7299</v>
       </c>
       <c r="G47" t="n">
-        <v>71988.05089999999</v>
+        <v>137.6666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2048,33 +2294,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>134</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F48" t="n">
-        <v>30345.4884</v>
+        <v>3258.3958</v>
       </c>
       <c r="G48" t="n">
-        <v>41642.56249999999</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2083,33 +2336,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>134</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F49" t="n">
-        <v>285.664</v>
+        <v>913.775</v>
       </c>
       <c r="G49" t="n">
-        <v>41928.22649999998</v>
+        <v>137</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2118,33 +2378,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>134</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E50" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F50" t="n">
-        <v>23051.9783</v>
+        <v>482.93</v>
       </c>
       <c r="G50" t="n">
-        <v>18876.24819999998</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2153,33 +2420,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>134</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C51" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D51" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E51" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F51" t="n">
-        <v>517.1675</v>
+        <v>484.5083</v>
       </c>
       <c r="G51" t="n">
-        <v>18876.24819999998</v>
+        <v>137.6666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2188,33 +2462,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>134</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C52" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D52" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E52" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F52" t="n">
-        <v>2422.1832</v>
+        <v>616.2546</v>
       </c>
       <c r="G52" t="n">
-        <v>18876.24819999998</v>
+        <v>138</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2223,33 +2504,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>134</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D53" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F53" t="n">
-        <v>1.17</v>
+        <v>1108.5634</v>
       </c>
       <c r="G53" t="n">
-        <v>18877.41819999998</v>
+        <v>138</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2258,33 +2546,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>134</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="n">
         <v>135</v>
       </c>
       <c r="D54" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E54" t="n">
         <v>135</v>
       </c>
       <c r="F54" t="n">
-        <v>409.5775</v>
+        <v>670.663</v>
       </c>
       <c r="G54" t="n">
-        <v>18467.84069999998</v>
+        <v>137</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2293,33 +2588,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>134</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="n">
         <v>136</v>
       </c>
       <c r="D55" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" t="n">
         <v>136</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>3876.6597</v>
       </c>
       <c r="G55" t="n">
-        <v>18468.84069999998</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2328,115 +2630,124 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>134</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C56" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D56" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E56" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F56" t="n">
-        <v>1945.8257</v>
+        <v>1120</v>
       </c>
       <c r="G56" t="n">
-        <v>16523.01499999998</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>136</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>136</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C57" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D57" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E57" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F57" t="n">
-        <v>371.0114</v>
+        <v>143.884</v>
       </c>
       <c r="G57" t="n">
-        <v>16523.01499999998</v>
+        <v>138</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>135</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C58" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D58" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E58" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F58" t="n">
-        <v>128.9886</v>
+        <v>250</v>
       </c>
       <c r="G58" t="n">
-        <v>16523.01499999998</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,38 +2757,39 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C59" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D59" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E59" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F59" t="n">
-        <v>399.4107</v>
+        <v>2887.8312</v>
       </c>
       <c r="G59" t="n">
-        <v>16123.60429999998</v>
+        <v>139.6666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2486,33 +2798,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>134</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C60" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D60" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E60" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F60" t="n">
-        <v>350.5791</v>
+        <v>625.3052</v>
       </c>
       <c r="G60" t="n">
-        <v>16123.60429999998</v>
+        <v>140.3333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2521,33 +2840,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>134</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C61" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D61" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E61" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F61" t="n">
-        <v>3200</v>
+        <v>1581.5362</v>
       </c>
       <c r="G61" t="n">
-        <v>12923.60429999998</v>
+        <v>140.6666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2556,33 +2882,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>134</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C62" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D62" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E62" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F62" t="n">
-        <v>1600</v>
+        <v>1546.782</v>
       </c>
       <c r="G62" t="n">
-        <v>11323.60429999998</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2591,283 +2924,292 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>134</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C63" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D63" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E63" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F63" t="n">
-        <v>2368.3059</v>
+        <v>1555</v>
       </c>
       <c r="G63" t="n">
-        <v>13691.91019999998</v>
+        <v>142.3333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>132</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>132</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C64" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D64" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E64" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F64" t="n">
-        <v>7573.5294</v>
+        <v>1739.86</v>
       </c>
       <c r="G64" t="n">
-        <v>21265.43959999998</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>134</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C65" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D65" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E65" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F65" t="n">
-        <v>6682.3288</v>
+        <v>1880</v>
       </c>
       <c r="G65" t="n">
-        <v>27947.76839999998</v>
+        <v>143.6666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>136</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C66" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D66" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E66" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F66" t="n">
-        <v>2.6712</v>
+        <v>11973.8137</v>
       </c>
       <c r="G66" t="n">
-        <v>27947.76839999998</v>
+        <v>143.6666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>137</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>137</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C67" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D67" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E67" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F67" t="n">
-        <v>672.2727</v>
+        <v>25964.7685</v>
       </c>
       <c r="G67" t="n">
-        <v>27275.49569999998</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>137</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C68" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D68" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E68" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F68" t="n">
-        <v>408.3914</v>
+        <v>2379.7808</v>
       </c>
       <c r="G68" t="n">
-        <v>26867.10429999998</v>
+        <v>145</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>136</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C69" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D69" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E69" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F69" t="n">
-        <v>17522.1565</v>
+        <v>392.8296</v>
       </c>
       <c r="G69" t="n">
-        <v>44389.26079999997</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2876,33 +3218,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>134</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D70" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E70" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F70" t="n">
-        <v>407.6307</v>
+        <v>264.2516</v>
       </c>
       <c r="G70" t="n">
-        <v>44389.26079999997</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,33 +3260,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>134</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C71" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D71" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E71" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F71" t="n">
-        <v>78</v>
+        <v>4950.9878</v>
       </c>
       <c r="G71" t="n">
-        <v>44389.26079999997</v>
+        <v>144</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2946,33 +3302,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>134</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D72" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E72" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F72" t="n">
-        <v>501.0538</v>
+        <v>4910.2825</v>
       </c>
       <c r="G72" t="n">
-        <v>44389.26079999997</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2981,33 +3344,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>134</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C73" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D73" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E73" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F73" t="n">
-        <v>6180.4159</v>
+        <v>2204</v>
       </c>
       <c r="G73" t="n">
-        <v>44389.26079999997</v>
+        <v>145</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3016,33 +3386,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>134</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C74" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D74" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E74" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F74" t="n">
-        <v>418.1537</v>
+        <v>4413.7931</v>
       </c>
       <c r="G74" t="n">
-        <v>44389.26079999997</v>
+        <v>145</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3051,33 +3428,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>134</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C75" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D75" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E75" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F75" t="n">
-        <v>2341.5389</v>
+        <v>250</v>
       </c>
       <c r="G75" t="n">
-        <v>42047.72189999997</v>
+        <v>145</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3086,33 +3470,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>134</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C76" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D76" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E76" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F76" t="n">
-        <v>230</v>
+        <v>164.5</v>
       </c>
       <c r="G76" t="n">
-        <v>42047.72189999997</v>
+        <v>145</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3121,33 +3512,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>134</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C77" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D77" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E77" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F77" t="n">
-        <v>18.3288</v>
+        <v>2687.6969</v>
       </c>
       <c r="G77" t="n">
-        <v>42066.05069999998</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3156,33 +3554,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>134</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C78" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D78" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E78" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F78" t="n">
-        <v>269.07</v>
+        <v>2559.6786</v>
       </c>
       <c r="G78" t="n">
-        <v>42066.05069999998</v>
+        <v>146</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3191,33 +3596,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>134</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C79" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D79" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E79" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F79" t="n">
-        <v>386.649</v>
+        <v>1.1</v>
       </c>
       <c r="G79" t="n">
-        <v>41679.40169999998</v>
+        <v>147</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3226,33 +3638,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>134</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C80" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D80" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E80" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F80" t="n">
-        <v>136.1129</v>
+        <v>31124.2629</v>
       </c>
       <c r="G80" t="n">
-        <v>41679.40169999998</v>
+        <v>147.6666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3261,33 +3680,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>134</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C81" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D81" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E81" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F81" t="n">
-        <v>3860.3357</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>45539.73739999998</v>
+        <v>148</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3296,33 +3722,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>134</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C82" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D82" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E82" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F82" t="n">
-        <v>3469.6272</v>
+        <v>8917.9398</v>
       </c>
       <c r="G82" t="n">
-        <v>49009.36459999999</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3331,33 +3764,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>134</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C83" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D83" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E83" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>260.058</v>
       </c>
       <c r="G83" t="n">
-        <v>49008.36459999999</v>
+        <v>145.6666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3366,33 +3806,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>134</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C84" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D84" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E84" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F84" t="n">
-        <v>39597.5209</v>
+        <v>1.11</v>
       </c>
       <c r="G84" t="n">
-        <v>49008.36459999999</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3401,33 +3848,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>134</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C85" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D85" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E85" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F85" t="n">
-        <v>5847.4032</v>
+        <v>31832.961</v>
       </c>
       <c r="G85" t="n">
-        <v>49008.36459999999</v>
+        <v>145</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3436,33 +3890,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>134</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C86" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D86" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E86" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F86" t="n">
-        <v>1960.7095</v>
+        <v>515.4267</v>
       </c>
       <c r="G86" t="n">
-        <v>50969.07409999998</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3471,33 +3932,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>134</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C87" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D87" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E87" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>13745.571</v>
       </c>
       <c r="G87" t="n">
-        <v>50969.07409999998</v>
+        <v>145</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3506,33 +3974,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>134</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C88" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D88" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E88" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F88" t="n">
-        <v>628.9399</v>
+        <v>2969.9934</v>
       </c>
       <c r="G88" t="n">
-        <v>50969.07409999998</v>
+        <v>146</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3541,33 +4016,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>134</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C89" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D89" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E89" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F89" t="n">
-        <v>2950.7299</v>
+        <v>3496.5034</v>
       </c>
       <c r="G89" t="n">
-        <v>48018.34419999998</v>
+        <v>146</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3576,33 +4058,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>134</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C90" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D90" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E90" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F90" t="n">
-        <v>3258.3958</v>
+        <v>9061.4426</v>
       </c>
       <c r="G90" t="n">
-        <v>48018.34419999998</v>
+        <v>145.6666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3611,33 +4100,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>134</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C91" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D91" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E91" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F91" t="n">
-        <v>913.775</v>
+        <v>8274.2027</v>
       </c>
       <c r="G91" t="n">
-        <v>48018.34419999998</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3646,33 +4142,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>134</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C92" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D92" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E92" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F92" t="n">
-        <v>482.93</v>
+        <v>3424.678</v>
       </c>
       <c r="G92" t="n">
-        <v>48501.27419999999</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3681,33 +4184,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>134</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C93" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D93" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E93" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F93" t="n">
-        <v>484.5083</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>48501.27419999999</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3716,33 +4226,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>134</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C94" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D94" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E94" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F94" t="n">
-        <v>616.2546</v>
+        <v>20.1575</v>
       </c>
       <c r="G94" t="n">
-        <v>48501.27419999999</v>
+        <v>145</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3751,33 +4268,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>134</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C95" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D95" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E95" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F95" t="n">
-        <v>1108.5634</v>
+        <v>13476.8682</v>
       </c>
       <c r="G95" t="n">
-        <v>48501.27419999999</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3786,33 +4310,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>134</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C96" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D96" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E96" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F96" t="n">
-        <v>670.663</v>
+        <v>3176</v>
       </c>
       <c r="G96" t="n">
-        <v>47830.61119999998</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3821,33 +4352,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>134</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C97" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D97" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E97" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F97" t="n">
-        <v>3876.6597</v>
+        <v>4829.9526</v>
       </c>
       <c r="G97" t="n">
-        <v>51707.27089999999</v>
+        <v>144</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3856,33 +4394,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>134</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C98" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D98" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E98" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F98" t="n">
-        <v>1120</v>
+        <v>3416.4399</v>
       </c>
       <c r="G98" t="n">
-        <v>52827.27089999999</v>
+        <v>144</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3891,33 +4436,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>134</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C99" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D99" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E99" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F99" t="n">
-        <v>143.884</v>
+        <v>17391.4588</v>
       </c>
       <c r="G99" t="n">
-        <v>52827.27089999999</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3926,33 +4478,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>134</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C100" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D100" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E100" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>360.7671</v>
       </c>
       <c r="G100" t="n">
-        <v>53077.27089999999</v>
+        <v>145</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3961,33 +4520,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>134</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C101" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D101" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E101" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F101" t="n">
-        <v>2887.8312</v>
+        <v>4320</v>
       </c>
       <c r="G101" t="n">
-        <v>53077.27089999999</v>
+        <v>145</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3996,33 +4562,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>134</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C102" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D102" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E102" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F102" t="n">
-        <v>625.3052</v>
+        <v>4593.1355</v>
       </c>
       <c r="G102" t="n">
-        <v>53702.57609999999</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4031,33 +4604,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>134</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C103" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D103" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E103" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F103" t="n">
-        <v>1581.5362</v>
+        <v>510.3895</v>
       </c>
       <c r="G103" t="n">
-        <v>53702.57609999999</v>
+        <v>144</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4066,33 +4646,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>134</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C104" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D104" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F104" t="n">
-        <v>1546.782</v>
+        <v>1.18</v>
       </c>
       <c r="G104" t="n">
-        <v>55249.35809999999</v>
+        <v>144.3333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4101,33 +4688,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>134</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C105" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D105" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E105" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F105" t="n">
-        <v>1555</v>
+        <v>755.8445</v>
       </c>
       <c r="G105" t="n">
-        <v>55249.35809999999</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4136,33 +4730,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>134</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C106" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D106" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F106" t="n">
-        <v>1739.86</v>
+        <v>3544.9764</v>
       </c>
       <c r="G106" t="n">
-        <v>56989.21809999999</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4171,33 +4772,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>134</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F107" t="n">
-        <v>1880</v>
+        <v>33548.2319</v>
       </c>
       <c r="G107" t="n">
-        <v>56989.21809999999</v>
+        <v>145.6666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4206,33 +4814,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>134</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C108" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D108" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E108" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F108" t="n">
-        <v>11973.8137</v>
+        <v>1121.5692</v>
       </c>
       <c r="G108" t="n">
-        <v>45015.40439999999</v>
+        <v>146</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4241,33 +4856,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>134</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C109" t="n">
         <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E109" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F109" t="n">
-        <v>25964.7685</v>
+        <v>391.3121</v>
       </c>
       <c r="G109" t="n">
-        <v>70980.17289999999</v>
+        <v>146</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4276,11 +4898,18 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>134</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4299,10 +4928,10 @@
         <v>146</v>
       </c>
       <c r="F110" t="n">
-        <v>2379.7808</v>
+        <v>886.1741</v>
       </c>
       <c r="G110" t="n">
-        <v>70980.17289999999</v>
+        <v>146</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4311,33 +4940,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>134</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D111" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E111" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F111" t="n">
-        <v>392.8296</v>
+        <v>10042.3289</v>
       </c>
       <c r="G111" t="n">
-        <v>70587.34329999999</v>
+        <v>146</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4346,33 +4982,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>134</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C112" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D112" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E112" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F112" t="n">
-        <v>264.2516</v>
+        <v>2534.2466</v>
       </c>
       <c r="G112" t="n">
-        <v>70323.09169999999</v>
+        <v>146</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4381,11 +5024,18 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>134</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4395,19 +5045,19 @@
         <v>146</v>
       </c>
       <c r="C113" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D113" t="n">
         <v>146</v>
       </c>
       <c r="E113" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F113" t="n">
-        <v>4950.9878</v>
+        <v>3038.406</v>
       </c>
       <c r="G113" t="n">
-        <v>75274.07949999999</v>
+        <v>146</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4416,33 +5066,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>134</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C114" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D114" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E114" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F114" t="n">
-        <v>4910.2825</v>
+        <v>14371.081</v>
       </c>
       <c r="G114" t="n">
-        <v>75274.07949999999</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4451,33 +5108,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>134</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C115" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D115" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E115" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F115" t="n">
-        <v>2204</v>
+        <v>1740.3714</v>
       </c>
       <c r="G115" t="n">
-        <v>75274.07949999999</v>
+        <v>147.3333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4486,33 +5150,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>134</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C116" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D116" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E116" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F116" t="n">
-        <v>4413.7931</v>
+        <v>134.2763</v>
       </c>
       <c r="G116" t="n">
-        <v>75274.07949999999</v>
+        <v>148</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4521,45 +5192,61 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>134</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C117" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D117" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E117" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>640</v>
       </c>
       <c r="G117" t="n">
-        <v>75274.07949999999</v>
+        <v>148</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>134</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>1.099477611940299</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.037593984962406</v>
       </c>
     </row>
     <row r="118">
@@ -4567,28 +5254,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C118" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D118" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F118" t="n">
-        <v>164.5</v>
+        <v>3889.306</v>
       </c>
       <c r="G118" t="n">
-        <v>75274.07949999999</v>
+        <v>147.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4596,34 +5283,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C119" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D119" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E119" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F119" t="n">
-        <v>2687.6969</v>
+        <v>471.3025</v>
       </c>
       <c r="G119" t="n">
-        <v>77961.77639999999</v>
+        <v>147</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4631,34 +5319,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C120" t="n">
+        <v>148</v>
+      </c>
+      <c r="D120" t="n">
+        <v>148</v>
+      </c>
+      <c r="E120" t="n">
+        <v>148</v>
+      </c>
+      <c r="F120" t="n">
+        <v>646.3108</v>
+      </c>
+      <c r="G120" t="n">
         <v>147</v>
       </c>
-      <c r="D120" t="n">
-        <v>147</v>
-      </c>
-      <c r="E120" t="n">
-        <v>146</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2559.6786</v>
-      </c>
-      <c r="G120" t="n">
-        <v>80521.45499999999</v>
-      </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4666,6 +5355,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4675,25 +5365,25 @@
         <v>148</v>
       </c>
       <c r="C121" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121" t="n">
         <v>148</v>
       </c>
       <c r="F121" t="n">
-        <v>1.1</v>
+        <v>1931.0402</v>
       </c>
       <c r="G121" t="n">
-        <v>80522.55499999999</v>
+        <v>148</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4701,34 +5391,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C122" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D122" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F122" t="n">
-        <v>31124.2629</v>
+        <v>18533.8582</v>
       </c>
       <c r="G122" t="n">
-        <v>80522.55499999999</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4736,28 +5427,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C123" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D123" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E123" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>7028.0872</v>
       </c>
       <c r="G123" t="n">
-        <v>80522.55499999999</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4771,28 +5463,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C124" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D124" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E124" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F124" t="n">
-        <v>8917.9398</v>
+        <v>1222.3179</v>
       </c>
       <c r="G124" t="n">
-        <v>71604.6152</v>
+        <v>150.3333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4806,34 +5499,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C125" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D125" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E125" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F125" t="n">
-        <v>260.058</v>
+        <v>22</v>
       </c>
       <c r="G125" t="n">
-        <v>71864.6732</v>
+        <v>151</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4841,34 +5535,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C126" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D126" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F126" t="n">
-        <v>1.11</v>
+        <v>50188.5164</v>
       </c>
       <c r="G126" t="n">
-        <v>71865.78320000001</v>
+        <v>151</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4876,34 +5571,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C127" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D127" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E127" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F127" t="n">
-        <v>31832.961</v>
+        <v>37752.6393</v>
       </c>
       <c r="G127" t="n">
-        <v>40032.82220000001</v>
+        <v>150.6666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4911,34 +5607,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C128" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D128" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E128" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F128" t="n">
-        <v>515.4267</v>
+        <v>3500.6701</v>
       </c>
       <c r="G128" t="n">
-        <v>40548.24890000001</v>
+        <v>150.3333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4946,34 +5643,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C129" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D129" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E129" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F129" t="n">
-        <v>13745.571</v>
+        <v>11935.7138</v>
       </c>
       <c r="G129" t="n">
-        <v>40548.24890000001</v>
+        <v>150.6666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4981,34 +5679,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C130" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D130" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E130" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F130" t="n">
-        <v>2969.9934</v>
+        <v>1436.4502</v>
       </c>
       <c r="G130" t="n">
-        <v>40548.24890000001</v>
+        <v>151.6666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5016,34 +5715,35 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C131" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E131" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F131" t="n">
-        <v>3496.5034</v>
+        <v>8110.5531</v>
       </c>
       <c r="G131" t="n">
-        <v>40548.24890000001</v>
+        <v>152</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5051,34 +5751,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C132" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D132" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E132" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F132" t="n">
-        <v>9061.4426</v>
+        <v>1266.5338</v>
       </c>
       <c r="G132" t="n">
-        <v>31486.8063</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5086,34 +5787,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C133" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D133" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E133" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F133" t="n">
-        <v>8274.2027</v>
+        <v>10879.259</v>
       </c>
       <c r="G133" t="n">
-        <v>31486.8063</v>
+        <v>152.3333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5121,34 +5823,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C134" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D134" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E134" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F134" t="n">
-        <v>3424.678</v>
+        <v>25213.1837</v>
       </c>
       <c r="G134" t="n">
-        <v>28062.1283</v>
+        <v>152</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5156,34 +5859,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C135" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D135" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E135" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>3366.198</v>
       </c>
       <c r="G135" t="n">
-        <v>28063.1283</v>
+        <v>150.6666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5191,34 +5895,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C136" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D136" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E136" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F136" t="n">
-        <v>20.1575</v>
+        <v>3190.6439</v>
       </c>
       <c r="G136" t="n">
-        <v>28063.1283</v>
+        <v>149</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5226,34 +5931,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C137" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D137" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E137" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F137" t="n">
-        <v>13476.8682</v>
+        <v>1501.0037</v>
       </c>
       <c r="G137" t="n">
-        <v>14586.2601</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5261,34 +5967,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C138" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D138" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E138" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F138" t="n">
-        <v>3176</v>
+        <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>14586.2601</v>
+        <v>150.3333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5296,34 +6003,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C139" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D139" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E139" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F139" t="n">
-        <v>4829.9526</v>
+        <v>9821.133099999999</v>
       </c>
       <c r="G139" t="n">
-        <v>14586.2601</v>
+        <v>151.3333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5331,34 +6039,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C140" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D140" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E140" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F140" t="n">
-        <v>3416.4399</v>
+        <v>42938.7896</v>
       </c>
       <c r="G140" t="n">
-        <v>14586.2601</v>
+        <v>150.6666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5366,34 +6075,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C141" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D141" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E141" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F141" t="n">
-        <v>17391.4588</v>
+        <v>331.8447</v>
       </c>
       <c r="G141" t="n">
-        <v>31977.7189</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5401,28 +6111,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C142" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D142" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E142" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F142" t="n">
-        <v>360.7671</v>
+        <v>4004.4369</v>
       </c>
       <c r="G142" t="n">
-        <v>32338.486</v>
+        <v>149.3333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5436,28 +6147,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C143" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D143" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E143" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F143" t="n">
-        <v>4320</v>
+        <v>292.3972</v>
       </c>
       <c r="G143" t="n">
-        <v>28018.486</v>
+        <v>149</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5471,28 +6183,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C144" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D144" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E144" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F144" t="n">
-        <v>4593.1355</v>
+        <v>5650.6855</v>
       </c>
       <c r="G144" t="n">
-        <v>28018.486</v>
+        <v>149.3333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5506,28 +6219,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C145" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D145" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E145" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F145" t="n">
-        <v>510.3895</v>
+        <v>1131.408</v>
       </c>
       <c r="G145" t="n">
-        <v>28018.486</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5541,28 +6255,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C146" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D146" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F146" t="n">
-        <v>1.18</v>
+        <v>300</v>
       </c>
       <c r="G146" t="n">
-        <v>28019.666</v>
+        <v>149.6666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5576,28 +6291,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C147" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D147" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E147" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F147" t="n">
-        <v>755.8445</v>
+        <v>3598.0157</v>
       </c>
       <c r="G147" t="n">
-        <v>28019.666</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5611,28 +6327,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C148" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D148" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E148" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F148" t="n">
-        <v>3544.9764</v>
+        <v>2191.714</v>
       </c>
       <c r="G148" t="n">
-        <v>31564.6424</v>
+        <v>147.6666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5646,28 +6363,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F149" t="n">
-        <v>33548.2319</v>
+        <v>22266.8955</v>
       </c>
       <c r="G149" t="n">
-        <v>31564.6424</v>
+        <v>147</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5681,6 +6399,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5699,10 +6418,10 @@
         <v>146</v>
       </c>
       <c r="F150" t="n">
-        <v>1121.5692</v>
+        <v>1600</v>
       </c>
       <c r="G150" t="n">
-        <v>31564.6424</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5716,28 +6435,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C151" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D151" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E151" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F151" t="n">
-        <v>391.3121</v>
+        <v>2520.7177</v>
       </c>
       <c r="G151" t="n">
-        <v>31564.6424</v>
+        <v>146</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5751,28 +6471,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D152" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E152" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F152" t="n">
-        <v>886.1741</v>
+        <v>1609.1953</v>
       </c>
       <c r="G152" t="n">
-        <v>31564.6424</v>
+        <v>145.3333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5786,28 +6507,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" t="n">
         <v>148</v>
       </c>
       <c r="E153" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F153" t="n">
-        <v>10042.3289</v>
+        <v>7614.967</v>
       </c>
       <c r="G153" t="n">
-        <v>31564.6424</v>
+        <v>145</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5821,1476 +6543,7 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>146</v>
-      </c>
-      <c r="C154" t="n">
-        <v>146</v>
-      </c>
-      <c r="D154" t="n">
-        <v>146</v>
-      </c>
-      <c r="E154" t="n">
-        <v>146</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2534.2466</v>
-      </c>
-      <c r="G154" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>146</v>
-      </c>
-      <c r="C155" t="n">
-        <v>146</v>
-      </c>
-      <c r="D155" t="n">
-        <v>146</v>
-      </c>
-      <c r="E155" t="n">
-        <v>146</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3038.406</v>
-      </c>
-      <c r="G155" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>148</v>
-      </c>
-      <c r="C156" t="n">
-        <v>148</v>
-      </c>
-      <c r="D156" t="n">
-        <v>148</v>
-      </c>
-      <c r="E156" t="n">
-        <v>148</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14371.081</v>
-      </c>
-      <c r="G156" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>148</v>
-      </c>
-      <c r="C157" t="n">
-        <v>148</v>
-      </c>
-      <c r="D157" t="n">
-        <v>148</v>
-      </c>
-      <c r="E157" t="n">
-        <v>148</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1740.3714</v>
-      </c>
-      <c r="G157" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>148</v>
-      </c>
-      <c r="C158" t="n">
-        <v>148</v>
-      </c>
-      <c r="D158" t="n">
-        <v>148</v>
-      </c>
-      <c r="E158" t="n">
-        <v>148</v>
-      </c>
-      <c r="F158" t="n">
-        <v>134.2763</v>
-      </c>
-      <c r="G158" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>148</v>
-      </c>
-      <c r="C159" t="n">
-        <v>148</v>
-      </c>
-      <c r="D159" t="n">
-        <v>148</v>
-      </c>
-      <c r="E159" t="n">
-        <v>148</v>
-      </c>
-      <c r="F159" t="n">
-        <v>640</v>
-      </c>
-      <c r="G159" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>147</v>
-      </c>
-      <c r="C160" t="n">
-        <v>146</v>
-      </c>
-      <c r="D160" t="n">
-        <v>147</v>
-      </c>
-      <c r="E160" t="n">
-        <v>146</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3889.306</v>
-      </c>
-      <c r="G160" t="n">
-        <v>42046.41740000001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>147</v>
-      </c>
-      <c r="C161" t="n">
-        <v>147</v>
-      </c>
-      <c r="D161" t="n">
-        <v>147</v>
-      </c>
-      <c r="E161" t="n">
-        <v>147</v>
-      </c>
-      <c r="F161" t="n">
-        <v>471.3025</v>
-      </c>
-      <c r="G161" t="n">
-        <v>42517.7199</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>148</v>
-      </c>
-      <c r="C162" t="n">
-        <v>148</v>
-      </c>
-      <c r="D162" t="n">
-        <v>148</v>
-      </c>
-      <c r="E162" t="n">
-        <v>148</v>
-      </c>
-      <c r="F162" t="n">
-        <v>646.3108</v>
-      </c>
-      <c r="G162" t="n">
-        <v>43164.0307</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>148</v>
-      </c>
-      <c r="C163" t="n">
-        <v>149</v>
-      </c>
-      <c r="D163" t="n">
-        <v>149</v>
-      </c>
-      <c r="E163" t="n">
-        <v>148</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1931.0402</v>
-      </c>
-      <c r="G163" t="n">
-        <v>45095.07090000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>149</v>
-      </c>
-      <c r="C164" t="n">
-        <v>149</v>
-      </c>
-      <c r="D164" t="n">
-        <v>150</v>
-      </c>
-      <c r="E164" t="n">
-        <v>149</v>
-      </c>
-      <c r="F164" t="n">
-        <v>18533.8582</v>
-      </c>
-      <c r="G164" t="n">
-        <v>45095.07090000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>149</v>
-      </c>
-      <c r="C165" t="n">
-        <v>151</v>
-      </c>
-      <c r="D165" t="n">
-        <v>151</v>
-      </c>
-      <c r="E165" t="n">
-        <v>149</v>
-      </c>
-      <c r="F165" t="n">
-        <v>7028.0872</v>
-      </c>
-      <c r="G165" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>151</v>
-      </c>
-      <c r="C166" t="n">
-        <v>151</v>
-      </c>
-      <c r="D166" t="n">
-        <v>151</v>
-      </c>
-      <c r="E166" t="n">
-        <v>149</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1222.3179</v>
-      </c>
-      <c r="G166" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>151</v>
-      </c>
-      <c r="C167" t="n">
-        <v>151</v>
-      </c>
-      <c r="D167" t="n">
-        <v>151</v>
-      </c>
-      <c r="E167" t="n">
-        <v>151</v>
-      </c>
-      <c r="F167" t="n">
-        <v>22</v>
-      </c>
-      <c r="G167" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>151</v>
-      </c>
-      <c r="C168" t="n">
-        <v>151</v>
-      </c>
-      <c r="D168" t="n">
-        <v>151</v>
-      </c>
-      <c r="E168" t="n">
-        <v>151</v>
-      </c>
-      <c r="F168" t="n">
-        <v>50188.5164</v>
-      </c>
-      <c r="G168" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>150</v>
-      </c>
-      <c r="C169" t="n">
-        <v>150</v>
-      </c>
-      <c r="D169" t="n">
-        <v>152</v>
-      </c>
-      <c r="E169" t="n">
-        <v>149</v>
-      </c>
-      <c r="F169" t="n">
-        <v>37752.6393</v>
-      </c>
-      <c r="G169" t="n">
-        <v>14370.51880000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>152</v>
-      </c>
-      <c r="C170" t="n">
-        <v>150</v>
-      </c>
-      <c r="D170" t="n">
-        <v>152</v>
-      </c>
-      <c r="E170" t="n">
-        <v>150</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3500.6701</v>
-      </c>
-      <c r="G170" t="n">
-        <v>14370.51880000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>152</v>
-      </c>
-      <c r="C171" t="n">
-        <v>152</v>
-      </c>
-      <c r="D171" t="n">
-        <v>152</v>
-      </c>
-      <c r="E171" t="n">
-        <v>150</v>
-      </c>
-      <c r="F171" t="n">
-        <v>11935.7138</v>
-      </c>
-      <c r="G171" t="n">
-        <v>26306.2326</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>152</v>
-      </c>
-      <c r="C172" t="n">
-        <v>153</v>
-      </c>
-      <c r="D172" t="n">
-        <v>153</v>
-      </c>
-      <c r="E172" t="n">
-        <v>152</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1436.4502</v>
-      </c>
-      <c r="G172" t="n">
-        <v>27742.6828</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>153</v>
-      </c>
-      <c r="C173" t="n">
-        <v>151</v>
-      </c>
-      <c r="D173" t="n">
-        <v>153</v>
-      </c>
-      <c r="E173" t="n">
-        <v>151</v>
-      </c>
-      <c r="F173" t="n">
-        <v>8110.5531</v>
-      </c>
-      <c r="G173" t="n">
-        <v>19632.1297</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>153</v>
-      </c>
-      <c r="C174" t="n">
-        <v>154</v>
-      </c>
-      <c r="D174" t="n">
-        <v>154</v>
-      </c>
-      <c r="E174" t="n">
-        <v>152</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1266.5338</v>
-      </c>
-      <c r="G174" t="n">
-        <v>20898.6635</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>152</v>
-      </c>
-      <c r="C175" t="n">
-        <v>152</v>
-      </c>
-      <c r="D175" t="n">
-        <v>153</v>
-      </c>
-      <c r="E175" t="n">
-        <v>152</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10879.259</v>
-      </c>
-      <c r="G175" t="n">
-        <v>10019.4045</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>152</v>
-      </c>
-      <c r="C176" t="n">
-        <v>150</v>
-      </c>
-      <c r="D176" t="n">
-        <v>153</v>
-      </c>
-      <c r="E176" t="n">
-        <v>150</v>
-      </c>
-      <c r="F176" t="n">
-        <v>25213.1837</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-15193.7792</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>150</v>
-      </c>
-      <c r="C177" t="n">
-        <v>150</v>
-      </c>
-      <c r="D177" t="n">
-        <v>150</v>
-      </c>
-      <c r="E177" t="n">
-        <v>150</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3366.198</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-15193.7792</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>147</v>
-      </c>
-      <c r="C178" t="n">
-        <v>147</v>
-      </c>
-      <c r="D178" t="n">
-        <v>147</v>
-      </c>
-      <c r="E178" t="n">
-        <v>147</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3190.6439</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-18384.4231</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>147</v>
-      </c>
-      <c r="C179" t="n">
-        <v>152</v>
-      </c>
-      <c r="D179" t="n">
-        <v>152</v>
-      </c>
-      <c r="E179" t="n">
-        <v>147</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1501.0037</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-16883.4194</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>152</v>
-      </c>
-      <c r="C180" t="n">
-        <v>152</v>
-      </c>
-      <c r="D180" t="n">
-        <v>152</v>
-      </c>
-      <c r="E180" t="n">
-        <v>152</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-16883.4194</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>151</v>
-      </c>
-      <c r="C181" t="n">
-        <v>150</v>
-      </c>
-      <c r="D181" t="n">
-        <v>151</v>
-      </c>
-      <c r="E181" t="n">
-        <v>147</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9821.133099999999</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-26704.5525</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>150</v>
-      </c>
-      <c r="C182" t="n">
-        <v>150</v>
-      </c>
-      <c r="D182" t="n">
-        <v>150</v>
-      </c>
-      <c r="E182" t="n">
-        <v>148</v>
-      </c>
-      <c r="F182" t="n">
-        <v>42938.7896</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-26704.5525</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>149</v>
-      </c>
-      <c r="C183" t="n">
-        <v>149</v>
-      </c>
-      <c r="D183" t="n">
-        <v>149</v>
-      </c>
-      <c r="E183" t="n">
-        <v>149</v>
-      </c>
-      <c r="F183" t="n">
-        <v>331.8447</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>150</v>
-      </c>
-      <c r="C184" t="n">
-        <v>149</v>
-      </c>
-      <c r="D184" t="n">
-        <v>150</v>
-      </c>
-      <c r="E184" t="n">
-        <v>149</v>
-      </c>
-      <c r="F184" t="n">
-        <v>4004.4369</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>149</v>
-      </c>
-      <c r="C185" t="n">
-        <v>149</v>
-      </c>
-      <c r="D185" t="n">
-        <v>149</v>
-      </c>
-      <c r="E185" t="n">
-        <v>149</v>
-      </c>
-      <c r="F185" t="n">
-        <v>292.3972</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>149</v>
-      </c>
-      <c r="C186" t="n">
-        <v>150</v>
-      </c>
-      <c r="D186" t="n">
-        <v>150</v>
-      </c>
-      <c r="E186" t="n">
-        <v>149</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5650.6855</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-21385.7117</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>150</v>
-      </c>
-      <c r="C187" t="n">
-        <v>150</v>
-      </c>
-      <c r="D187" t="n">
-        <v>150</v>
-      </c>
-      <c r="E187" t="n">
-        <v>150</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1131.408</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-21385.7117</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>149</v>
-      </c>
-      <c r="C188" t="n">
-        <v>149</v>
-      </c>
-      <c r="D188" t="n">
-        <v>149</v>
-      </c>
-      <c r="E188" t="n">
-        <v>149</v>
-      </c>
-      <c r="F188" t="n">
-        <v>300</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-21685.7117</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>147</v>
-      </c>
-      <c r="C189" t="n">
-        <v>147</v>
-      </c>
-      <c r="D189" t="n">
-        <v>147</v>
-      </c>
-      <c r="E189" t="n">
-        <v>147</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3598.0157</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>147</v>
-      </c>
-      <c r="C190" t="n">
-        <v>147</v>
-      </c>
-      <c r="D190" t="n">
-        <v>147</v>
-      </c>
-      <c r="E190" t="n">
-        <v>147</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2191.714</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>147</v>
-      </c>
-      <c r="C191" t="n">
-        <v>147</v>
-      </c>
-      <c r="D191" t="n">
-        <v>147</v>
-      </c>
-      <c r="E191" t="n">
-        <v>147</v>
-      </c>
-      <c r="F191" t="n">
-        <v>22266.8955</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>146</v>
-      </c>
-      <c r="C192" t="n">
-        <v>146</v>
-      </c>
-      <c r="D192" t="n">
-        <v>146</v>
-      </c>
-      <c r="E192" t="n">
-        <v>146</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-26883.7274</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>146</v>
-      </c>
-      <c r="C193" t="n">
-        <v>145</v>
-      </c>
-      <c r="D193" t="n">
-        <v>146</v>
-      </c>
-      <c r="E193" t="n">
-        <v>145</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2520.7177</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>145</v>
-      </c>
-      <c r="C194" t="n">
-        <v>145</v>
-      </c>
-      <c r="D194" t="n">
-        <v>145</v>
-      </c>
-      <c r="E194" t="n">
-        <v>145</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1609.1953</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>144</v>
-      </c>
-      <c r="C195" t="n">
-        <v>145</v>
-      </c>
-      <c r="D195" t="n">
-        <v>148</v>
-      </c>
-      <c r="E195" t="n">
-        <v>143</v>
-      </c>
-      <c r="F195" t="n">
-        <v>7614.967</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F2" t="n">
-        <v>3994.3285</v>
+        <v>676.9243</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6666666666667</v>
+        <v>-4468.119599999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E3" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" t="n">
-        <v>600.2479</v>
+        <v>510.552</v>
       </c>
       <c r="G3" t="n">
-        <v>137</v>
+        <v>-4468.119599999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E4" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F4" t="n">
-        <v>415.0927</v>
+        <v>197.0256</v>
       </c>
       <c r="G4" t="n">
-        <v>137</v>
+        <v>-4665.145199999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>1481.4814</v>
       </c>
       <c r="G5" t="n">
-        <v>136.6666666666667</v>
+        <v>-3183.663799999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E6" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F6" t="n">
-        <v>30345.4884</v>
+        <v>211.4255</v>
       </c>
       <c r="G6" t="n">
-        <v>136</v>
+        <v>-3395.089299999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" t="n">
-        <v>285.664</v>
+        <v>10650.0539</v>
       </c>
       <c r="G7" t="n">
-        <v>135.6666666666667</v>
+        <v>7254.964600000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" t="n">
-        <v>23051.9783</v>
+        <v>222.561</v>
       </c>
       <c r="G8" t="n">
-        <v>135.3333333333333</v>
+        <v>7254.964600000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
-        <v>517.1675</v>
+        <v>196.546</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3333333333333</v>
+        <v>7254.964600000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" t="n">
-        <v>2422.1832</v>
+        <v>257.7725</v>
       </c>
       <c r="G10" t="n">
-        <v>135</v>
+        <v>7254.964600000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F11" t="n">
-        <v>1.17</v>
+        <v>190.4183</v>
       </c>
       <c r="G11" t="n">
-        <v>135.3333333333333</v>
+        <v>7254.964600000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E12" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>409.5775</v>
+        <v>197.944</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3333333333333</v>
+        <v>7057.020600000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3210.8227</v>
       </c>
       <c r="G13" t="n">
-        <v>135.6666666666667</v>
+        <v>10267.8433</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F14" t="n">
-        <v>1945.8257</v>
+        <v>751.88</v>
       </c>
       <c r="G14" t="n">
-        <v>135.3333333333333</v>
+        <v>9515.963300000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F15" t="n">
-        <v>371.0114</v>
+        <v>3140</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3333333333333</v>
+        <v>9515.963300000003</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>135</v>
-      </c>
-      <c r="K15" t="n">
-        <v>135</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -946,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F16" t="n">
-        <v>128.9886</v>
+        <v>187.97</v>
       </c>
       <c r="G16" t="n">
-        <v>135</v>
+        <v>9703.933300000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>135</v>
-      </c>
-      <c r="K16" t="n">
-        <v>135</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -990,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" t="n">
-        <v>399.4107</v>
+        <v>360.902</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6666666666667</v>
+        <v>9703.933300000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>135</v>
-      </c>
-      <c r="K17" t="n">
-        <v>135</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1034,35 +1014,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" t="n">
-        <v>350.5791</v>
+        <v>1238.0109</v>
       </c>
       <c r="G18" t="n">
-        <v>134.3333333333333</v>
+        <v>8465.922400000003</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>134</v>
-      </c>
-      <c r="K18" t="n">
-        <v>134</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1074,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="n">
-        <v>3200</v>
+        <v>274.392</v>
       </c>
       <c r="G19" t="n">
-        <v>133.6666666666667</v>
+        <v>8465.922400000003</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>134</v>
-      </c>
-      <c r="K19" t="n">
-        <v>134</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1118,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="n">
         <v>132</v>
       </c>
       <c r="D20" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" t="n">
         <v>132</v>
       </c>
       <c r="F20" t="n">
-        <v>1600</v>
+        <v>193.4809</v>
       </c>
       <c r="G20" t="n">
-        <v>133</v>
+        <v>8465.922400000003</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>133</v>
-      </c>
-      <c r="K20" t="n">
-        <v>134</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1162,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" t="n">
-        <v>2368.3059</v>
+        <v>360.902</v>
       </c>
       <c r="G21" t="n">
-        <v>133</v>
+        <v>8826.824400000003</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>132</v>
-      </c>
-      <c r="K21" t="n">
-        <v>134</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1206,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>7573.5294</v>
+        <v>436.4703</v>
       </c>
       <c r="G22" t="n">
-        <v>134</v>
+        <v>9263.294700000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>134</v>
-      </c>
-      <c r="K22" t="n">
-        <v>134</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1250,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C23" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D23" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E23" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F23" t="n">
-        <v>6682.3288</v>
+        <v>205.6393</v>
       </c>
       <c r="G23" t="n">
-        <v>135.6666666666667</v>
+        <v>9057.655400000003</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>136</v>
-      </c>
-      <c r="K23" t="n">
-        <v>134</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1294,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D24" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E24" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6712</v>
+        <v>6156.0772</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6666666666667</v>
+        <v>9057.655400000003</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>137</v>
-      </c>
-      <c r="K24" t="n">
-        <v>134</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1338,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C25" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D25" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E25" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F25" t="n">
-        <v>672.2727</v>
+        <v>3885.3166</v>
       </c>
       <c r="G25" t="n">
-        <v>136.6666666666667</v>
+        <v>5172.338800000003</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>137</v>
-      </c>
-      <c r="K25" t="n">
-        <v>134</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1382,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C26" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E26" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F26" t="n">
-        <v>408.3914</v>
+        <v>6380.2306</v>
       </c>
       <c r="G26" t="n">
-        <v>136</v>
+        <v>-1207.891799999997</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1406,16 +1326,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K26" t="n">
-        <v>134</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1426,22 +1342,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C27" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D27" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E27" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F27" t="n">
-        <v>17522.1565</v>
+        <v>9107.080599999999</v>
       </c>
       <c r="G27" t="n">
-        <v>135.6666666666667</v>
+        <v>-10314.9724</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1450,14 +1366,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K27" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1470,22 +1386,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C28" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E28" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F28" t="n">
-        <v>407.6307</v>
+        <v>360.902</v>
       </c>
       <c r="G28" t="n">
-        <v>135.6666666666667</v>
+        <v>-9954.070399999995</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1494,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K28" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1514,32 +1430,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E29" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F29" t="n">
-        <v>78</v>
+        <v>10.4304</v>
       </c>
       <c r="G29" t="n">
-        <v>136</v>
+        <v>-9943.639999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>132</v>
+      </c>
       <c r="K29" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1556,32 +1474,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C30" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D30" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E30" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F30" t="n">
-        <v>501.0538</v>
+        <v>308.2113</v>
       </c>
       <c r="G30" t="n">
-        <v>136</v>
+        <v>-10251.8513</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>133</v>
+      </c>
       <c r="K30" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1598,32 +1518,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C31" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D31" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E31" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" t="n">
-        <v>6180.4159</v>
+        <v>2565.085</v>
       </c>
       <c r="G31" t="n">
-        <v>136</v>
+        <v>-7686.766299999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>131</v>
+      </c>
       <c r="K31" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1640,32 +1562,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E32" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>418.1537</v>
+        <v>3026.6466</v>
       </c>
       <c r="G32" t="n">
-        <v>136</v>
+        <v>-7686.766299999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>133</v>
+      </c>
       <c r="K32" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1682,32 +1606,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E33" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33" t="n">
-        <v>2341.5389</v>
+        <v>250.1366</v>
       </c>
       <c r="G33" t="n">
-        <v>135.6666666666667</v>
+        <v>-7686.766299999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>133</v>
+      </c>
       <c r="K33" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1724,32 +1650,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E34" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F34" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G34" t="n">
-        <v>135.3333333333333</v>
+        <v>-7686.766299999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>133</v>
+      </c>
       <c r="K34" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1766,32 +1694,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C35" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D35" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
-        <v>18.3288</v>
+        <v>5988.1214</v>
       </c>
       <c r="G35" t="n">
-        <v>135.6666666666667</v>
+        <v>-13674.8877</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>133</v>
+      </c>
       <c r="K35" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1808,32 +1738,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D36" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E36" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F36" t="n">
-        <v>269.07</v>
+        <v>3019.08</v>
       </c>
       <c r="G36" t="n">
-        <v>136.3333333333333</v>
+        <v>-13674.8877</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>130</v>
+      </c>
       <c r="K36" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1850,22 +1782,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D37" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E37" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F37" t="n">
-        <v>386.649</v>
+        <v>7230.5912</v>
       </c>
       <c r="G37" t="n">
-        <v>136.6666666666667</v>
+        <v>-6444.296499999996</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1875,7 +1807,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1892,22 +1824,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D38" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F38" t="n">
-        <v>136.1129</v>
+        <v>281.6658</v>
       </c>
       <c r="G38" t="n">
-        <v>136.3333333333333</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1917,7 +1849,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1934,22 +1866,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C39" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D39" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E39" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F39" t="n">
-        <v>3860.3357</v>
+        <v>5353.5065</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3333333333333</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1959,7 +1891,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1976,22 +1908,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D40" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E40" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F40" t="n">
-        <v>3469.6272</v>
+        <v>696.1639</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3333333333333</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2001,7 +1933,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2018,22 +1950,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D41" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E41" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>1208.8974</v>
       </c>
       <c r="G41" t="n">
-        <v>137.3333333333333</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2043,7 +1975,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2060,22 +1992,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C42" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F42" t="n">
-        <v>39597.5209</v>
+        <v>2241.7772</v>
       </c>
       <c r="G42" t="n">
-        <v>137</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2085,7 +2017,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2102,22 +2034,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E43" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F43" t="n">
-        <v>5847.4032</v>
+        <v>7115.5224</v>
       </c>
       <c r="G43" t="n">
-        <v>136</v>
+        <v>-6725.962299999996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2127,7 +2059,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2144,22 +2076,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C44" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D44" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E44" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F44" t="n">
-        <v>1960.7095</v>
+        <v>224.4003</v>
       </c>
       <c r="G44" t="n">
-        <v>136.6666666666667</v>
+        <v>-6950.362599999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2169,7 +2101,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2186,22 +2118,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C45" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D45" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E45" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>799.8702</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3333333333333</v>
+        <v>-6950.362599999996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2211,7 +2143,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2228,22 +2160,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C46" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D46" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E46" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F46" t="n">
-        <v>628.9399</v>
+        <v>1502.8437</v>
       </c>
       <c r="G46" t="n">
-        <v>138</v>
+        <v>-8453.206299999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2253,7 +2185,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2270,22 +2202,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C47" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D47" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F47" t="n">
-        <v>2950.7299</v>
+        <v>446.5206</v>
       </c>
       <c r="G47" t="n">
-        <v>137.6666666666667</v>
+        <v>-8453.206299999996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2295,7 +2227,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2312,32 +2244,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C48" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D48" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E48" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F48" t="n">
-        <v>3258.3958</v>
+        <v>8169</v>
       </c>
       <c r="G48" t="n">
-        <v>137.3333333333333</v>
+        <v>-284.2062999999962</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>130</v>
+      </c>
       <c r="K48" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2354,32 +2288,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C49" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D49" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E49" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F49" t="n">
-        <v>913.775</v>
+        <v>351.8238</v>
       </c>
       <c r="G49" t="n">
-        <v>137</v>
+        <v>-636.0300999999962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>133</v>
+      </c>
       <c r="K49" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2396,32 +2332,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C50" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E50" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F50" t="n">
-        <v>482.93</v>
+        <v>2998.8797</v>
       </c>
       <c r="G50" t="n">
-        <v>137.3333333333333</v>
+        <v>2362.849600000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>132</v>
+      </c>
       <c r="K50" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2438,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" t="n">
-        <v>484.5083</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
-        <v>137.6666666666667</v>
+        <v>2412.849600000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2463,7 +2401,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2480,22 +2418,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C52" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D52" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E52" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F52" t="n">
-        <v>616.2546</v>
+        <v>283.939</v>
       </c>
       <c r="G52" t="n">
-        <v>138</v>
+        <v>2412.849600000004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2505,7 +2443,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2522,22 +2460,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E53" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F53" t="n">
-        <v>1108.5634</v>
+        <v>818.2814</v>
       </c>
       <c r="G53" t="n">
-        <v>138</v>
+        <v>3231.131000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2547,7 +2485,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2564,22 +2502,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D54" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F54" t="n">
-        <v>670.663</v>
+        <v>2585.5373</v>
       </c>
       <c r="G54" t="n">
-        <v>137</v>
+        <v>5816.668300000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2589,7 +2527,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2606,22 +2544,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E55" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" t="n">
-        <v>3876.6597</v>
+        <v>294</v>
       </c>
       <c r="G55" t="n">
-        <v>136.3333333333333</v>
+        <v>5522.668300000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2631,7 +2569,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2648,22 +2586,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F56" t="n">
-        <v>1120</v>
+        <v>33911.5784</v>
       </c>
       <c r="G56" t="n">
-        <v>136.6666666666667</v>
+        <v>39434.2467</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2673,7 +2611,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2693,19 +2631,19 @@
         <v>139</v>
       </c>
       <c r="C57" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" t="n">
-        <v>143.884</v>
+        <v>17916.7204</v>
       </c>
       <c r="G57" t="n">
-        <v>138</v>
+        <v>57350.9671</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2715,7 +2653,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2732,22 +2670,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E58" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>292.5711</v>
       </c>
       <c r="G58" t="n">
-        <v>139.3333333333333</v>
+        <v>57058.396</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2757,7 +2695,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2777,19 +2715,19 @@
         <v>140</v>
       </c>
       <c r="C59" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D59" t="n">
         <v>140</v>
       </c>
       <c r="E59" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F59" t="n">
-        <v>2887.8312</v>
+        <v>3305.7427</v>
       </c>
       <c r="G59" t="n">
-        <v>139.6666666666667</v>
+        <v>57058.396</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2799,7 +2737,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2816,22 +2754,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D60" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F60" t="n">
-        <v>625.3052</v>
+        <v>2135.0404</v>
       </c>
       <c r="G60" t="n">
-        <v>140.3333333333333</v>
+        <v>59193.4364</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2841,7 +2779,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2858,22 +2796,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D61" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F61" t="n">
-        <v>1581.5362</v>
+        <v>976.2965</v>
       </c>
       <c r="G61" t="n">
-        <v>140.6666666666667</v>
+        <v>59193.4364</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2883,7 +2821,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2900,22 +2838,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C62" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D62" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E62" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F62" t="n">
-        <v>1546.782</v>
+        <v>4441.355</v>
       </c>
       <c r="G62" t="n">
-        <v>141.6666666666667</v>
+        <v>59193.4364</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2925,7 +2863,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2942,22 +2880,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D63" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E63" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F63" t="n">
-        <v>1555</v>
+        <v>5916</v>
       </c>
       <c r="G63" t="n">
-        <v>142.3333333333333</v>
+        <v>59193.4364</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2967,7 +2905,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2984,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C64" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D64" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E64" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F64" t="n">
-        <v>1739.86</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>143.3333333333333</v>
+        <v>59193.4364</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3009,7 +2947,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3026,22 +2964,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C65" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D65" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E65" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F65" t="n">
-        <v>1880</v>
+        <v>614.0978</v>
       </c>
       <c r="G65" t="n">
-        <v>143.6666666666667</v>
+        <v>59193.4364</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3051,7 +2989,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3068,22 +3006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C66" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D66" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E66" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F66" t="n">
-        <v>11973.8137</v>
+        <v>6819.633</v>
       </c>
       <c r="G66" t="n">
-        <v>143.6666666666667</v>
+        <v>52373.8034</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3093,7 +3031,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3110,22 +3048,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D67" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E67" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F67" t="n">
-        <v>25964.7685</v>
+        <v>3417.9108</v>
       </c>
       <c r="G67" t="n">
-        <v>144.3333333333333</v>
+        <v>55791.71419999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3135,7 +3073,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3152,22 +3090,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D68" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E68" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F68" t="n">
-        <v>2379.7808</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>145</v>
+        <v>55891.71419999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3177,7 +3115,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3194,22 +3132,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C69" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D69" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E69" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F69" t="n">
-        <v>392.8296</v>
+        <v>563.372</v>
       </c>
       <c r="G69" t="n">
-        <v>145.3333333333333</v>
+        <v>55328.34219999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3219,7 +3157,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3236,22 +3174,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C70" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D70" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E70" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F70" t="n">
-        <v>264.2516</v>
+        <v>968.9999</v>
       </c>
       <c r="G70" t="n">
-        <v>144.3333333333333</v>
+        <v>56297.34209999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3261,7 +3199,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3278,22 +3216,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C71" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D71" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E71" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F71" t="n">
-        <v>4950.9878</v>
+        <v>22927.3991</v>
       </c>
       <c r="G71" t="n">
-        <v>144</v>
+        <v>79224.74119999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3303,7 +3241,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3320,22 +3258,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C72" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D72" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E72" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F72" t="n">
-        <v>4910.2825</v>
+        <v>6236.6903</v>
       </c>
       <c r="G72" t="n">
-        <v>144.3333333333333</v>
+        <v>72988.05089999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3345,7 +3283,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3362,22 +3300,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C73" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D73" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E73" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F73" t="n">
-        <v>2204</v>
+        <v>3994.3285</v>
       </c>
       <c r="G73" t="n">
-        <v>145</v>
+        <v>72988.05089999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3387,7 +3325,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3404,22 +3342,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C74" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D74" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E74" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F74" t="n">
-        <v>4413.7931</v>
+        <v>600.2479</v>
       </c>
       <c r="G74" t="n">
-        <v>145</v>
+        <v>72988.05089999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3429,7 +3367,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3446,22 +3384,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C75" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D75" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E75" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>415.0927</v>
       </c>
       <c r="G75" t="n">
-        <v>145</v>
+        <v>72988.05089999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3471,7 +3409,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3488,22 +3426,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C76" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D76" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E76" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F76" t="n">
-        <v>164.5</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>145</v>
+        <v>71988.05089999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3513,7 +3451,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3530,22 +3468,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C77" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D77" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E77" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F77" t="n">
-        <v>2687.6969</v>
+        <v>30345.4884</v>
       </c>
       <c r="G77" t="n">
-        <v>145.3333333333333</v>
+        <v>41642.56249999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3555,7 +3493,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3572,22 +3510,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C78" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D78" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E78" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F78" t="n">
-        <v>2559.6786</v>
+        <v>285.664</v>
       </c>
       <c r="G78" t="n">
-        <v>146</v>
+        <v>41928.22649999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3597,7 +3535,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3614,22 +3552,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C79" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D79" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E79" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F79" t="n">
-        <v>1.1</v>
+        <v>23051.9783</v>
       </c>
       <c r="G79" t="n">
-        <v>147</v>
+        <v>18876.24819999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3639,7 +3577,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3656,22 +3594,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C80" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D80" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E80" t="n">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F80" t="n">
-        <v>31124.2629</v>
+        <v>517.1675</v>
       </c>
       <c r="G80" t="n">
-        <v>147.6666666666667</v>
+        <v>18876.24819999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3681,7 +3619,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3698,22 +3636,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C81" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D81" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E81" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>2422.1832</v>
       </c>
       <c r="G81" t="n">
-        <v>148</v>
+        <v>18876.24819999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3723,7 +3661,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3740,22 +3678,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C82" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D82" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E82" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F82" t="n">
-        <v>8917.9398</v>
+        <v>1.17</v>
       </c>
       <c r="G82" t="n">
-        <v>146.6666666666667</v>
+        <v>18877.41819999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3765,7 +3703,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3782,22 +3720,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C83" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D83" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E83" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F83" t="n">
-        <v>260.058</v>
+        <v>409.5775</v>
       </c>
       <c r="G83" t="n">
-        <v>145.6666666666667</v>
+        <v>18467.84069999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3807,7 +3745,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3824,22 +3762,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C84" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D84" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E84" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F84" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>145.3333333333333</v>
+        <v>18468.84069999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3849,7 +3787,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3866,22 +3804,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C85" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D85" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E85" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F85" t="n">
-        <v>31832.961</v>
+        <v>1945.8257</v>
       </c>
       <c r="G85" t="n">
-        <v>145</v>
+        <v>16523.01499999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3891,7 +3829,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3908,22 +3846,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C86" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D86" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E86" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F86" t="n">
-        <v>515.4267</v>
+        <v>371.0114</v>
       </c>
       <c r="G86" t="n">
-        <v>145.3333333333333</v>
+        <v>16523.01499999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3933,7 +3871,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3950,22 +3888,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C87" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D87" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E87" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F87" t="n">
-        <v>13745.571</v>
+        <v>128.9886</v>
       </c>
       <c r="G87" t="n">
-        <v>145</v>
+        <v>16523.01499999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3975,7 +3913,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3992,22 +3930,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C88" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D88" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E88" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F88" t="n">
-        <v>2969.9934</v>
+        <v>399.4107</v>
       </c>
       <c r="G88" t="n">
-        <v>146</v>
+        <v>16123.60429999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4017,7 +3955,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4034,22 +3972,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C89" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D89" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E89" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F89" t="n">
-        <v>3496.5034</v>
+        <v>350.5791</v>
       </c>
       <c r="G89" t="n">
-        <v>146</v>
+        <v>16123.60429999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4059,7 +3997,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4076,22 +4014,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C90" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D90" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E90" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F90" t="n">
-        <v>9061.4426</v>
+        <v>3200</v>
       </c>
       <c r="G90" t="n">
-        <v>145.6666666666667</v>
+        <v>12923.60429999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4101,7 +4039,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4118,22 +4056,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C91" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D91" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E91" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F91" t="n">
-        <v>8274.2027</v>
+        <v>1600</v>
       </c>
       <c r="G91" t="n">
-        <v>145.3333333333333</v>
+        <v>11323.60429999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4143,7 +4081,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4160,22 +4098,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C92" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D92" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E92" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F92" t="n">
-        <v>3424.678</v>
+        <v>2368.3059</v>
       </c>
       <c r="G92" t="n">
-        <v>144.3333333333333</v>
+        <v>13691.91019999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4185,7 +4123,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4202,22 +4140,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C93" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D93" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E93" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>7573.5294</v>
       </c>
       <c r="G93" t="n">
-        <v>144.6666666666667</v>
+        <v>21265.43959999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4227,7 +4165,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4244,22 +4182,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C94" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D94" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E94" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F94" t="n">
-        <v>20.1575</v>
+        <v>6682.3288</v>
       </c>
       <c r="G94" t="n">
-        <v>145</v>
+        <v>27947.76839999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4269,7 +4207,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4286,22 +4224,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D95" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E95" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F95" t="n">
-        <v>13476.8682</v>
+        <v>2.6712</v>
       </c>
       <c r="G95" t="n">
-        <v>145.3333333333333</v>
+        <v>27947.76839999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4311,7 +4249,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4328,22 +4266,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C96" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D96" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E96" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F96" t="n">
-        <v>3176</v>
+        <v>672.2727</v>
       </c>
       <c r="G96" t="n">
-        <v>144.6666666666667</v>
+        <v>27275.49569999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4353,7 +4291,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4370,22 +4308,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C97" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D97" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E97" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F97" t="n">
-        <v>4829.9526</v>
+        <v>408.3914</v>
       </c>
       <c r="G97" t="n">
-        <v>144</v>
+        <v>26867.10429999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4395,7 +4333,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4412,22 +4350,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C98" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D98" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E98" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F98" t="n">
-        <v>3416.4399</v>
+        <v>17522.1565</v>
       </c>
       <c r="G98" t="n">
-        <v>144</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4437,7 +4375,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4454,22 +4392,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C99" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D99" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E99" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F99" t="n">
-        <v>17391.4588</v>
+        <v>407.6307</v>
       </c>
       <c r="G99" t="n">
-        <v>144.3333333333333</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4479,7 +4417,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4496,22 +4434,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C100" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D100" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E100" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F100" t="n">
-        <v>360.7671</v>
+        <v>78</v>
       </c>
       <c r="G100" t="n">
-        <v>145</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4521,7 +4459,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4538,22 +4476,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C101" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D101" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E101" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F101" t="n">
-        <v>4320</v>
+        <v>501.0538</v>
       </c>
       <c r="G101" t="n">
-        <v>145</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4563,7 +4501,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4580,22 +4518,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C102" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D102" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E102" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F102" t="n">
-        <v>4593.1355</v>
+        <v>6180.4159</v>
       </c>
       <c r="G102" t="n">
-        <v>144.6666666666667</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4605,7 +4543,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4622,22 +4560,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C103" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D103" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E103" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F103" t="n">
-        <v>510.3895</v>
+        <v>418.1537</v>
       </c>
       <c r="G103" t="n">
-        <v>144</v>
+        <v>44389.26079999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4647,7 +4585,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4664,22 +4602,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C104" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D104" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E104" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F104" t="n">
-        <v>1.18</v>
+        <v>2341.5389</v>
       </c>
       <c r="G104" t="n">
-        <v>144.3333333333333</v>
+        <v>42047.72189999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4689,7 +4627,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4706,22 +4644,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C105" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D105" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E105" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F105" t="n">
-        <v>755.8445</v>
+        <v>230</v>
       </c>
       <c r="G105" t="n">
-        <v>144.6666666666667</v>
+        <v>42047.72189999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4731,7 +4669,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4748,22 +4686,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C106" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D106" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E106" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F106" t="n">
-        <v>3544.9764</v>
+        <v>18.3288</v>
       </c>
       <c r="G106" t="n">
-        <v>145.3333333333333</v>
+        <v>42066.05069999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4773,7 +4711,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4790,22 +4728,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C107" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D107" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E107" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F107" t="n">
-        <v>33548.2319</v>
+        <v>269.07</v>
       </c>
       <c r="G107" t="n">
-        <v>145.6666666666667</v>
+        <v>42066.05069999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4815,7 +4753,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4832,22 +4770,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C108" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D108" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E108" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F108" t="n">
-        <v>1121.5692</v>
+        <v>386.649</v>
       </c>
       <c r="G108" t="n">
-        <v>146</v>
+        <v>41679.40169999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4857,7 +4795,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4874,22 +4812,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C109" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D109" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E109" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F109" t="n">
-        <v>391.3121</v>
+        <v>136.1129</v>
       </c>
       <c r="G109" t="n">
-        <v>146</v>
+        <v>41679.40169999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4899,7 +4837,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4916,22 +4854,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C110" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D110" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E110" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F110" t="n">
-        <v>886.1741</v>
+        <v>3860.3357</v>
       </c>
       <c r="G110" t="n">
-        <v>146</v>
+        <v>45539.73739999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4941,7 +4879,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4958,22 +4896,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C111" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D111" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E111" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F111" t="n">
-        <v>10042.3289</v>
+        <v>3469.6272</v>
       </c>
       <c r="G111" t="n">
-        <v>146</v>
+        <v>49009.36459999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4983,7 +4921,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5000,22 +4938,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C112" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D112" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E112" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F112" t="n">
-        <v>2534.2466</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>146</v>
+        <v>49008.36459999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5025,7 +4963,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5042,22 +4980,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C113" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D113" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E113" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F113" t="n">
-        <v>3038.406</v>
+        <v>39597.5209</v>
       </c>
       <c r="G113" t="n">
-        <v>146</v>
+        <v>49008.36459999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5067,7 +5005,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5084,22 +5022,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C114" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D114" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E114" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F114" t="n">
-        <v>14371.081</v>
+        <v>5847.4032</v>
       </c>
       <c r="G114" t="n">
-        <v>146.6666666666667</v>
+        <v>49008.36459999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5109,7 +5047,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5126,22 +5064,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C115" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D115" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E115" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F115" t="n">
-        <v>1740.3714</v>
+        <v>1960.7095</v>
       </c>
       <c r="G115" t="n">
-        <v>147.3333333333333</v>
+        <v>50969.07409999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5151,7 +5089,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5168,22 +5106,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C116" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D116" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E116" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F116" t="n">
-        <v>134.2763</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>148</v>
+        <v>50969.07409999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5193,7 +5131,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5210,76 +5148,80 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C117" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D117" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E117" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F117" t="n">
-        <v>640</v>
+        <v>628.9399</v>
       </c>
       <c r="G117" t="n">
-        <v>148</v>
+        <v>50969.07409999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>1.099477611940299</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1.037593984962406</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C118" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D118" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E118" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F118" t="n">
-        <v>3889.306</v>
+        <v>2950.7299</v>
       </c>
       <c r="G118" t="n">
-        <v>147.3333333333333</v>
+        <v>48018.34419999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>131</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5290,32 +5232,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C119" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D119" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E119" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F119" t="n">
-        <v>471.3025</v>
+        <v>3258.3958</v>
       </c>
       <c r="G119" t="n">
-        <v>147</v>
+        <v>48018.34419999998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>131</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5326,32 +5274,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C120" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D120" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E120" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F120" t="n">
-        <v>646.3108</v>
+        <v>913.775</v>
       </c>
       <c r="G120" t="n">
-        <v>147</v>
+        <v>48018.34419999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>131</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5362,32 +5316,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C121" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D121" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E121" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F121" t="n">
-        <v>1931.0402</v>
+        <v>482.93</v>
       </c>
       <c r="G121" t="n">
-        <v>148</v>
+        <v>48501.27419999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>131</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5398,22 +5358,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C122" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D122" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E122" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F122" t="n">
-        <v>18533.8582</v>
+        <v>484.5083</v>
       </c>
       <c r="G122" t="n">
-        <v>148.6666666666667</v>
+        <v>48501.27419999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5422,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>131</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5434,32 +5400,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C123" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D123" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E123" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F123" t="n">
-        <v>7028.0872</v>
+        <v>616.2546</v>
       </c>
       <c r="G123" t="n">
-        <v>149.6666666666667</v>
+        <v>48501.27419999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>131</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5470,32 +5442,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C124" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D124" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E124" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F124" t="n">
-        <v>1222.3179</v>
+        <v>1108.5634</v>
       </c>
       <c r="G124" t="n">
-        <v>150.3333333333333</v>
+        <v>48501.27419999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>131</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5506,32 +5484,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C125" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D125" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E125" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F125" t="n">
-        <v>22</v>
+        <v>670.663</v>
       </c>
       <c r="G125" t="n">
-        <v>151</v>
+        <v>47830.61119999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>131</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5542,32 +5526,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C126" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D126" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E126" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F126" t="n">
-        <v>50188.5164</v>
+        <v>3876.6597</v>
       </c>
       <c r="G126" t="n">
-        <v>151</v>
+        <v>51707.27089999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>131</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5578,32 +5568,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C127" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D127" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E127" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F127" t="n">
-        <v>37752.6393</v>
+        <v>1120</v>
       </c>
       <c r="G127" t="n">
-        <v>150.6666666666667</v>
+        <v>52827.27089999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>131</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5614,32 +5610,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C128" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D128" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E128" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F128" t="n">
-        <v>3500.6701</v>
+        <v>143.884</v>
       </c>
       <c r="G128" t="n">
-        <v>150.3333333333333</v>
+        <v>52827.27089999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>131</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5650,32 +5652,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C129" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D129" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E129" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F129" t="n">
-        <v>11935.7138</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>150.6666666666667</v>
+        <v>53077.27089999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>131</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5686,32 +5694,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C130" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D130" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E130" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F130" t="n">
-        <v>1436.4502</v>
+        <v>2887.8312</v>
       </c>
       <c r="G130" t="n">
-        <v>151.6666666666667</v>
+        <v>53077.27089999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>131</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5722,32 +5736,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C131" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D131" t="n">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E131" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F131" t="n">
-        <v>8110.5531</v>
+        <v>625.3052</v>
       </c>
       <c r="G131" t="n">
-        <v>152</v>
+        <v>53702.57609999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>131</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5758,32 +5778,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C132" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D132" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E132" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F132" t="n">
-        <v>1266.5338</v>
+        <v>1581.5362</v>
       </c>
       <c r="G132" t="n">
-        <v>152.6666666666667</v>
+        <v>53702.57609999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>131</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5794,32 +5820,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C133" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D133" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E133" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F133" t="n">
-        <v>10879.259</v>
+        <v>1546.782</v>
       </c>
       <c r="G133" t="n">
-        <v>152.3333333333333</v>
+        <v>55249.35809999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>131</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5830,32 +5862,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C134" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D134" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E134" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F134" t="n">
-        <v>25213.1837</v>
+        <v>1555</v>
       </c>
       <c r="G134" t="n">
-        <v>152</v>
+        <v>55249.35809999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>131</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5866,32 +5904,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C135" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D135" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E135" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F135" t="n">
-        <v>3366.198</v>
+        <v>1739.86</v>
       </c>
       <c r="G135" t="n">
-        <v>150.6666666666667</v>
+        <v>56989.21809999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>131</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5902,32 +5946,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C136" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D136" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E136" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F136" t="n">
-        <v>3190.6439</v>
+        <v>1880</v>
       </c>
       <c r="G136" t="n">
-        <v>149</v>
+        <v>56989.21809999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>131</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5938,32 +5988,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C137" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D137" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E137" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F137" t="n">
-        <v>1501.0037</v>
+        <v>11973.8137</v>
       </c>
       <c r="G137" t="n">
-        <v>149.6666666666667</v>
+        <v>45015.40439999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>131</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5974,32 +6030,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C138" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D138" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E138" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>25964.7685</v>
       </c>
       <c r="G138" t="n">
-        <v>150.3333333333333</v>
+        <v>70980.17289999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>131</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6010,32 +6072,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C139" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D139" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E139" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F139" t="n">
-        <v>9821.133099999999</v>
+        <v>2379.7808</v>
       </c>
       <c r="G139" t="n">
-        <v>151.3333333333333</v>
+        <v>70980.17289999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>131</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6046,32 +6114,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C140" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D140" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E140" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F140" t="n">
-        <v>42938.7896</v>
+        <v>392.8296</v>
       </c>
       <c r="G140" t="n">
-        <v>150.6666666666667</v>
+        <v>70587.34329999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>131</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6082,32 +6156,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C141" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D141" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E141" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F141" t="n">
-        <v>331.8447</v>
+        <v>264.2516</v>
       </c>
       <c r="G141" t="n">
-        <v>149.6666666666667</v>
+        <v>70323.09169999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>131</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6118,22 +6198,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C142" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D142" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E142" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F142" t="n">
-        <v>4004.4369</v>
+        <v>4950.9878</v>
       </c>
       <c r="G142" t="n">
-        <v>149.3333333333333</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6142,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>131</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6154,22 +6240,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C143" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D143" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E143" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F143" t="n">
-        <v>292.3972</v>
+        <v>4910.2825</v>
       </c>
       <c r="G143" t="n">
-        <v>149</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6178,8 +6264,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>131</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6190,22 +6282,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C144" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D144" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E144" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F144" t="n">
-        <v>5650.6855</v>
+        <v>2204</v>
       </c>
       <c r="G144" t="n">
-        <v>149.3333333333333</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6214,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>131</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6226,22 +6324,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C145" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D145" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E145" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F145" t="n">
-        <v>1131.408</v>
+        <v>4413.7931</v>
       </c>
       <c r="G145" t="n">
-        <v>149.6666666666667</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6250,8 +6348,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>131</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6262,64 +6366,72 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D146" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E146" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>149.6666666666667</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>131</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>1.101870229007634</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1.030769230769231</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D147" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E147" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F147" t="n">
-        <v>3598.0157</v>
+        <v>164.5</v>
       </c>
       <c r="G147" t="n">
-        <v>148.6666666666667</v>
+        <v>75274.07949999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6334,28 +6446,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F148" t="n">
-        <v>2191.714</v>
+        <v>2687.6969</v>
       </c>
       <c r="G148" t="n">
-        <v>147.6666666666667</v>
+        <v>77961.77639999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6370,7 +6482,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149" t="n">
         <v>147</v>
@@ -6379,19 +6491,19 @@
         <v>147</v>
       </c>
       <c r="E149" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F149" t="n">
-        <v>22266.8955</v>
+        <v>2559.6786</v>
       </c>
       <c r="G149" t="n">
-        <v>147</v>
+        <v>80521.45499999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6406,28 +6518,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D150" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F150" t="n">
-        <v>1600</v>
+        <v>1.1</v>
       </c>
       <c r="G150" t="n">
-        <v>146.6666666666667</v>
+        <v>80522.55499999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6442,28 +6554,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C151" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D151" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F151" t="n">
-        <v>2520.7177</v>
+        <v>31124.2629</v>
       </c>
       <c r="G151" t="n">
-        <v>146</v>
+        <v>80522.55499999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6478,28 +6590,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C152" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D152" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E152" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F152" t="n">
-        <v>1609.1953</v>
+        <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>145.3333333333333</v>
+        <v>80522.55499999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6514,28 +6626,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>147</v>
+      </c>
+      <c r="C153" t="n">
         <v>144</v>
       </c>
-      <c r="C153" t="n">
-        <v>145</v>
-      </c>
       <c r="D153" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E153" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F153" t="n">
-        <v>7614.967</v>
+        <v>8917.9398</v>
       </c>
       <c r="G153" t="n">
-        <v>145</v>
+        <v>71604.6152</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6545,6 +6657,2562 @@
       </c>
       <c r="N153" t="inlineStr"/>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>145</v>
+      </c>
+      <c r="C154" t="n">
+        <v>145</v>
+      </c>
+      <c r="D154" t="n">
+        <v>145</v>
+      </c>
+      <c r="E154" t="n">
+        <v>145</v>
+      </c>
+      <c r="F154" t="n">
+        <v>260.058</v>
+      </c>
+      <c r="G154" t="n">
+        <v>71864.6732</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>147</v>
+      </c>
+      <c r="C155" t="n">
+        <v>147</v>
+      </c>
+      <c r="D155" t="n">
+        <v>147</v>
+      </c>
+      <c r="E155" t="n">
+        <v>147</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>71865.78320000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>145</v>
+      </c>
+      <c r="C156" t="n">
+        <v>143</v>
+      </c>
+      <c r="D156" t="n">
+        <v>145</v>
+      </c>
+      <c r="E156" t="n">
+        <v>141</v>
+      </c>
+      <c r="F156" t="n">
+        <v>31832.961</v>
+      </c>
+      <c r="G156" t="n">
+        <v>40032.82220000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>145</v>
+      </c>
+      <c r="C157" t="n">
+        <v>146</v>
+      </c>
+      <c r="D157" t="n">
+        <v>146</v>
+      </c>
+      <c r="E157" t="n">
+        <v>145</v>
+      </c>
+      <c r="F157" t="n">
+        <v>515.4267</v>
+      </c>
+      <c r="G157" t="n">
+        <v>40548.24890000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>146</v>
+      </c>
+      <c r="C158" t="n">
+        <v>146</v>
+      </c>
+      <c r="D158" t="n">
+        <v>146</v>
+      </c>
+      <c r="E158" t="n">
+        <v>145</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13745.571</v>
+      </c>
+      <c r="G158" t="n">
+        <v>40548.24890000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>146</v>
+      </c>
+      <c r="C159" t="n">
+        <v>146</v>
+      </c>
+      <c r="D159" t="n">
+        <v>146</v>
+      </c>
+      <c r="E159" t="n">
+        <v>146</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2969.9934</v>
+      </c>
+      <c r="G159" t="n">
+        <v>40548.24890000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>146</v>
+      </c>
+      <c r="C160" t="n">
+        <v>146</v>
+      </c>
+      <c r="D160" t="n">
+        <v>146</v>
+      </c>
+      <c r="E160" t="n">
+        <v>146</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3496.5034</v>
+      </c>
+      <c r="G160" t="n">
+        <v>40548.24890000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>145</v>
+      </c>
+      <c r="C161" t="n">
+        <v>145</v>
+      </c>
+      <c r="D161" t="n">
+        <v>145</v>
+      </c>
+      <c r="E161" t="n">
+        <v>145</v>
+      </c>
+      <c r="F161" t="n">
+        <v>9061.4426</v>
+      </c>
+      <c r="G161" t="n">
+        <v>31486.8063</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>145</v>
+      </c>
+      <c r="C162" t="n">
+        <v>145</v>
+      </c>
+      <c r="D162" t="n">
+        <v>145</v>
+      </c>
+      <c r="E162" t="n">
+        <v>145</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8274.2027</v>
+      </c>
+      <c r="G162" t="n">
+        <v>31486.8063</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>143</v>
+      </c>
+      <c r="C163" t="n">
+        <v>143</v>
+      </c>
+      <c r="D163" t="n">
+        <v>143</v>
+      </c>
+      <c r="E163" t="n">
+        <v>142</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3424.678</v>
+      </c>
+      <c r="G163" t="n">
+        <v>28062.1283</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>146</v>
+      </c>
+      <c r="C164" t="n">
+        <v>146</v>
+      </c>
+      <c r="D164" t="n">
+        <v>146</v>
+      </c>
+      <c r="E164" t="n">
+        <v>146</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>28063.1283</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>146</v>
+      </c>
+      <c r="C165" t="n">
+        <v>146</v>
+      </c>
+      <c r="D165" t="n">
+        <v>146</v>
+      </c>
+      <c r="E165" t="n">
+        <v>146</v>
+      </c>
+      <c r="F165" t="n">
+        <v>20.1575</v>
+      </c>
+      <c r="G165" t="n">
+        <v>28063.1283</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>144</v>
+      </c>
+      <c r="C166" t="n">
+        <v>144</v>
+      </c>
+      <c r="D166" t="n">
+        <v>144</v>
+      </c>
+      <c r="E166" t="n">
+        <v>142</v>
+      </c>
+      <c r="F166" t="n">
+        <v>13476.8682</v>
+      </c>
+      <c r="G166" t="n">
+        <v>14586.2601</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>144</v>
+      </c>
+      <c r="C167" t="n">
+        <v>144</v>
+      </c>
+      <c r="D167" t="n">
+        <v>145</v>
+      </c>
+      <c r="E167" t="n">
+        <v>144</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3176</v>
+      </c>
+      <c r="G167" t="n">
+        <v>14586.2601</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>144</v>
+      </c>
+      <c r="C168" t="n">
+        <v>144</v>
+      </c>
+      <c r="D168" t="n">
+        <v>144</v>
+      </c>
+      <c r="E168" t="n">
+        <v>143</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4829.9526</v>
+      </c>
+      <c r="G168" t="n">
+        <v>14586.2601</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>143</v>
+      </c>
+      <c r="C169" t="n">
+        <v>144</v>
+      </c>
+      <c r="D169" t="n">
+        <v>144</v>
+      </c>
+      <c r="E169" t="n">
+        <v>143</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3416.4399</v>
+      </c>
+      <c r="G169" t="n">
+        <v>14586.2601</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>144</v>
+      </c>
+      <c r="C170" t="n">
+        <v>145</v>
+      </c>
+      <c r="D170" t="n">
+        <v>146</v>
+      </c>
+      <c r="E170" t="n">
+        <v>144</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17391.4588</v>
+      </c>
+      <c r="G170" t="n">
+        <v>31977.7189</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>145</v>
+      </c>
+      <c r="C171" t="n">
+        <v>146</v>
+      </c>
+      <c r="D171" t="n">
+        <v>146</v>
+      </c>
+      <c r="E171" t="n">
+        <v>145</v>
+      </c>
+      <c r="F171" t="n">
+        <v>360.7671</v>
+      </c>
+      <c r="G171" t="n">
+        <v>32338.486</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>144</v>
+      </c>
+      <c r="C172" t="n">
+        <v>144</v>
+      </c>
+      <c r="D172" t="n">
+        <v>144</v>
+      </c>
+      <c r="E172" t="n">
+        <v>144</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4320</v>
+      </c>
+      <c r="G172" t="n">
+        <v>28018.486</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>144</v>
+      </c>
+      <c r="C173" t="n">
+        <v>144</v>
+      </c>
+      <c r="D173" t="n">
+        <v>144</v>
+      </c>
+      <c r="E173" t="n">
+        <v>144</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4593.1355</v>
+      </c>
+      <c r="G173" t="n">
+        <v>28018.486</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>144</v>
+      </c>
+      <c r="C174" t="n">
+        <v>144</v>
+      </c>
+      <c r="D174" t="n">
+        <v>144</v>
+      </c>
+      <c r="E174" t="n">
+        <v>144</v>
+      </c>
+      <c r="F174" t="n">
+        <v>510.3895</v>
+      </c>
+      <c r="G174" t="n">
+        <v>28018.486</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>145</v>
+      </c>
+      <c r="C175" t="n">
+        <v>145</v>
+      </c>
+      <c r="D175" t="n">
+        <v>145</v>
+      </c>
+      <c r="E175" t="n">
+        <v>145</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G175" t="n">
+        <v>28019.666</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>145</v>
+      </c>
+      <c r="C176" t="n">
+        <v>145</v>
+      </c>
+      <c r="D176" t="n">
+        <v>145</v>
+      </c>
+      <c r="E176" t="n">
+        <v>145</v>
+      </c>
+      <c r="F176" t="n">
+        <v>755.8445</v>
+      </c>
+      <c r="G176" t="n">
+        <v>28019.666</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>145</v>
+      </c>
+      <c r="C177" t="n">
+        <v>146</v>
+      </c>
+      <c r="D177" t="n">
+        <v>146</v>
+      </c>
+      <c r="E177" t="n">
+        <v>145</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3544.9764</v>
+      </c>
+      <c r="G177" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>146</v>
+      </c>
+      <c r="C178" t="n">
+        <v>146</v>
+      </c>
+      <c r="D178" t="n">
+        <v>146</v>
+      </c>
+      <c r="E178" t="n">
+        <v>146</v>
+      </c>
+      <c r="F178" t="n">
+        <v>33548.2319</v>
+      </c>
+      <c r="G178" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>146</v>
+      </c>
+      <c r="C179" t="n">
+        <v>146</v>
+      </c>
+      <c r="D179" t="n">
+        <v>146</v>
+      </c>
+      <c r="E179" t="n">
+        <v>146</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1121.5692</v>
+      </c>
+      <c r="G179" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>148</v>
+      </c>
+      <c r="C180" t="n">
+        <v>146</v>
+      </c>
+      <c r="D180" t="n">
+        <v>148</v>
+      </c>
+      <c r="E180" t="n">
+        <v>146</v>
+      </c>
+      <c r="F180" t="n">
+        <v>391.3121</v>
+      </c>
+      <c r="G180" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>146</v>
+      </c>
+      <c r="C181" t="n">
+        <v>146</v>
+      </c>
+      <c r="D181" t="n">
+        <v>146</v>
+      </c>
+      <c r="E181" t="n">
+        <v>146</v>
+      </c>
+      <c r="F181" t="n">
+        <v>886.1741</v>
+      </c>
+      <c r="G181" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>146</v>
+      </c>
+      <c r="C182" t="n">
+        <v>146</v>
+      </c>
+      <c r="D182" t="n">
+        <v>148</v>
+      </c>
+      <c r="E182" t="n">
+        <v>146</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10042.3289</v>
+      </c>
+      <c r="G182" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>146</v>
+      </c>
+      <c r="C183" t="n">
+        <v>146</v>
+      </c>
+      <c r="D183" t="n">
+        <v>146</v>
+      </c>
+      <c r="E183" t="n">
+        <v>146</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2534.2466</v>
+      </c>
+      <c r="G183" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>146</v>
+      </c>
+      <c r="C184" t="n">
+        <v>146</v>
+      </c>
+      <c r="D184" t="n">
+        <v>146</v>
+      </c>
+      <c r="E184" t="n">
+        <v>146</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3038.406</v>
+      </c>
+      <c r="G184" t="n">
+        <v>31564.6424</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>148</v>
+      </c>
+      <c r="C185" t="n">
+        <v>148</v>
+      </c>
+      <c r="D185" t="n">
+        <v>148</v>
+      </c>
+      <c r="E185" t="n">
+        <v>148</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14371.081</v>
+      </c>
+      <c r="G185" t="n">
+        <v>45935.7234</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>148</v>
+      </c>
+      <c r="C186" t="n">
+        <v>148</v>
+      </c>
+      <c r="D186" t="n">
+        <v>148</v>
+      </c>
+      <c r="E186" t="n">
+        <v>148</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1740.3714</v>
+      </c>
+      <c r="G186" t="n">
+        <v>45935.7234</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>148</v>
+      </c>
+      <c r="C187" t="n">
+        <v>148</v>
+      </c>
+      <c r="D187" t="n">
+        <v>148</v>
+      </c>
+      <c r="E187" t="n">
+        <v>148</v>
+      </c>
+      <c r="F187" t="n">
+        <v>134.2763</v>
+      </c>
+      <c r="G187" t="n">
+        <v>45935.7234</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>148</v>
+      </c>
+      <c r="C188" t="n">
+        <v>148</v>
+      </c>
+      <c r="D188" t="n">
+        <v>148</v>
+      </c>
+      <c r="E188" t="n">
+        <v>148</v>
+      </c>
+      <c r="F188" t="n">
+        <v>640</v>
+      </c>
+      <c r="G188" t="n">
+        <v>45935.7234</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>147</v>
+      </c>
+      <c r="C189" t="n">
+        <v>146</v>
+      </c>
+      <c r="D189" t="n">
+        <v>147</v>
+      </c>
+      <c r="E189" t="n">
+        <v>146</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3889.306</v>
+      </c>
+      <c r="G189" t="n">
+        <v>42046.41740000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>147</v>
+      </c>
+      <c r="C190" t="n">
+        <v>147</v>
+      </c>
+      <c r="D190" t="n">
+        <v>147</v>
+      </c>
+      <c r="E190" t="n">
+        <v>147</v>
+      </c>
+      <c r="F190" t="n">
+        <v>471.3025</v>
+      </c>
+      <c r="G190" t="n">
+        <v>42517.7199</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>148</v>
+      </c>
+      <c r="C191" t="n">
+        <v>148</v>
+      </c>
+      <c r="D191" t="n">
+        <v>148</v>
+      </c>
+      <c r="E191" t="n">
+        <v>148</v>
+      </c>
+      <c r="F191" t="n">
+        <v>646.3108</v>
+      </c>
+      <c r="G191" t="n">
+        <v>43164.0307</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>148</v>
+      </c>
+      <c r="C192" t="n">
+        <v>149</v>
+      </c>
+      <c r="D192" t="n">
+        <v>149</v>
+      </c>
+      <c r="E192" t="n">
+        <v>148</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1931.0402</v>
+      </c>
+      <c r="G192" t="n">
+        <v>45095.07090000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>149</v>
+      </c>
+      <c r="C193" t="n">
+        <v>149</v>
+      </c>
+      <c r="D193" t="n">
+        <v>150</v>
+      </c>
+      <c r="E193" t="n">
+        <v>149</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18533.8582</v>
+      </c>
+      <c r="G193" t="n">
+        <v>45095.07090000001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>149</v>
+      </c>
+      <c r="C194" t="n">
+        <v>151</v>
+      </c>
+      <c r="D194" t="n">
+        <v>151</v>
+      </c>
+      <c r="E194" t="n">
+        <v>149</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7028.0872</v>
+      </c>
+      <c r="G194" t="n">
+        <v>52123.15810000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>151</v>
+      </c>
+      <c r="C195" t="n">
+        <v>151</v>
+      </c>
+      <c r="D195" t="n">
+        <v>151</v>
+      </c>
+      <c r="E195" t="n">
+        <v>149</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1222.3179</v>
+      </c>
+      <c r="G195" t="n">
+        <v>52123.15810000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>151</v>
+      </c>
+      <c r="C196" t="n">
+        <v>151</v>
+      </c>
+      <c r="D196" t="n">
+        <v>151</v>
+      </c>
+      <c r="E196" t="n">
+        <v>151</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+      <c r="G196" t="n">
+        <v>52123.15810000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>151</v>
+      </c>
+      <c r="C197" t="n">
+        <v>151</v>
+      </c>
+      <c r="D197" t="n">
+        <v>151</v>
+      </c>
+      <c r="E197" t="n">
+        <v>151</v>
+      </c>
+      <c r="F197" t="n">
+        <v>50188.5164</v>
+      </c>
+      <c r="G197" t="n">
+        <v>52123.15810000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>150</v>
+      </c>
+      <c r="C198" t="n">
+        <v>150</v>
+      </c>
+      <c r="D198" t="n">
+        <v>152</v>
+      </c>
+      <c r="E198" t="n">
+        <v>149</v>
+      </c>
+      <c r="F198" t="n">
+        <v>37752.6393</v>
+      </c>
+      <c r="G198" t="n">
+        <v>14370.51880000001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>152</v>
+      </c>
+      <c r="C199" t="n">
+        <v>150</v>
+      </c>
+      <c r="D199" t="n">
+        <v>152</v>
+      </c>
+      <c r="E199" t="n">
+        <v>150</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3500.6701</v>
+      </c>
+      <c r="G199" t="n">
+        <v>14370.51880000001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>152</v>
+      </c>
+      <c r="C200" t="n">
+        <v>152</v>
+      </c>
+      <c r="D200" t="n">
+        <v>152</v>
+      </c>
+      <c r="E200" t="n">
+        <v>150</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11935.7138</v>
+      </c>
+      <c r="G200" t="n">
+        <v>26306.2326</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>152</v>
+      </c>
+      <c r="C201" t="n">
+        <v>153</v>
+      </c>
+      <c r="D201" t="n">
+        <v>153</v>
+      </c>
+      <c r="E201" t="n">
+        <v>152</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1436.4502</v>
+      </c>
+      <c r="G201" t="n">
+        <v>27742.6828</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>153</v>
+      </c>
+      <c r="C202" t="n">
+        <v>151</v>
+      </c>
+      <c r="D202" t="n">
+        <v>153</v>
+      </c>
+      <c r="E202" t="n">
+        <v>151</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8110.5531</v>
+      </c>
+      <c r="G202" t="n">
+        <v>19632.1297</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>153</v>
+      </c>
+      <c r="C203" t="n">
+        <v>154</v>
+      </c>
+      <c r="D203" t="n">
+        <v>154</v>
+      </c>
+      <c r="E203" t="n">
+        <v>152</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1266.5338</v>
+      </c>
+      <c r="G203" t="n">
+        <v>20898.6635</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>152</v>
+      </c>
+      <c r="C204" t="n">
+        <v>152</v>
+      </c>
+      <c r="D204" t="n">
+        <v>153</v>
+      </c>
+      <c r="E204" t="n">
+        <v>152</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10879.259</v>
+      </c>
+      <c r="G204" t="n">
+        <v>10019.4045</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>152</v>
+      </c>
+      <c r="C205" t="n">
+        <v>150</v>
+      </c>
+      <c r="D205" t="n">
+        <v>153</v>
+      </c>
+      <c r="E205" t="n">
+        <v>150</v>
+      </c>
+      <c r="F205" t="n">
+        <v>25213.1837</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-15193.7792</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>150</v>
+      </c>
+      <c r="C206" t="n">
+        <v>150</v>
+      </c>
+      <c r="D206" t="n">
+        <v>150</v>
+      </c>
+      <c r="E206" t="n">
+        <v>150</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3366.198</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-15193.7792</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>147</v>
+      </c>
+      <c r="C207" t="n">
+        <v>147</v>
+      </c>
+      <c r="D207" t="n">
+        <v>147</v>
+      </c>
+      <c r="E207" t="n">
+        <v>147</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3190.6439</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-18384.4231</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>147</v>
+      </c>
+      <c r="C208" t="n">
+        <v>152</v>
+      </c>
+      <c r="D208" t="n">
+        <v>152</v>
+      </c>
+      <c r="E208" t="n">
+        <v>147</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1501.0037</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-16883.4194</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>152</v>
+      </c>
+      <c r="C209" t="n">
+        <v>152</v>
+      </c>
+      <c r="D209" t="n">
+        <v>152</v>
+      </c>
+      <c r="E209" t="n">
+        <v>152</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-16883.4194</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>151</v>
+      </c>
+      <c r="C210" t="n">
+        <v>150</v>
+      </c>
+      <c r="D210" t="n">
+        <v>151</v>
+      </c>
+      <c r="E210" t="n">
+        <v>147</v>
+      </c>
+      <c r="F210" t="n">
+        <v>9821.133099999999</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-26704.5525</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>150</v>
+      </c>
+      <c r="C211" t="n">
+        <v>150</v>
+      </c>
+      <c r="D211" t="n">
+        <v>150</v>
+      </c>
+      <c r="E211" t="n">
+        <v>148</v>
+      </c>
+      <c r="F211" t="n">
+        <v>42938.7896</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-26704.5525</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>149</v>
+      </c>
+      <c r="C212" t="n">
+        <v>149</v>
+      </c>
+      <c r="D212" t="n">
+        <v>149</v>
+      </c>
+      <c r="E212" t="n">
+        <v>149</v>
+      </c>
+      <c r="F212" t="n">
+        <v>331.8447</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-27036.3972</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>150</v>
+      </c>
+      <c r="C213" t="n">
+        <v>149</v>
+      </c>
+      <c r="D213" t="n">
+        <v>150</v>
+      </c>
+      <c r="E213" t="n">
+        <v>149</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4004.4369</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-27036.3972</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>149</v>
+      </c>
+      <c r="C214" t="n">
+        <v>149</v>
+      </c>
+      <c r="D214" t="n">
+        <v>149</v>
+      </c>
+      <c r="E214" t="n">
+        <v>149</v>
+      </c>
+      <c r="F214" t="n">
+        <v>292.3972</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-27036.3972</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>149</v>
+      </c>
+      <c r="C215" t="n">
+        <v>150</v>
+      </c>
+      <c r="D215" t="n">
+        <v>150</v>
+      </c>
+      <c r="E215" t="n">
+        <v>149</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5650.6855</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-21385.7117</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>150</v>
+      </c>
+      <c r="C216" t="n">
+        <v>150</v>
+      </c>
+      <c r="D216" t="n">
+        <v>150</v>
+      </c>
+      <c r="E216" t="n">
+        <v>150</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1131.408</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-21385.7117</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>149</v>
+      </c>
+      <c r="C217" t="n">
+        <v>149</v>
+      </c>
+      <c r="D217" t="n">
+        <v>149</v>
+      </c>
+      <c r="E217" t="n">
+        <v>149</v>
+      </c>
+      <c r="F217" t="n">
+        <v>300</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-21685.7117</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>147</v>
+      </c>
+      <c r="C218" t="n">
+        <v>147</v>
+      </c>
+      <c r="D218" t="n">
+        <v>147</v>
+      </c>
+      <c r="E218" t="n">
+        <v>147</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3598.0157</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-25283.7274</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>147</v>
+      </c>
+      <c r="C219" t="n">
+        <v>147</v>
+      </c>
+      <c r="D219" t="n">
+        <v>147</v>
+      </c>
+      <c r="E219" t="n">
+        <v>147</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2191.714</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-25283.7274</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>147</v>
+      </c>
+      <c r="C220" t="n">
+        <v>147</v>
+      </c>
+      <c r="D220" t="n">
+        <v>147</v>
+      </c>
+      <c r="E220" t="n">
+        <v>147</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22266.8955</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-25283.7274</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>146</v>
+      </c>
+      <c r="C221" t="n">
+        <v>146</v>
+      </c>
+      <c r="D221" t="n">
+        <v>146</v>
+      </c>
+      <c r="E221" t="n">
+        <v>146</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-26883.7274</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>146</v>
+      </c>
+      <c r="C222" t="n">
+        <v>145</v>
+      </c>
+      <c r="D222" t="n">
+        <v>146</v>
+      </c>
+      <c r="E222" t="n">
+        <v>145</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2520.7177</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-29404.4451</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>145</v>
+      </c>
+      <c r="C223" t="n">
+        <v>145</v>
+      </c>
+      <c r="D223" t="n">
+        <v>145</v>
+      </c>
+      <c r="E223" t="n">
+        <v>145</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1609.1953</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-29404.4451</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>144</v>
+      </c>
+      <c r="C224" t="n">
+        <v>145</v>
+      </c>
+      <c r="D224" t="n">
+        <v>148</v>
+      </c>
+      <c r="E224" t="n">
+        <v>143</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7614.967</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-29404.4451</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,22 +1243,15 @@
         <v>-1207.891799999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>131</v>
-      </c>
-      <c r="K26" t="n">
-        <v>131</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1360,26 +1276,15 @@
         <v>-10314.9724</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>130</v>
-      </c>
-      <c r="K27" t="n">
-        <v>131</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1404,26 +1309,15 @@
         <v>-9954.070399999995</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>129</v>
-      </c>
-      <c r="K28" t="n">
-        <v>131</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,26 +1342,15 @@
         <v>-9943.639999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>132</v>
-      </c>
-      <c r="K29" t="n">
-        <v>131</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,26 +1375,15 @@
         <v>-10251.8513</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>133</v>
-      </c>
-      <c r="K30" t="n">
-        <v>131</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1536,26 +1408,15 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>131</v>
-      </c>
-      <c r="K31" t="n">
-        <v>131</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1580,26 +1441,15 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>133</v>
-      </c>
-      <c r="K32" t="n">
-        <v>131</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1624,26 +1474,15 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>133</v>
-      </c>
-      <c r="K33" t="n">
-        <v>131</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1668,26 +1507,15 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>133</v>
-      </c>
-      <c r="K34" t="n">
-        <v>131</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1712,26 +1540,15 @@
         <v>-13674.8877</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>133</v>
-      </c>
-      <c r="K35" t="n">
-        <v>131</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1756,26 +1573,15 @@
         <v>-13674.8877</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>130</v>
-      </c>
-      <c r="K36" t="n">
-        <v>131</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1802,22 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>131</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,22 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>131</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1886,22 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>131</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,22 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>131</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1970,22 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>131</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,22 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>131</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2054,22 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>131</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,22 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>131</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2138,22 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>131</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2178,24 +1903,19 @@
         <v>-8453.206299999996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
         <v>131</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>131</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2220,24 +1940,23 @@
         <v>-8453.206299999996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+        <v>130</v>
+      </c>
+      <c r="J47" t="n">
         <v>131</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,26 +1981,23 @@
         <v>-284.2062999999962</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J48" t="n">
-        <v>130</v>
-      </c>
-      <c r="K48" t="n">
         <v>131</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2306,26 +2022,19 @@
         <v>-636.0300999999962</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J49" t="n">
         <v>133</v>
       </c>
-      <c r="K49" t="n">
-        <v>131</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2350,26 +2059,23 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J50" t="n">
-        <v>132</v>
-      </c>
-      <c r="K50" t="n">
-        <v>131</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2394,24 +2100,23 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>131</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>134</v>
+      </c>
+      <c r="J51" t="n">
+        <v>133</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2438,22 +2143,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>131</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2480,22 +2176,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>131</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2522,22 +2209,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>131</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2564,22 +2242,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>131</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2606,22 +2275,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>131</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2648,22 +2308,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>131</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2688,24 +2339,15 @@
         <v>57058.396</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>131</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2732,22 +2374,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>131</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2774,22 +2407,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>131</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2816,22 +2440,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>131</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2858,22 +2473,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>131</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2900,22 +2506,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>131</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,22 +2539,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>131</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,24 +2570,15 @@
         <v>59193.4364</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>131</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3024,24 +2603,15 @@
         <v>52373.8034</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>131</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3066,24 +2636,15 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>131</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3110,22 +2671,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>131</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3150,24 +2702,15 @@
         <v>55328.34219999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>131</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3192,24 +2735,15 @@
         <v>56297.34209999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>131</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,24 +2768,15 @@
         <v>79224.74119999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>131</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3276,24 +2801,15 @@
         <v>72988.05089999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>131</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3318,24 +2834,15 @@
         <v>72988.05089999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>131</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3362,22 +2869,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>131</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3404,22 +2902,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>131</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3446,22 +2935,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>131</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3488,22 +2968,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>131</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3528,24 +2999,15 @@
         <v>41928.22649999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>131</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3570,24 +3032,15 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>131</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3612,24 +3065,15 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>131</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3654,24 +3098,15 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>131</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3698,22 +3133,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>131</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3740,22 +3166,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>131</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3782,22 +3199,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>131</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3824,22 +3232,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>131</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3866,22 +3265,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>131</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3908,22 +3298,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>131</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3950,22 +3331,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>131</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3990,24 +3362,15 @@
         <v>16123.60429999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>131</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4034,22 +3397,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>131</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4076,22 +3430,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>131</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4118,22 +3463,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>131</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4160,22 +3496,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>131</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4202,22 +3529,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>131</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4244,22 +3562,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>131</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4284,24 +3593,15 @@
         <v>27275.49569999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>131</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4326,24 +3626,15 @@
         <v>26867.10429999998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>131</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4370,22 +3661,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>131</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4412,22 +3694,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>131</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4454,22 +3727,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>131</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4496,22 +3760,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>131</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4538,22 +3793,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>131</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4580,22 +3826,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>131</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4622,22 +3859,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>131</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4664,22 +3892,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>131</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4706,22 +3925,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>131</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4748,22 +3958,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>131</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4790,22 +3991,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>131</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4832,22 +4024,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>131</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4874,22 +4057,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>131</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4916,22 +4090,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>131</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4958,22 +4123,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>131</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5000,22 +4156,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>131</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5042,22 +4189,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>131</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5084,22 +4222,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>131</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5126,22 +4255,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>131</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5168,22 +4288,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>131</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5210,22 +4321,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>131</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5252,22 +4354,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>131</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5294,22 +4387,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>131</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5336,22 +4420,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>131</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5378,22 +4453,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>131</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5420,22 +4486,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>131</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5462,22 +4519,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>131</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5504,22 +4552,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>131</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5546,22 +4585,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>131</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5588,22 +4618,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>131</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5630,22 +4651,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>131</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5672,22 +4684,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>131</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5714,22 +4717,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>131</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5756,22 +4750,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>131</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5796,24 +4781,15 @@
         <v>53702.57609999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>131</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5840,22 +4816,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>131</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5880,24 +4847,15 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>131</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5922,24 +4880,15 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>131</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5964,24 +4913,15 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>131</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6006,24 +4946,15 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>131</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6048,24 +4979,15 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>131</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6092,22 +5014,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>131</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6134,22 +5047,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>131</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6176,22 +5080,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>131</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6218,22 +5113,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>131</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6260,22 +5146,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>131</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6302,22 +5179,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>131</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6344,22 +5212,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>131</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6386,24 +5245,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>131</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1.101870229007634</v>
-      </c>
-      <c r="N146" t="n">
-        <v>1.030769230769231</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6428,18 +5276,15 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6466,16 +5311,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6502,16 +5344,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6538,16 +5377,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6574,16 +5410,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6608,18 +5441,15 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6644,18 +5474,15 @@
         <v>71604.6152</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6680,18 +5507,15 @@
         <v>71864.6732</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6716,18 +5540,15 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6752,18 +5573,15 @@
         <v>40032.82220000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6788,18 +5606,15 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6824,18 +5639,15 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6860,18 +5672,15 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6898,16 +5707,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6934,16 +5740,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6970,16 +5773,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7006,16 +5806,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7042,16 +5839,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7078,16 +5872,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7114,16 +5905,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7150,16 +5938,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7186,16 +5971,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7222,16 +6004,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7258,16 +6037,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7294,16 +6070,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7330,16 +6103,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7366,16 +6136,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7402,16 +6169,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7438,16 +6202,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7474,16 +6235,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7510,16 +6268,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7546,16 +6301,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7582,16 +6334,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7618,16 +6367,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7654,16 +6400,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7690,16 +6433,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7726,16 +6466,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7762,16 +6499,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7798,16 +6532,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7834,16 +6565,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7870,16 +6598,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7906,16 +6631,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7942,16 +6664,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7978,16 +6697,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8014,16 +6730,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8050,16 +6763,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8086,16 +6796,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8122,16 +6829,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8158,16 +6862,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8194,16 +6895,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8230,16 +6928,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8264,18 +6959,15 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8300,18 +6992,15 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8336,18 +7025,15 @@
         <v>26306.2326</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8372,18 +7058,15 @@
         <v>27742.6828</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8410,16 +7093,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8444,18 +7124,15 @@
         <v>20898.6635</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8482,16 +7159,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8516,18 +7190,15 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8554,16 +7225,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8590,16 +7258,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8626,16 +7291,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8662,16 +7324,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8698,16 +7357,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8734,16 +7390,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8770,16 +7423,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8806,16 +7456,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8842,16 +7489,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8878,16 +7522,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8914,16 +7555,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8950,16 +7588,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8986,16 +7621,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9022,16 +7654,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9058,16 +7687,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9094,16 +7720,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9130,16 +7753,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9166,16 +7786,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9202,18 +7819,15 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4468.119599999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-4468.119599999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>132</v>
+      </c>
+      <c r="J3" t="n">
+        <v>132</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-4665.145199999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>132</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-3183.663799999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>130</v>
+      </c>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-3395.089299999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>133</v>
+      </c>
+      <c r="J6" t="n">
+        <v>133</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>7254.964600000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>131</v>
+      </c>
+      <c r="J7" t="n">
+        <v>133</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>7254.964600000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>133</v>
+      </c>
+      <c r="J8" t="n">
+        <v>133</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>7254.964600000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>133</v>
+      </c>
+      <c r="J9" t="n">
+        <v>133</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>7254.964600000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>133</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>133</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>133</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>133</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>133</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>133</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>133</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>133</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>133</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>133</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>133</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>133</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>133</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>133</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1311,19 @@
         <v>9057.655400000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>133</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1352,19 @@
         <v>5172.338800000003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>132</v>
+      </c>
+      <c r="J25" t="n">
+        <v>133</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1393,19 @@
         <v>-1207.891799999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>131</v>
+      </c>
+      <c r="J26" t="n">
+        <v>133</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1434,19 @@
         <v>-10314.9724</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J27" t="n">
+        <v>133</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1475,19 @@
         <v>-9954.070399999995</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>129</v>
+      </c>
+      <c r="J28" t="n">
+        <v>133</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1516,19 @@
         <v>-9943.639999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>132</v>
+      </c>
+      <c r="J29" t="n">
+        <v>133</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>133</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1596,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>131</v>
+      </c>
+      <c r="J31" t="n">
+        <v>133</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1637,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>133</v>
+      </c>
+      <c r="J32" t="n">
+        <v>133</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1678,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>133</v>
+      </c>
+      <c r="J33" t="n">
+        <v>133</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1719,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>133</v>
+      </c>
+      <c r="J34" t="n">
+        <v>133</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1760,19 @@
         <v>-13674.8877</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>133</v>
+      </c>
+      <c r="J35" t="n">
+        <v>133</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1801,19 @@
         <v>-13674.8877</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>130</v>
+      </c>
+      <c r="J36" t="n">
+        <v>133</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1842,19 @@
         <v>-6444.296499999996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>130</v>
+      </c>
+      <c r="J37" t="n">
+        <v>133</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1883,19 @@
         <v>-6725.962299999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>133</v>
+      </c>
+      <c r="J38" t="n">
+        <v>133</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1927,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>133</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1966,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>133</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2005,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>133</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2044,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>133</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2083,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>133</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2119,19 @@
         <v>-6950.362599999996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>132</v>
+      </c>
+      <c r="J44" t="n">
+        <v>133</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2160,19 @@
         <v>-6950.362599999996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>131</v>
+      </c>
+      <c r="J45" t="n">
+        <v>133</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,15 +2201,19 @@
         <v>-8453.206299999996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>131</v>
       </c>
       <c r="J46" t="n">
-        <v>131</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,17 +2242,17 @@
         <v>-8453.206299999996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>130</v>
       </c>
       <c r="J47" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1981,17 +2283,17 @@
         <v>-284.2062999999962</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>130</v>
       </c>
       <c r="J48" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2022,7 +2324,7 @@
         <v>-636.0300999999962</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>133</v>
@@ -2030,7 +2332,11 @@
       <c r="J49" t="n">
         <v>133</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,7 +2365,7 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>132</v>
@@ -2069,7 +2375,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2100,7 +2406,7 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>134</v>
@@ -2110,7 +2416,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2141,11 +2447,19 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>135</v>
+      </c>
+      <c r="J52" t="n">
+        <v>133</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2174,11 +2488,19 @@
         <v>3231.131000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>135</v>
+      </c>
+      <c r="J53" t="n">
+        <v>133</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,11 +2529,19 @@
         <v>5816.668300000003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>136</v>
+      </c>
+      <c r="J54" t="n">
+        <v>133</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2243,8 +2573,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>133</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2276,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>133</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2309,8 +2651,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>133</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2687,17 @@
         <v>57058.396</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>133</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2375,8 +2729,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>133</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2408,8 +2768,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>133</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2441,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>133</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2474,8 +2846,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>133</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2507,8 +2885,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>133</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2540,8 +2924,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>133</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2960,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>133</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2999,17 @@
         <v>52373.8034</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>133</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +3038,17 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>133</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2672,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>133</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2702,11 +3116,17 @@
         <v>55328.34219999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>133</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2735,11 +3155,17 @@
         <v>56297.34209999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>133</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +3194,17 @@
         <v>79224.74119999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>133</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2801,11 +3233,17 @@
         <v>72988.05089999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>133</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +3272,17 @@
         <v>72988.05089999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>133</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2870,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>133</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2903,8 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>133</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2936,8 +3392,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>133</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2969,8 +3431,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>133</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +3467,17 @@
         <v>41928.22649999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>133</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +3506,17 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>133</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3545,17 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>133</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +3584,17 @@
         <v>18876.24819999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>133</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3134,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>133</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>133</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3200,8 +3704,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>133</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3233,8 +3743,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>133</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3266,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>133</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3299,8 +3821,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>133</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3332,8 +3860,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>133</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3896,17 @@
         <v>16123.60429999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>133</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3398,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>133</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3431,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>133</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3464,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>133</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3497,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>133</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3530,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>133</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3563,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>133</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3593,11 +4169,17 @@
         <v>27275.49569999998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>133</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +4208,17 @@
         <v>26867.10429999998</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>133</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3662,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>133</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>133</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3728,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>133</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3761,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>133</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3794,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>133</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3827,8 +4445,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>133</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3860,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>133</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3893,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>133</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>133</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>133</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>133</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4025,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>133</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4058,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>133</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4091,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>133</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4124,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>133</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>133</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>133</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>133</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>133</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>133</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>133</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>133</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>133</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>133</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>133</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>133</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>133</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>133</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +5342,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>133</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>133</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4652,8 +5420,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>133</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>133</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>133</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>133</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +5573,17 @@
         <v>53702.57609999999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>133</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>133</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +5651,17 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>133</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +5690,17 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>133</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +5729,17 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>133</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +5768,17 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>133</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +5807,17 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>133</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5015,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>133</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +5888,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>133</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>133</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5966,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>133</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +6005,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>133</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +6044,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>133</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +6083,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>133</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5246,8 +6122,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>133</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +6158,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>133</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5312,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>133</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>133</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>133</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5411,8 +6317,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>133</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +6353,17 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>133</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5474,11 +6392,17 @@
         <v>71604.6152</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>133</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +6431,17 @@
         <v>71864.6732</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>133</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +6470,17 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>133</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5573,11 +6509,17 @@
         <v>40032.82220000001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>133</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5606,15 +6548,23 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>133</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>1.092744360902256</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.023076923076923</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5639,7 +6589,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5672,7 +6622,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5705,7 +6655,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5738,7 +6688,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5771,7 +6721,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5804,7 +6754,7 @@
         <v>28062.1283</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5837,7 +6787,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5870,7 +6820,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5903,7 +6853,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5936,7 +6886,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5969,7 +6919,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6002,7 +6952,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6035,7 +6985,7 @@
         <v>31977.7189</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6068,7 +7018,7 @@
         <v>32338.486</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6101,7 +7051,7 @@
         <v>28018.486</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6134,7 +7084,7 @@
         <v>28018.486</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6167,7 +7117,7 @@
         <v>28018.486</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6200,7 +7150,7 @@
         <v>28019.666</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6233,7 +7183,7 @@
         <v>28019.666</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6266,7 +7216,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6299,7 +7249,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6332,7 +7282,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6365,7 +7315,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6827,7 +7777,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6860,7 +7810,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6893,7 +7843,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6926,7 +7876,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6959,7 +7909,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6992,7 +7942,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7025,7 +7975,7 @@
         <v>26306.2326</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7058,7 +8008,7 @@
         <v>27742.6828</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7091,7 +8041,7 @@
         <v>19632.1297</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7124,7 +8074,7 @@
         <v>20898.6635</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7157,7 +8107,7 @@
         <v>10019.4045</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7190,7 +8140,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7223,7 +8173,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7256,7 +8206,7 @@
         <v>-18384.4231</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7289,7 +8239,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7322,7 +8272,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7355,7 +8305,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7388,7 +8338,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7421,7 +8371,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7454,7 +8404,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7487,7 +8437,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7520,7 +8470,7 @@
         <v>-21385.7117</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7553,7 +8503,7 @@
         <v>-21385.7117</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7586,7 +8536,7 @@
         <v>-21685.7117</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7619,7 +8569,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7652,7 +8602,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7685,7 +8635,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7718,7 +8668,7 @@
         <v>-26883.7274</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7751,7 +8701,7 @@
         <v>-29404.4451</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7784,7 +8734,7 @@
         <v>-29404.4451</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7828,6 +8778,6 @@
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4468.119599999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-4468.119599999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>132</v>
-      </c>
-      <c r="J3" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1740 +517,1450 @@
         <v>-4665.145199999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133</v>
+      </c>
+      <c r="E5" t="n">
+        <v>133</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1481.4814</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-3183.663799999998</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>131</v>
+      </c>
+      <c r="C6" t="n">
+        <v>131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>131</v>
+      </c>
+      <c r="E6" t="n">
+        <v>131</v>
+      </c>
+      <c r="F6" t="n">
+        <v>211.4255</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3395.089299999998</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>132</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C7" t="n">
+        <v>133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>134</v>
+      </c>
+      <c r="E7" t="n">
         <v>132</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="F7" t="n">
+        <v>10650.0539</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7254.964600000003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>133</v>
+      </c>
+      <c r="F8" t="n">
+        <v>222.561</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7254.964600000003</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>133</v>
+      </c>
+      <c r="C9" t="n">
+        <v>133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>133</v>
+      </c>
+      <c r="E9" t="n">
+        <v>133</v>
+      </c>
+      <c r="F9" t="n">
+        <v>196.546</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7254.964600000003</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>133</v>
+      </c>
+      <c r="E10" t="n">
+        <v>133</v>
+      </c>
+      <c r="F10" t="n">
+        <v>257.7725</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7254.964600000003</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>133</v>
+      </c>
+      <c r="C11" t="n">
+        <v>133</v>
+      </c>
+      <c r="D11" t="n">
+        <v>133</v>
+      </c>
+      <c r="E11" t="n">
+        <v>133</v>
+      </c>
+      <c r="F11" t="n">
+        <v>190.4183</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7254.964600000003</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>131</v>
+      </c>
+      <c r="C12" t="n">
+        <v>131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>131</v>
+      </c>
+      <c r="E12" t="n">
+        <v>131</v>
+      </c>
+      <c r="F12" t="n">
+        <v>197.944</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7057.020600000003</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>133</v>
+      </c>
+      <c r="C13" t="n">
+        <v>133</v>
+      </c>
+      <c r="D13" t="n">
+        <v>133</v>
+      </c>
+      <c r="E13" t="n">
+        <v>133</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3210.8227</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10267.8433</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>132</v>
+      </c>
+      <c r="D14" t="n">
+        <v>133</v>
+      </c>
+      <c r="E14" t="n">
+        <v>132</v>
+      </c>
+      <c r="F14" t="n">
+        <v>751.88</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9515.963300000003</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>132</v>
+      </c>
+      <c r="C15" t="n">
+        <v>132</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132</v>
+      </c>
+      <c r="E15" t="n">
+        <v>132</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9515.963300000003</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>133</v>
+      </c>
+      <c r="C16" t="n">
+        <v>133</v>
+      </c>
+      <c r="D16" t="n">
+        <v>133</v>
+      </c>
+      <c r="E16" t="n">
+        <v>133</v>
+      </c>
+      <c r="F16" t="n">
+        <v>187.97</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9703.933300000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>133</v>
+      </c>
+      <c r="C17" t="n">
+        <v>133</v>
+      </c>
+      <c r="D17" t="n">
+        <v>133</v>
+      </c>
+      <c r="E17" t="n">
+        <v>133</v>
+      </c>
+      <c r="F17" t="n">
+        <v>360.902</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9703.933300000002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>133</v>
+      </c>
+      <c r="C18" t="n">
+        <v>132</v>
+      </c>
+      <c r="D18" t="n">
+        <v>133</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1238.0109</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8465.922400000003</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>132</v>
+      </c>
+      <c r="F19" t="n">
+        <v>274.392</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8465.922400000003</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>132</v>
+      </c>
+      <c r="C20" t="n">
+        <v>132</v>
+      </c>
+      <c r="D20" t="n">
+        <v>132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>193.4809</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8465.922400000003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>133</v>
+      </c>
+      <c r="C21" t="n">
+        <v>133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>133</v>
+      </c>
+      <c r="E21" t="n">
+        <v>133</v>
+      </c>
+      <c r="F21" t="n">
+        <v>360.902</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8826.824400000003</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>134</v>
+      </c>
+      <c r="D22" t="n">
+        <v>134</v>
+      </c>
+      <c r="E22" t="n">
+        <v>134</v>
+      </c>
+      <c r="F22" t="n">
+        <v>436.4703</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9263.294700000004</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>132</v>
+      </c>
+      <c r="D23" t="n">
+        <v>132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>132</v>
+      </c>
+      <c r="F23" t="n">
+        <v>205.6393</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9057.655400000003</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132</v>
+      </c>
+      <c r="C24" t="n">
+        <v>132</v>
+      </c>
+      <c r="D24" t="n">
+        <v>132</v>
+      </c>
+      <c r="E24" t="n">
+        <v>132</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6156.0772</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9057.655400000003</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>131</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131</v>
+      </c>
+      <c r="D25" t="n">
+        <v>131</v>
+      </c>
+      <c r="E25" t="n">
+        <v>131</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3885.3166</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5172.338800000003</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>130</v>
+      </c>
+      <c r="C26" t="n">
+        <v>130</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130</v>
+      </c>
+      <c r="E26" t="n">
+        <v>130</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6380.2306</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1207.891799999997</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>130</v>
+      </c>
+      <c r="C27" t="n">
+        <v>129</v>
+      </c>
+      <c r="D27" t="n">
+        <v>130</v>
+      </c>
+      <c r="E27" t="n">
+        <v>129</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9107.080599999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-10314.9724</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>132</v>
+      </c>
+      <c r="C28" t="n">
+        <v>132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>132</v>
+      </c>
+      <c r="E28" t="n">
+        <v>132</v>
+      </c>
+      <c r="F28" t="n">
+        <v>360.902</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-9954.070399999995</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>133</v>
+      </c>
+      <c r="C29" t="n">
+        <v>133</v>
+      </c>
+      <c r="D29" t="n">
+        <v>133</v>
+      </c>
+      <c r="E29" t="n">
+        <v>133</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.4304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-9943.639999999996</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>131</v>
+      </c>
+      <c r="C30" t="n">
+        <v>131</v>
+      </c>
+      <c r="D30" t="n">
+        <v>131</v>
+      </c>
+      <c r="E30" t="n">
+        <v>131</v>
+      </c>
+      <c r="F30" t="n">
+        <v>308.2113</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-10251.8513</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>133</v>
+      </c>
+      <c r="C31" t="n">
+        <v>133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>133</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2565.085</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-7686.766299999997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>133</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133</v>
+      </c>
+      <c r="E32" t="n">
+        <v>133</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3026.6466</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-7686.766299999997</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>133</v>
+      </c>
+      <c r="C33" t="n">
+        <v>133</v>
+      </c>
+      <c r="D33" t="n">
+        <v>133</v>
+      </c>
+      <c r="E33" t="n">
+        <v>133</v>
+      </c>
+      <c r="F33" t="n">
+        <v>250.1366</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-7686.766299999997</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>133</v>
+      </c>
+      <c r="C34" t="n">
+        <v>133</v>
+      </c>
+      <c r="D34" t="n">
+        <v>133</v>
+      </c>
+      <c r="E34" t="n">
+        <v>133</v>
+      </c>
+      <c r="F34" t="n">
+        <v>250</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-7686.766299999997</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>131</v>
+      </c>
+      <c r="C35" t="n">
+        <v>130</v>
+      </c>
+      <c r="D35" t="n">
+        <v>131</v>
+      </c>
+      <c r="E35" t="n">
+        <v>130</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5988.1214</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-13674.8877</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>130</v>
+      </c>
+      <c r="C36" t="n">
+        <v>130</v>
+      </c>
+      <c r="D36" t="n">
+        <v>130</v>
+      </c>
+      <c r="E36" t="n">
+        <v>130</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3019.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-13674.8877</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>133</v>
+      </c>
+      <c r="C37" t="n">
+        <v>133</v>
+      </c>
+      <c r="D37" t="n">
+        <v>133</v>
+      </c>
+      <c r="E37" t="n">
+        <v>132</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7230.5912</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-6444.296499999996</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>132</v>
+      </c>
+      <c r="C38" t="n">
+        <v>132</v>
+      </c>
+      <c r="D38" t="n">
+        <v>132</v>
+      </c>
+      <c r="E38" t="n">
+        <v>132</v>
+      </c>
+      <c r="F38" t="n">
+        <v>281.6658</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>132</v>
+      </c>
+      <c r="C39" t="n">
+        <v>132</v>
+      </c>
+      <c r="D39" t="n">
+        <v>132</v>
+      </c>
+      <c r="E39" t="n">
+        <v>132</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5353.5065</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>132</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132</v>
+      </c>
+      <c r="D40" t="n">
+        <v>132</v>
+      </c>
+      <c r="E40" t="n">
+        <v>132</v>
+      </c>
+      <c r="F40" t="n">
+        <v>696.1639</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>132</v>
+      </c>
+      <c r="C41" t="n">
+        <v>132</v>
+      </c>
+      <c r="D41" t="n">
+        <v>132</v>
+      </c>
+      <c r="E41" t="n">
+        <v>132</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1208.8974</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>132</v>
+      </c>
+      <c r="C42" t="n">
+        <v>132</v>
+      </c>
+      <c r="D42" t="n">
+        <v>132</v>
+      </c>
+      <c r="E42" t="n">
+        <v>132</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2241.7772</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>132</v>
+      </c>
+      <c r="C43" t="n">
+        <v>132</v>
+      </c>
+      <c r="D43" t="n">
+        <v>132</v>
+      </c>
+      <c r="E43" t="n">
+        <v>132</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7115.5224</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-6725.962299999996</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>131</v>
+      </c>
+      <c r="C44" t="n">
+        <v>131</v>
+      </c>
+      <c r="D44" t="n">
+        <v>131</v>
+      </c>
+      <c r="E44" t="n">
+        <v>131</v>
+      </c>
+      <c r="F44" t="n">
+        <v>224.4003</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-6950.362599999996</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>131</v>
+      </c>
+      <c r="C45" t="n">
+        <v>131</v>
+      </c>
+      <c r="D45" t="n">
+        <v>131</v>
+      </c>
+      <c r="E45" t="n">
+        <v>131</v>
+      </c>
+      <c r="F45" t="n">
+        <v>799.8702</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-6950.362599999996</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>131</v>
+      </c>
+      <c r="J45" t="n">
+        <v>131</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>130</v>
+      </c>
+      <c r="C46" t="n">
+        <v>130</v>
+      </c>
+      <c r="D46" t="n">
+        <v>130</v>
+      </c>
+      <c r="E46" t="n">
+        <v>130</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1502.8437</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-8453.206299999996</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>131</v>
+      </c>
+      <c r="J46" t="n">
+        <v>131</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>133</v>
-      </c>
-      <c r="C5" t="n">
-        <v>133</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133</v>
-      </c>
-      <c r="E5" t="n">
-        <v>133</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1481.4814</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-3183.663799999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>130</v>
       </c>
-      <c r="J5" t="n">
-        <v>132</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="C47" t="n">
+        <v>130</v>
+      </c>
+      <c r="D47" t="n">
+        <v>130</v>
+      </c>
+      <c r="E47" t="n">
+        <v>130</v>
+      </c>
+      <c r="F47" t="n">
+        <v>446.5206</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-8453.206299999996</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>130</v>
+      </c>
+      <c r="J47" t="n">
+        <v>131</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>131</v>
-      </c>
-      <c r="C6" t="n">
-        <v>131</v>
-      </c>
-      <c r="D6" t="n">
-        <v>131</v>
-      </c>
-      <c r="E6" t="n">
-        <v>131</v>
-      </c>
-      <c r="F6" t="n">
-        <v>211.4255</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-3395.089299999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>133</v>
-      </c>
-      <c r="J6" t="n">
-        <v>133</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>132</v>
-      </c>
-      <c r="C7" t="n">
-        <v>133</v>
-      </c>
-      <c r="D7" t="n">
-        <v>134</v>
-      </c>
-      <c r="E7" t="n">
-        <v>132</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10650.0539</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>133</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>133</v>
-      </c>
-      <c r="C8" t="n">
-        <v>133</v>
-      </c>
-      <c r="D8" t="n">
-        <v>133</v>
-      </c>
-      <c r="E8" t="n">
-        <v>133</v>
-      </c>
-      <c r="F8" t="n">
-        <v>222.561</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>133</v>
-      </c>
-      <c r="J8" t="n">
-        <v>133</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>133</v>
-      </c>
-      <c r="C9" t="n">
-        <v>133</v>
-      </c>
-      <c r="D9" t="n">
-        <v>133</v>
-      </c>
-      <c r="E9" t="n">
-        <v>133</v>
-      </c>
-      <c r="F9" t="n">
-        <v>196.546</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>133</v>
-      </c>
-      <c r="J9" t="n">
-        <v>133</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>133</v>
-      </c>
-      <c r="C10" t="n">
-        <v>133</v>
-      </c>
-      <c r="D10" t="n">
-        <v>133</v>
-      </c>
-      <c r="E10" t="n">
-        <v>133</v>
-      </c>
-      <c r="F10" t="n">
-        <v>257.7725</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>133</v>
-      </c>
-      <c r="J10" t="n">
-        <v>133</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>133</v>
-      </c>
-      <c r="C11" t="n">
-        <v>133</v>
-      </c>
-      <c r="D11" t="n">
-        <v>133</v>
-      </c>
-      <c r="E11" t="n">
-        <v>133</v>
-      </c>
-      <c r="F11" t="n">
-        <v>190.4183</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>133</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>131</v>
-      </c>
-      <c r="C12" t="n">
-        <v>131</v>
-      </c>
-      <c r="D12" t="n">
-        <v>131</v>
-      </c>
-      <c r="E12" t="n">
-        <v>131</v>
-      </c>
-      <c r="F12" t="n">
-        <v>197.944</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7057.020600000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>133</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>133</v>
-      </c>
-      <c r="C13" t="n">
-        <v>133</v>
-      </c>
-      <c r="D13" t="n">
-        <v>133</v>
-      </c>
-      <c r="E13" t="n">
-        <v>133</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3210.8227</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10267.8433</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>133</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>133</v>
-      </c>
-      <c r="C14" t="n">
-        <v>132</v>
-      </c>
-      <c r="D14" t="n">
-        <v>133</v>
-      </c>
-      <c r="E14" t="n">
-        <v>132</v>
-      </c>
-      <c r="F14" t="n">
-        <v>751.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9515.963300000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>133</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>132</v>
-      </c>
-      <c r="C15" t="n">
-        <v>132</v>
-      </c>
-      <c r="D15" t="n">
-        <v>132</v>
-      </c>
-      <c r="E15" t="n">
-        <v>132</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3140</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9515.963300000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>133</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>133</v>
-      </c>
-      <c r="C16" t="n">
-        <v>133</v>
-      </c>
-      <c r="D16" t="n">
-        <v>133</v>
-      </c>
-      <c r="E16" t="n">
-        <v>133</v>
-      </c>
-      <c r="F16" t="n">
-        <v>187.97</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9703.933300000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>133</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>133</v>
-      </c>
-      <c r="C17" t="n">
-        <v>133</v>
-      </c>
-      <c r="D17" t="n">
-        <v>133</v>
-      </c>
-      <c r="E17" t="n">
-        <v>133</v>
-      </c>
-      <c r="F17" t="n">
-        <v>360.902</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9703.933300000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>133</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>133</v>
-      </c>
-      <c r="C18" t="n">
-        <v>132</v>
-      </c>
-      <c r="D18" t="n">
-        <v>133</v>
-      </c>
-      <c r="E18" t="n">
-        <v>132</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1238.0109</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>133</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>132</v>
-      </c>
-      <c r="C19" t="n">
-        <v>132</v>
-      </c>
-      <c r="D19" t="n">
-        <v>132</v>
-      </c>
-      <c r="E19" t="n">
-        <v>132</v>
-      </c>
-      <c r="F19" t="n">
-        <v>274.392</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>133</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>132</v>
-      </c>
-      <c r="C20" t="n">
-        <v>132</v>
-      </c>
-      <c r="D20" t="n">
-        <v>132</v>
-      </c>
-      <c r="E20" t="n">
-        <v>132</v>
-      </c>
-      <c r="F20" t="n">
-        <v>193.4809</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>133</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>133</v>
-      </c>
-      <c r="C21" t="n">
-        <v>133</v>
-      </c>
-      <c r="D21" t="n">
-        <v>133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>133</v>
-      </c>
-      <c r="F21" t="n">
-        <v>360.902</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8826.824400000003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>133</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>134</v>
-      </c>
-      <c r="C22" t="n">
-        <v>134</v>
-      </c>
-      <c r="D22" t="n">
-        <v>134</v>
-      </c>
-      <c r="E22" t="n">
-        <v>134</v>
-      </c>
-      <c r="F22" t="n">
-        <v>436.4703</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9263.294700000004</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>133</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>132</v>
-      </c>
-      <c r="C23" t="n">
-        <v>132</v>
-      </c>
-      <c r="D23" t="n">
-        <v>132</v>
-      </c>
-      <c r="E23" t="n">
-        <v>132</v>
-      </c>
-      <c r="F23" t="n">
-        <v>205.6393</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9057.655400000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>133</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>132</v>
-      </c>
-      <c r="C24" t="n">
-        <v>132</v>
-      </c>
-      <c r="D24" t="n">
-        <v>132</v>
-      </c>
-      <c r="E24" t="n">
-        <v>132</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6156.0772</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9057.655400000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>133</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>131</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131</v>
-      </c>
-      <c r="D25" t="n">
-        <v>131</v>
-      </c>
-      <c r="E25" t="n">
-        <v>131</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3885.3166</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5172.338800000003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>132</v>
-      </c>
-      <c r="J25" t="n">
-        <v>133</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>130</v>
-      </c>
-      <c r="C26" t="n">
-        <v>130</v>
-      </c>
-      <c r="D26" t="n">
-        <v>130</v>
-      </c>
-      <c r="E26" t="n">
-        <v>130</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6380.2306</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1207.891799999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>131</v>
-      </c>
-      <c r="J26" t="n">
-        <v>133</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>130</v>
-      </c>
-      <c r="C27" t="n">
-        <v>129</v>
-      </c>
-      <c r="D27" t="n">
-        <v>130</v>
-      </c>
-      <c r="E27" t="n">
-        <v>129</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9107.080599999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-10314.9724</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>130</v>
-      </c>
-      <c r="J27" t="n">
-        <v>133</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>132</v>
-      </c>
-      <c r="C28" t="n">
-        <v>132</v>
-      </c>
-      <c r="D28" t="n">
-        <v>132</v>
-      </c>
-      <c r="E28" t="n">
-        <v>132</v>
-      </c>
-      <c r="F28" t="n">
-        <v>360.902</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-9954.070399999995</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>129</v>
-      </c>
-      <c r="J28" t="n">
-        <v>133</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>133</v>
-      </c>
-      <c r="C29" t="n">
-        <v>133</v>
-      </c>
-      <c r="D29" t="n">
-        <v>133</v>
-      </c>
-      <c r="E29" t="n">
-        <v>133</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10.4304</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-9943.639999999996</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>132</v>
-      </c>
-      <c r="J29" t="n">
-        <v>133</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>131</v>
-      </c>
-      <c r="C30" t="n">
-        <v>131</v>
-      </c>
-      <c r="D30" t="n">
-        <v>131</v>
-      </c>
-      <c r="E30" t="n">
-        <v>131</v>
-      </c>
-      <c r="F30" t="n">
-        <v>308.2113</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-10251.8513</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>133</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>133</v>
-      </c>
-      <c r="C31" t="n">
-        <v>133</v>
-      </c>
-      <c r="D31" t="n">
-        <v>133</v>
-      </c>
-      <c r="E31" t="n">
-        <v>133</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2565.085</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>131</v>
-      </c>
-      <c r="J31" t="n">
-        <v>133</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>133</v>
-      </c>
-      <c r="C32" t="n">
-        <v>133</v>
-      </c>
-      <c r="D32" t="n">
-        <v>133</v>
-      </c>
-      <c r="E32" t="n">
-        <v>133</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3026.6466</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>133</v>
-      </c>
-      <c r="J32" t="n">
-        <v>133</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>133</v>
-      </c>
-      <c r="C33" t="n">
-        <v>133</v>
-      </c>
-      <c r="D33" t="n">
-        <v>133</v>
-      </c>
-      <c r="E33" t="n">
-        <v>133</v>
-      </c>
-      <c r="F33" t="n">
-        <v>250.1366</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>133</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>133</v>
-      </c>
-      <c r="C34" t="n">
-        <v>133</v>
-      </c>
-      <c r="D34" t="n">
-        <v>133</v>
-      </c>
-      <c r="E34" t="n">
-        <v>133</v>
-      </c>
-      <c r="F34" t="n">
-        <v>250</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>133</v>
-      </c>
-      <c r="J34" t="n">
-        <v>133</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>131</v>
-      </c>
-      <c r="C35" t="n">
-        <v>130</v>
-      </c>
-      <c r="D35" t="n">
-        <v>131</v>
-      </c>
-      <c r="E35" t="n">
-        <v>130</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5988.1214</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-13674.8877</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>133</v>
-      </c>
-      <c r="J35" t="n">
-        <v>133</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>130</v>
-      </c>
-      <c r="C36" t="n">
-        <v>130</v>
-      </c>
-      <c r="D36" t="n">
-        <v>130</v>
-      </c>
-      <c r="E36" t="n">
-        <v>130</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3019.08</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-13674.8877</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>130</v>
-      </c>
-      <c r="J36" t="n">
-        <v>133</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>133</v>
-      </c>
-      <c r="C37" t="n">
-        <v>133</v>
-      </c>
-      <c r="D37" t="n">
-        <v>133</v>
-      </c>
-      <c r="E37" t="n">
-        <v>132</v>
-      </c>
-      <c r="F37" t="n">
-        <v>7230.5912</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-6444.296499999996</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130</v>
-      </c>
-      <c r="J37" t="n">
-        <v>133</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>132</v>
-      </c>
-      <c r="C38" t="n">
-        <v>132</v>
-      </c>
-      <c r="D38" t="n">
-        <v>132</v>
-      </c>
-      <c r="E38" t="n">
-        <v>132</v>
-      </c>
-      <c r="F38" t="n">
-        <v>281.6658</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>133</v>
-      </c>
-      <c r="J38" t="n">
-        <v>133</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>132</v>
-      </c>
-      <c r="C39" t="n">
-        <v>132</v>
-      </c>
-      <c r="D39" t="n">
-        <v>132</v>
-      </c>
-      <c r="E39" t="n">
-        <v>132</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5353.5065</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>133</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>132</v>
-      </c>
-      <c r="C40" t="n">
-        <v>132</v>
-      </c>
-      <c r="D40" t="n">
-        <v>132</v>
-      </c>
-      <c r="E40" t="n">
-        <v>132</v>
-      </c>
-      <c r="F40" t="n">
-        <v>696.1639</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>133</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>132</v>
-      </c>
-      <c r="C41" t="n">
-        <v>132</v>
-      </c>
-      <c r="D41" t="n">
-        <v>132</v>
-      </c>
-      <c r="E41" t="n">
-        <v>132</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1208.8974</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>133</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>132</v>
-      </c>
-      <c r="C42" t="n">
-        <v>132</v>
-      </c>
-      <c r="D42" t="n">
-        <v>132</v>
-      </c>
-      <c r="E42" t="n">
-        <v>132</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2241.7772</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>133</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>132</v>
-      </c>
-      <c r="C43" t="n">
-        <v>132</v>
-      </c>
-      <c r="D43" t="n">
-        <v>132</v>
-      </c>
-      <c r="E43" t="n">
-        <v>132</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7115.5224</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>133</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>131</v>
-      </c>
-      <c r="C44" t="n">
-        <v>131</v>
-      </c>
-      <c r="D44" t="n">
-        <v>131</v>
-      </c>
-      <c r="E44" t="n">
-        <v>131</v>
-      </c>
-      <c r="F44" t="n">
-        <v>224.4003</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-6950.362599999996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>132</v>
-      </c>
-      <c r="J44" t="n">
-        <v>133</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>131</v>
-      </c>
-      <c r="C45" t="n">
-        <v>131</v>
-      </c>
-      <c r="D45" t="n">
-        <v>131</v>
-      </c>
-      <c r="E45" t="n">
-        <v>131</v>
-      </c>
-      <c r="F45" t="n">
-        <v>799.8702</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-6950.362599999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>131</v>
-      </c>
-      <c r="J45" t="n">
-        <v>133</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>130</v>
-      </c>
-      <c r="C46" t="n">
-        <v>130</v>
-      </c>
-      <c r="D46" t="n">
-        <v>130</v>
-      </c>
-      <c r="E46" t="n">
-        <v>130</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1502.8437</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-8453.206299999996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>133</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>130</v>
-      </c>
-      <c r="C47" t="n">
-        <v>130</v>
-      </c>
-      <c r="D47" t="n">
-        <v>130</v>
-      </c>
-      <c r="E47" t="n">
-        <v>130</v>
-      </c>
-      <c r="F47" t="n">
-        <v>446.5206</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-8453.206299999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>130</v>
-      </c>
-      <c r="J47" t="n">
-        <v>133</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2289,13 +1995,9 @@
         <v>130</v>
       </c>
       <c r="J48" t="n">
-        <v>133</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2330,11 +2032,11 @@
         <v>133</v>
       </c>
       <c r="J49" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2365,17 +2067,15 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2406,19 +2106,11 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>134</v>
-      </c>
-      <c r="J51" t="n">
-        <v>133</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2447,19 +2139,11 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>135</v>
-      </c>
-      <c r="J52" t="n">
-        <v>133</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2488,19 +2172,11 @@
         <v>3231.131000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>135</v>
-      </c>
-      <c r="J53" t="n">
-        <v>133</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2529,19 +2205,11 @@
         <v>5816.668300000003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>133</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2573,14 +2241,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>133</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2612,14 +2274,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>133</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2307,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>133</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2340,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>133</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2726,17 +2370,11 @@
         <v>57058.396</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>133</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2765,17 +2403,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>133</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2804,17 +2436,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>133</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2843,17 +2469,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>133</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2882,17 +2502,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>133</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2921,17 +2535,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>133</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2960,17 +2568,11 @@
         <v>59193.4364</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>133</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2999,17 +2601,11 @@
         <v>52373.8034</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>133</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3038,17 +2634,11 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>133</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +2670,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>133</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +2703,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>133</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +2736,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>133</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3197,14 +2769,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>133</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>133</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +2835,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>133</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +2868,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>133</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3353,14 +2901,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>133</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3392,14 +2934,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>133</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3431,14 +2967,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>133</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3000,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>133</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3509,14 +3033,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>133</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3066,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>133</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3587,14 +3099,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>133</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3132,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>133</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3665,14 +3165,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>133</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3704,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>133</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3743,14 +3231,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>133</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3264,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>133</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3821,14 +3297,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>133</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3860,14 +3330,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>133</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3899,14 +3363,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>133</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3938,14 +3396,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>133</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3977,14 +3429,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>133</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4016,14 +3462,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>133</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4055,14 +3495,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>133</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4094,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>133</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4133,14 +3561,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>133</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4172,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>133</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4211,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>133</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4250,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>133</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4289,14 +3693,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>133</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4328,14 +3726,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>133</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4367,14 +3759,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>133</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +3792,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>133</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4445,14 +3825,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>133</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4484,14 +3858,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>133</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4523,14 +3891,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>133</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4562,14 +3924,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>133</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4601,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>133</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4640,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>133</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4679,14 +4023,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>133</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4718,14 +4056,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>133</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4757,14 +4089,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>133</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4796,14 +4122,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>133</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4155,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>133</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>133</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +4221,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>133</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4952,14 +4254,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>133</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +4287,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>133</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4320,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>133</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5069,14 +4353,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>133</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>133</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +4419,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>133</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +4452,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>133</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5225,14 +4485,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>133</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +4518,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>133</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5303,14 +4551,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>133</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +4584,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>133</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5381,14 +4617,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>133</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5420,14 +4650,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>133</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +4683,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>133</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +4716,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>133</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +4749,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>133</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5576,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>133</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5612,17 +4812,11 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>133</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5651,17 +4845,11 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>133</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5690,17 +4878,11 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>133</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5729,17 +4911,11 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>133</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5768,17 +4944,11 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>133</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5807,17 +4977,11 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>133</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5846,17 +5010,11 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>133</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5885,17 +5043,11 @@
         <v>70587.34329999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>133</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5924,17 +5076,11 @@
         <v>70323.09169999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>133</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5963,17 +5109,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>133</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6002,17 +5142,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>133</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6041,17 +5175,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>133</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6080,17 +5208,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>133</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6119,17 +5241,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>133</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6158,17 +5274,11 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>133</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6197,17 +5307,11 @@
         <v>77961.77639999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>133</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6236,17 +5340,11 @@
         <v>80521.45499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>133</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6275,17 +5373,11 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>133</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6314,17 +5406,11 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>133</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6353,17 +5439,11 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>133</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6392,17 +5472,11 @@
         <v>71604.6152</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>133</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6434,14 +5508,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>133</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6470,17 +5538,11 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>133</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6512,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>133</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6551,20 +5607,12 @@
         <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>133</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>1.092744360902256</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.023076923076923</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6985,7 +6033,7 @@
         <v>31977.7189</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7777,7 +6825,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7810,7 +6858,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7843,7 +6891,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7876,7 +6924,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7909,7 +6957,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7942,7 +6990,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7975,7 +7023,7 @@
         <v>26306.2326</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8008,7 +7056,7 @@
         <v>27742.6828</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8041,7 +7089,7 @@
         <v>19632.1297</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8107,7 +7155,7 @@
         <v>10019.4045</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8140,7 +7188,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8173,7 +7221,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8206,7 +7254,7 @@
         <v>-18384.4231</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8239,7 +7287,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8272,7 +7320,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8305,7 +7353,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8338,7 +7386,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8371,7 +7419,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8404,7 +7452,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8437,7 +7485,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8470,7 +7518,7 @@
         <v>-21385.7117</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8503,7 +7551,7 @@
         <v>-21385.7117</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8536,7 +7584,7 @@
         <v>-21685.7117</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8569,7 +7617,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8602,7 +7650,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8635,7 +7683,7 @@
         <v>-25283.7274</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8668,7 +7716,7 @@
         <v>-26883.7274</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8701,7 +7749,7 @@
         <v>-29404.4451</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8734,7 +7782,7 @@
         <v>-29404.4451</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8778,6 +7826,6 @@
       <c r="M224" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -913,10 +913,14 @@
         <v>9703.933300000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>132</v>
+      </c>
+      <c r="J16" t="n">
+        <v>132</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -949,8 +953,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>132</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +992,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>132</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1031,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>132</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1067,19 @@
         <v>8465.922400000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>132</v>
+      </c>
+      <c r="J20" t="n">
+        <v>132</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1108,19 @@
         <v>8826.824400000003</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>132</v>
+      </c>
+      <c r="J21" t="n">
+        <v>132</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1149,19 @@
         <v>9263.294700000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>133</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1190,19 @@
         <v>9057.655400000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>134</v>
+      </c>
+      <c r="J23" t="n">
+        <v>132</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1231,19 @@
         <v>9057.655400000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>132</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1272,19 @@
         <v>5172.338800000003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>132</v>
+      </c>
+      <c r="J25" t="n">
+        <v>132</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1313,19 @@
         <v>-1207.891799999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>131</v>
+      </c>
+      <c r="J26" t="n">
+        <v>132</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1354,19 @@
         <v>-10314.9724</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J27" t="n">
+        <v>132</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1395,19 @@
         <v>-9954.070399999995</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>129</v>
+      </c>
+      <c r="J28" t="n">
+        <v>132</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1436,19 @@
         <v>-9943.639999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>132</v>
+      </c>
+      <c r="J29" t="n">
+        <v>132</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>132</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1516,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>131</v>
+      </c>
+      <c r="J31" t="n">
+        <v>132</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1557,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>133</v>
+      </c>
+      <c r="J32" t="n">
+        <v>132</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1598,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>133</v>
+      </c>
+      <c r="J33" t="n">
+        <v>132</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1639,19 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>133</v>
+      </c>
+      <c r="J34" t="n">
+        <v>132</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1680,19 @@
         <v>-13674.8877</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>133</v>
+      </c>
+      <c r="J35" t="n">
+        <v>132</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1721,19 @@
         <v>-13674.8877</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>130</v>
+      </c>
+      <c r="J36" t="n">
+        <v>132</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1762,19 @@
         <v>-6444.296499999996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>130</v>
+      </c>
+      <c r="J37" t="n">
+        <v>132</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>132</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1845,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>132</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1884,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>132</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1923,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>132</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1962,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>132</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2001,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>132</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2040,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>132</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,15 +2076,17 @@
         <v>-6950.362599999996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>131</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1913,11 +2121,11 @@
         <v>131</v>
       </c>
       <c r="J46" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1954,11 +2162,11 @@
         <v>130</v>
       </c>
       <c r="J47" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1995,9 +2203,13 @@
         <v>130</v>
       </c>
       <c r="J48" t="n">
-        <v>130</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2032,11 +2244,11 @@
         <v>133</v>
       </c>
       <c r="J49" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2067,15 +2279,17 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>132</v>
+      </c>
       <c r="J50" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2109,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>132</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2142,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>132</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2175,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>132</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2208,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>132</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2241,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>132</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2274,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>132</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2307,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>132</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2340,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>132</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2632,17 @@
         <v>57058.396</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>132</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2671,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>132</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2710,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>132</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2749,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>132</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2788,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>132</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2535,11 +2827,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>132</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2568,11 +2866,17 @@
         <v>59193.4364</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>132</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2601,11 +2905,17 @@
         <v>52373.8034</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>132</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2634,11 +2944,17 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>132</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>132</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2703,8 +3025,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>132</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2736,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>132</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>132</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2835,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>132</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2868,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>132</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2901,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>132</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2934,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>132</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2967,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>132</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3000,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>132</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3033,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>132</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3066,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>132</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3099,8 +3493,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>132</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3132,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>132</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3165,8 +3571,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>132</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3198,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>132</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3231,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>132</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3264,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>132</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3297,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>132</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3330,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>132</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3363,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>132</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>132</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>132</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>132</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>132</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>132</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>132</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>132</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>132</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3693,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>132</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3726,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>132</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3759,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>132</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3792,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>132</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3825,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>132</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3858,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>132</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3891,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>132</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3924,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>132</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>132</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3990,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>132</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4023,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>132</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4056,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>132</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4089,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>132</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4122,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>132</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>132</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4188,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>132</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4221,8 +4819,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>132</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>132</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4287,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>132</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4320,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>132</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4353,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>132</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4386,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>132</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4419,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>132</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4452,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>132</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4485,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>132</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4518,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>132</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4551,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>132</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4584,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>132</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4617,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>132</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4650,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>132</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4683,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>132</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4716,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>132</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4749,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>132</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4782,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>132</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +5518,17 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>132</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +5557,17 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>132</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +5596,17 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>132</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +5635,17 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>132</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +5674,17 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>132</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +5713,17 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>132</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +5752,17 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>132</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +5791,17 @@
         <v>70587.34329999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>132</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5830,17 @@
         <v>70323.09169999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>132</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5869,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>132</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +5908,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>132</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5947,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>132</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5986,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>132</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5241,11 +6025,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>132</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +6064,17 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>132</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +6103,17 @@
         <v>77961.77639999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>132</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +6142,17 @@
         <v>80521.45499999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>132</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +6181,17 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>132</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +6220,17 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>132</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5442,12 +6262,20 @@
         <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>132</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>1.116212121212121</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.030769230769231</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5472,7 +6300,7 @@
         <v>71604.6152</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5538,7 +6366,7 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5604,7 +6432,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5637,7 +6465,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5670,7 +6498,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5703,7 +6531,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5736,7 +6564,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5769,7 +6597,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5802,7 +6630,7 @@
         <v>28062.1283</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5835,7 +6663,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5868,7 +6696,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5901,7 +6729,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5934,7 +6762,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5967,7 +6795,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6000,7 +6828,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6066,7 +6894,7 @@
         <v>32338.486</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6099,7 +6927,7 @@
         <v>28018.486</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6132,7 +6960,7 @@
         <v>28018.486</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6165,7 +6993,7 @@
         <v>28018.486</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6198,7 +7026,7 @@
         <v>28019.666</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6231,7 +7059,7 @@
         <v>28019.666</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6264,7 +7092,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6297,7 +7125,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6330,7 +7158,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6363,7 +7191,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6792,7 +7620,7 @@
         <v>45095.07090000001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6858,7 +7686,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6891,7 +7719,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6924,7 +7752,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6957,7 +7785,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6990,7 +7818,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7023,7 +7851,7 @@
         <v>26306.2326</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7056,7 +7884,7 @@
         <v>27742.6828</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7089,7 +7917,7 @@
         <v>19632.1297</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7122,7 +7950,7 @@
         <v>20898.6635</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7155,7 +7983,7 @@
         <v>10019.4045</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7188,7 +8016,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7221,7 +8049,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ITC.xlsx
+++ b/BackTest/2019-10-27 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>676.9243</v>
       </c>
       <c r="G2" t="n">
-        <v>-4468.119599999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>510.552</v>
       </c>
       <c r="G3" t="n">
-        <v>-4468.119599999998</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="I3" t="n">
+        <v>132</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>197.0256</v>
       </c>
       <c r="G4" t="n">
-        <v>-4665.145199999998</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="I4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>1481.4814</v>
       </c>
       <c r="G5" t="n">
-        <v>-3183.663799999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,15 @@
         <v>211.4255</v>
       </c>
       <c r="G6" t="n">
-        <v>-3395.089299999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,15 @@
         <v>10650.0539</v>
       </c>
       <c r="G7" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +641,15 @@
         <v>222.561</v>
       </c>
       <c r="G8" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,15 @@
         <v>196.546</v>
       </c>
       <c r="G9" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +701,15 @@
         <v>257.7725</v>
       </c>
       <c r="G10" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,15 @@
         <v>190.4183</v>
       </c>
       <c r="G11" t="n">
-        <v>7254.964600000003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,15 @@
         <v>197.944</v>
       </c>
       <c r="G12" t="n">
-        <v>7057.020600000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,15 @@
         <v>3210.8227</v>
       </c>
       <c r="G13" t="n">
-        <v>10267.8433</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +821,15 @@
         <v>751.88</v>
       </c>
       <c r="G14" t="n">
-        <v>9515.963300000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>3140</v>
       </c>
       <c r="G15" t="n">
-        <v>9515.963300000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,22 +881,15 @@
         <v>187.97</v>
       </c>
       <c r="G16" t="n">
-        <v>9703.933300000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>132</v>
-      </c>
-      <c r="J16" t="n">
-        <v>132</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -947,633 +911,477 @@
         <v>360.902</v>
       </c>
       <c r="G17" t="n">
-        <v>9703.933300000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>132</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>133</v>
+      </c>
+      <c r="C18" t="n">
+        <v>132</v>
+      </c>
+      <c r="D18" t="n">
+        <v>133</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1238.0109</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>132</v>
+      </c>
+      <c r="F19" t="n">
+        <v>274.392</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>132</v>
+      </c>
+      <c r="C20" t="n">
+        <v>132</v>
+      </c>
+      <c r="D20" t="n">
+        <v>132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>193.4809</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>133</v>
+      </c>
+      <c r="C21" t="n">
+        <v>133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>133</v>
+      </c>
+      <c r="E21" t="n">
+        <v>133</v>
+      </c>
+      <c r="F21" t="n">
+        <v>360.902</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>134</v>
+      </c>
+      <c r="D22" t="n">
+        <v>134</v>
+      </c>
+      <c r="E22" t="n">
+        <v>134</v>
+      </c>
+      <c r="F22" t="n">
+        <v>436.4703</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>132</v>
+      </c>
+      <c r="D23" t="n">
+        <v>132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>132</v>
+      </c>
+      <c r="F23" t="n">
+        <v>205.6393</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132</v>
+      </c>
+      <c r="C24" t="n">
+        <v>132</v>
+      </c>
+      <c r="D24" t="n">
+        <v>132</v>
+      </c>
+      <c r="E24" t="n">
+        <v>132</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6156.0772</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>131</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131</v>
+      </c>
+      <c r="D25" t="n">
+        <v>131</v>
+      </c>
+      <c r="E25" t="n">
+        <v>131</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3885.3166</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>130</v>
+      </c>
+      <c r="C26" t="n">
+        <v>130</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130</v>
+      </c>
+      <c r="E26" t="n">
+        <v>130</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6380.2306</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>130</v>
+      </c>
+      <c r="C27" t="n">
+        <v>129</v>
+      </c>
+      <c r="D27" t="n">
+        <v>130</v>
+      </c>
+      <c r="E27" t="n">
+        <v>129</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9107.080599999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>132</v>
+      </c>
+      <c r="C28" t="n">
+        <v>132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>132</v>
+      </c>
+      <c r="E28" t="n">
+        <v>132</v>
+      </c>
+      <c r="F28" t="n">
+        <v>360.902</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>133</v>
+      </c>
+      <c r="C29" t="n">
+        <v>133</v>
+      </c>
+      <c r="D29" t="n">
+        <v>133</v>
+      </c>
+      <c r="E29" t="n">
+        <v>133</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.4304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>131</v>
+      </c>
+      <c r="C30" t="n">
+        <v>131</v>
+      </c>
+      <c r="D30" t="n">
+        <v>131</v>
+      </c>
+      <c r="E30" t="n">
+        <v>131</v>
+      </c>
+      <c r="F30" t="n">
+        <v>308.2113</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>133</v>
+      </c>
+      <c r="C31" t="n">
+        <v>133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>133</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2565.085</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>131</v>
+      </c>
+      <c r="I31" t="n">
+        <v>131</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>133</v>
+      </c>
+      <c r="C32" t="n">
+        <v>133</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133</v>
+      </c>
+      <c r="E32" t="n">
+        <v>133</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3026.6466</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>133</v>
+      </c>
+      <c r="I32" t="n">
+        <v>131</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>133</v>
-      </c>
-      <c r="C18" t="n">
-        <v>132</v>
-      </c>
-      <c r="D18" t="n">
-        <v>133</v>
-      </c>
-      <c r="E18" t="n">
-        <v>132</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1238.0109</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>132</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>132</v>
-      </c>
-      <c r="C19" t="n">
-        <v>132</v>
-      </c>
-      <c r="D19" t="n">
-        <v>132</v>
-      </c>
-      <c r="E19" t="n">
-        <v>132</v>
-      </c>
-      <c r="F19" t="n">
-        <v>274.392</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>132</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>132</v>
-      </c>
-      <c r="C20" t="n">
-        <v>132</v>
-      </c>
-      <c r="D20" t="n">
-        <v>132</v>
-      </c>
-      <c r="E20" t="n">
-        <v>132</v>
-      </c>
-      <c r="F20" t="n">
-        <v>193.4809</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8465.922400000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>132</v>
-      </c>
-      <c r="J20" t="n">
-        <v>132</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>133</v>
-      </c>
-      <c r="C21" t="n">
-        <v>133</v>
-      </c>
-      <c r="D21" t="n">
-        <v>133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>133</v>
-      </c>
-      <c r="F21" t="n">
-        <v>360.902</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8826.824400000003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>132</v>
-      </c>
-      <c r="J21" t="n">
-        <v>132</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>134</v>
-      </c>
-      <c r="C22" t="n">
-        <v>134</v>
-      </c>
-      <c r="D22" t="n">
-        <v>134</v>
-      </c>
-      <c r="E22" t="n">
-        <v>134</v>
-      </c>
-      <c r="F22" t="n">
-        <v>436.4703</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9263.294700000004</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>133</v>
-      </c>
-      <c r="J22" t="n">
-        <v>132</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>132</v>
-      </c>
-      <c r="C23" t="n">
-        <v>132</v>
-      </c>
-      <c r="D23" t="n">
-        <v>132</v>
-      </c>
-      <c r="E23" t="n">
-        <v>132</v>
-      </c>
-      <c r="F23" t="n">
-        <v>205.6393</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9057.655400000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>134</v>
-      </c>
-      <c r="J23" t="n">
-        <v>132</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>132</v>
-      </c>
-      <c r="C24" t="n">
-        <v>132</v>
-      </c>
-      <c r="D24" t="n">
-        <v>132</v>
-      </c>
-      <c r="E24" t="n">
-        <v>132</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6156.0772</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9057.655400000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>132</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>131</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131</v>
-      </c>
-      <c r="D25" t="n">
-        <v>131</v>
-      </c>
-      <c r="E25" t="n">
-        <v>131</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3885.3166</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5172.338800000003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>132</v>
-      </c>
-      <c r="J25" t="n">
-        <v>132</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>130</v>
-      </c>
-      <c r="C26" t="n">
-        <v>130</v>
-      </c>
-      <c r="D26" t="n">
-        <v>130</v>
-      </c>
-      <c r="E26" t="n">
-        <v>130</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6380.2306</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1207.891799999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>131</v>
-      </c>
-      <c r="J26" t="n">
-        <v>132</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>130</v>
-      </c>
-      <c r="C27" t="n">
-        <v>129</v>
-      </c>
-      <c r="D27" t="n">
-        <v>130</v>
-      </c>
-      <c r="E27" t="n">
-        <v>129</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9107.080599999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-10314.9724</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>130</v>
-      </c>
-      <c r="J27" t="n">
-        <v>132</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>132</v>
-      </c>
-      <c r="C28" t="n">
-        <v>132</v>
-      </c>
-      <c r="D28" t="n">
-        <v>132</v>
-      </c>
-      <c r="E28" t="n">
-        <v>132</v>
-      </c>
-      <c r="F28" t="n">
-        <v>360.902</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-9954.070399999995</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>129</v>
-      </c>
-      <c r="J28" t="n">
-        <v>132</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>133</v>
-      </c>
-      <c r="C29" t="n">
-        <v>133</v>
-      </c>
-      <c r="D29" t="n">
-        <v>133</v>
-      </c>
-      <c r="E29" t="n">
-        <v>133</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10.4304</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-9943.639999999996</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>132</v>
-      </c>
-      <c r="J29" t="n">
-        <v>132</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>131</v>
-      </c>
-      <c r="C30" t="n">
-        <v>131</v>
-      </c>
-      <c r="D30" t="n">
-        <v>131</v>
-      </c>
-      <c r="E30" t="n">
-        <v>131</v>
-      </c>
-      <c r="F30" t="n">
-        <v>308.2113</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-10251.8513</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>132</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>133</v>
-      </c>
-      <c r="C31" t="n">
-        <v>133</v>
-      </c>
-      <c r="D31" t="n">
-        <v>133</v>
-      </c>
-      <c r="E31" t="n">
-        <v>133</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2565.085</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>131</v>
-      </c>
-      <c r="J31" t="n">
-        <v>132</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>133</v>
-      </c>
-      <c r="C32" t="n">
-        <v>133</v>
-      </c>
-      <c r="D32" t="n">
-        <v>133</v>
-      </c>
-      <c r="E32" t="n">
-        <v>133</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3026.6466</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>133</v>
-      </c>
-      <c r="J32" t="n">
-        <v>132</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1595,26 +1403,21 @@
         <v>250.1366</v>
       </c>
       <c r="G33" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>132</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>131</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,26 +1439,15 @@
         <v>250</v>
       </c>
       <c r="G34" t="n">
-        <v>-7686.766299999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>133</v>
-      </c>
-      <c r="J34" t="n">
-        <v>132</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,26 +1469,15 @@
         <v>5988.1214</v>
       </c>
       <c r="G35" t="n">
-        <v>-13674.8877</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>133</v>
-      </c>
-      <c r="J35" t="n">
-        <v>132</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,26 +1499,15 @@
         <v>3019.08</v>
       </c>
       <c r="G36" t="n">
-        <v>-13674.8877</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>130</v>
-      </c>
-      <c r="J36" t="n">
-        <v>132</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1759,26 +1529,15 @@
         <v>7230.5912</v>
       </c>
       <c r="G37" t="n">
-        <v>-6444.296499999996</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130</v>
-      </c>
-      <c r="J37" t="n">
-        <v>132</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,24 +1559,15 @@
         <v>281.6658</v>
       </c>
       <c r="G38" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>132</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1839,24 +1589,15 @@
         <v>5353.5065</v>
       </c>
       <c r="G39" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>132</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1878,24 +1619,15 @@
         <v>696.1639</v>
       </c>
       <c r="G40" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>132</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1917,24 +1649,15 @@
         <v>1208.8974</v>
       </c>
       <c r="G41" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>132</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1956,24 +1679,15 @@
         <v>2241.7772</v>
       </c>
       <c r="G42" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>132</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1995,24 +1709,15 @@
         <v>7115.5224</v>
       </c>
       <c r="G43" t="n">
-        <v>-6725.962299999996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>132</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2034,24 +1739,15 @@
         <v>224.4003</v>
       </c>
       <c r="G44" t="n">
-        <v>-6950.362599999996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>132</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2073,24 +1769,15 @@
         <v>799.8702</v>
       </c>
       <c r="G45" t="n">
-        <v>-6950.362599999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>132</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2112,26 +1799,15 @@
         <v>1502.8437</v>
       </c>
       <c r="G46" t="n">
-        <v>-8453.206299999996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>132</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2153,26 +1829,15 @@
         <v>446.5206</v>
       </c>
       <c r="G47" t="n">
-        <v>-8453.206299999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>130</v>
-      </c>
-      <c r="J47" t="n">
-        <v>132</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2194,26 +1859,19 @@
         <v>8169</v>
       </c>
       <c r="G48" t="n">
-        <v>-284.2062999999962</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="I48" t="n">
         <v>130</v>
       </c>
-      <c r="J48" t="n">
-        <v>132</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2235,26 +1893,23 @@
         <v>351.8238</v>
       </c>
       <c r="G49" t="n">
-        <v>-636.0300999999962</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="I49" t="n">
-        <v>133</v>
-      </c>
-      <c r="J49" t="n">
-        <v>132</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,26 +1931,21 @@
         <v>2998.8797</v>
       </c>
       <c r="G50" t="n">
-        <v>2362.849600000004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>132</v>
-      </c>
-      <c r="J50" t="n">
-        <v>132</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2317,24 +1967,15 @@
         <v>50</v>
       </c>
       <c r="G51" t="n">
-        <v>2412.849600000004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>132</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2356,24 +1997,15 @@
         <v>283.939</v>
       </c>
       <c r="G52" t="n">
-        <v>2412.849600000004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>132</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2395,24 +2027,15 @@
         <v>818.2814</v>
       </c>
       <c r="G53" t="n">
-        <v>3231.131000000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>132</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2434,24 +2057,15 @@
         <v>2585.5373</v>
       </c>
       <c r="G54" t="n">
-        <v>5816.668300000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>132</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2473,24 +2087,15 @@
         <v>294</v>
       </c>
       <c r="G55" t="n">
-        <v>5522.668300000003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>132</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,24 +2117,15 @@
         <v>33911.5784</v>
       </c>
       <c r="G56" t="n">
-        <v>39434.2467</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>132</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2551,24 +2147,15 @@
         <v>17916.7204</v>
       </c>
       <c r="G57" t="n">
-        <v>57350.9671</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>132</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2590,24 +2177,15 @@
         <v>292.5711</v>
       </c>
       <c r="G58" t="n">
-        <v>57058.396</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>132</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2629,24 +2207,15 @@
         <v>3305.7427</v>
       </c>
       <c r="G59" t="n">
-        <v>57058.396</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>132</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2668,24 +2237,15 @@
         <v>2135.0404</v>
       </c>
       <c r="G60" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>132</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2707,24 +2267,15 @@
         <v>976.2965</v>
       </c>
       <c r="G61" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>132</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2746,24 +2297,15 @@
         <v>4441.355</v>
       </c>
       <c r="G62" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>132</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2785,24 +2327,15 @@
         <v>5916</v>
       </c>
       <c r="G63" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>132</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2824,24 +2357,15 @@
         <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>132</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2863,24 +2387,15 @@
         <v>614.0978</v>
       </c>
       <c r="G65" t="n">
-        <v>59193.4364</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>132</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2902,24 +2417,15 @@
         <v>6819.633</v>
       </c>
       <c r="G66" t="n">
-        <v>52373.8034</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>132</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2941,24 +2447,15 @@
         <v>3417.9108</v>
       </c>
       <c r="G67" t="n">
-        <v>55791.71419999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>132</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2980,24 +2477,15 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>55891.71419999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>132</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3019,24 +2507,15 @@
         <v>563.372</v>
       </c>
       <c r="G69" t="n">
-        <v>55328.34219999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>132</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3058,24 +2537,15 @@
         <v>968.9999</v>
       </c>
       <c r="G70" t="n">
-        <v>56297.34209999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>132</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3097,24 +2567,15 @@
         <v>22927.3991</v>
       </c>
       <c r="G71" t="n">
-        <v>79224.74119999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>132</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3136,24 +2597,15 @@
         <v>6236.6903</v>
       </c>
       <c r="G72" t="n">
-        <v>72988.05089999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>132</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3175,24 +2627,15 @@
         <v>3994.3285</v>
       </c>
       <c r="G73" t="n">
-        <v>72988.05089999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>132</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3214,24 +2657,15 @@
         <v>600.2479</v>
       </c>
       <c r="G74" t="n">
-        <v>72988.05089999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>132</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3253,24 +2687,15 @@
         <v>415.0927</v>
       </c>
       <c r="G75" t="n">
-        <v>72988.05089999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>132</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3292,24 +2717,15 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>71988.05089999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>132</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3331,24 +2747,15 @@
         <v>30345.4884</v>
       </c>
       <c r="G77" t="n">
-        <v>41642.56249999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>132</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3370,24 +2777,15 @@
         <v>285.664</v>
       </c>
       <c r="G78" t="n">
-        <v>41928.22649999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>132</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3409,24 +2807,15 @@
         <v>23051.9783</v>
       </c>
       <c r="G79" t="n">
-        <v>18876.24819999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>132</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3448,24 +2837,15 @@
         <v>517.1675</v>
       </c>
       <c r="G80" t="n">
-        <v>18876.24819999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>132</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3487,24 +2867,15 @@
         <v>2422.1832</v>
       </c>
       <c r="G81" t="n">
-        <v>18876.24819999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>132</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3526,24 +2897,15 @@
         <v>1.17</v>
       </c>
       <c r="G82" t="n">
-        <v>18877.41819999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>132</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3565,24 +2927,15 @@
         <v>409.5775</v>
       </c>
       <c r="G83" t="n">
-        <v>18467.84069999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>132</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,24 +2957,15 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>18468.84069999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>132</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3643,24 +2987,15 @@
         <v>1945.8257</v>
       </c>
       <c r="G85" t="n">
-        <v>16523.01499999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>132</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3682,24 +3017,15 @@
         <v>371.0114</v>
       </c>
       <c r="G86" t="n">
-        <v>16523.01499999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>132</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3721,24 +3047,15 @@
         <v>128.9886</v>
       </c>
       <c r="G87" t="n">
-        <v>16523.01499999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>132</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3760,24 +3077,15 @@
         <v>399.4107</v>
       </c>
       <c r="G88" t="n">
-        <v>16123.60429999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>132</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3799,24 +3107,15 @@
         <v>350.5791</v>
       </c>
       <c r="G89" t="n">
-        <v>16123.60429999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>132</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3838,24 +3137,15 @@
         <v>3200</v>
       </c>
       <c r="G90" t="n">
-        <v>12923.60429999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>132</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3877,24 +3167,15 @@
         <v>1600</v>
       </c>
       <c r="G91" t="n">
-        <v>11323.60429999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>132</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3916,24 +3197,15 @@
         <v>2368.3059</v>
       </c>
       <c r="G92" t="n">
-        <v>13691.91019999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>132</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3955,24 +3227,15 @@
         <v>7573.5294</v>
       </c>
       <c r="G93" t="n">
-        <v>21265.43959999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>132</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3994,24 +3257,15 @@
         <v>6682.3288</v>
       </c>
       <c r="G94" t="n">
-        <v>27947.76839999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>132</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4033,24 +3287,15 @@
         <v>2.6712</v>
       </c>
       <c r="G95" t="n">
-        <v>27947.76839999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>132</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4072,24 +3317,15 @@
         <v>672.2727</v>
       </c>
       <c r="G96" t="n">
-        <v>27275.49569999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>132</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4111,24 +3347,15 @@
         <v>408.3914</v>
       </c>
       <c r="G97" t="n">
-        <v>26867.10429999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>132</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4150,24 +3377,15 @@
         <v>17522.1565</v>
       </c>
       <c r="G98" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>132</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4189,24 +3407,15 @@
         <v>407.6307</v>
       </c>
       <c r="G99" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>132</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4228,24 +3437,15 @@
         <v>78</v>
       </c>
       <c r="G100" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>132</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4267,24 +3467,15 @@
         <v>501.0538</v>
       </c>
       <c r="G101" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>132</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4306,24 +3497,15 @@
         <v>6180.4159</v>
       </c>
       <c r="G102" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>132</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4345,24 +3527,15 @@
         <v>418.1537</v>
       </c>
       <c r="G103" t="n">
-        <v>44389.26079999997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>132</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4384,24 +3557,15 @@
         <v>2341.5389</v>
       </c>
       <c r="G104" t="n">
-        <v>42047.72189999997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>132</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4423,24 +3587,15 @@
         <v>230</v>
       </c>
       <c r="G105" t="n">
-        <v>42047.72189999997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>132</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4462,24 +3617,15 @@
         <v>18.3288</v>
       </c>
       <c r="G106" t="n">
-        <v>42066.05069999998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>132</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4501,24 +3647,15 @@
         <v>269.07</v>
       </c>
       <c r="G107" t="n">
-        <v>42066.05069999998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>132</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4540,24 +3677,15 @@
         <v>386.649</v>
       </c>
       <c r="G108" t="n">
-        <v>41679.40169999998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>132</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4579,24 +3707,15 @@
         <v>136.1129</v>
       </c>
       <c r="G109" t="n">
-        <v>41679.40169999998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>132</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4618,24 +3737,15 @@
         <v>3860.3357</v>
       </c>
       <c r="G110" t="n">
-        <v>45539.73739999998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>132</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4657,24 +3767,15 @@
         <v>3469.6272</v>
       </c>
       <c r="G111" t="n">
-        <v>49009.36459999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>132</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4696,24 +3797,15 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>49008.36459999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>132</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4735,24 +3827,15 @@
         <v>39597.5209</v>
       </c>
       <c r="G113" t="n">
-        <v>49008.36459999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>132</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4774,24 +3857,15 @@
         <v>5847.4032</v>
       </c>
       <c r="G114" t="n">
-        <v>49008.36459999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>132</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4813,24 +3887,15 @@
         <v>1960.7095</v>
       </c>
       <c r="G115" t="n">
-        <v>50969.07409999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>132</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4852,24 +3917,15 @@
         <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>50969.07409999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>132</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4891,24 +3947,15 @@
         <v>628.9399</v>
       </c>
       <c r="G117" t="n">
-        <v>50969.07409999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>132</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4930,24 +3977,15 @@
         <v>2950.7299</v>
       </c>
       <c r="G118" t="n">
-        <v>48018.34419999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>132</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4969,24 +4007,15 @@
         <v>3258.3958</v>
       </c>
       <c r="G119" t="n">
-        <v>48018.34419999998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>132</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5008,24 +4037,15 @@
         <v>913.775</v>
       </c>
       <c r="G120" t="n">
-        <v>48018.34419999998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>132</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5047,24 +4067,15 @@
         <v>482.93</v>
       </c>
       <c r="G121" t="n">
-        <v>48501.27419999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>132</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5086,24 +4097,15 @@
         <v>484.5083</v>
       </c>
       <c r="G122" t="n">
-        <v>48501.27419999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>132</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5125,24 +4127,15 @@
         <v>616.2546</v>
       </c>
       <c r="G123" t="n">
-        <v>48501.27419999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>132</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5164,24 +4157,15 @@
         <v>1108.5634</v>
       </c>
       <c r="G124" t="n">
-        <v>48501.27419999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>132</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5203,24 +4187,15 @@
         <v>670.663</v>
       </c>
       <c r="G125" t="n">
-        <v>47830.61119999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>132</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5242,24 +4217,15 @@
         <v>3876.6597</v>
       </c>
       <c r="G126" t="n">
-        <v>51707.27089999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>132</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5281,24 +4247,15 @@
         <v>1120</v>
       </c>
       <c r="G127" t="n">
-        <v>52827.27089999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>132</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5320,24 +4277,15 @@
         <v>143.884</v>
       </c>
       <c r="G128" t="n">
-        <v>52827.27089999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>132</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5359,24 +4307,15 @@
         <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>53077.27089999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>132</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5398,24 +4337,15 @@
         <v>2887.8312</v>
       </c>
       <c r="G130" t="n">
-        <v>53077.27089999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>132</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5437,24 +4367,15 @@
         <v>625.3052</v>
       </c>
       <c r="G131" t="n">
-        <v>53702.57609999999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>132</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5476,24 +4397,15 @@
         <v>1581.5362</v>
       </c>
       <c r="G132" t="n">
-        <v>53702.57609999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>132</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5515,24 +4427,15 @@
         <v>1546.782</v>
       </c>
       <c r="G133" t="n">
-        <v>55249.35809999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>132</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5554,24 +4457,15 @@
         <v>1555</v>
       </c>
       <c r="G134" t="n">
-        <v>55249.35809999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>132</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5593,24 +4487,15 @@
         <v>1739.86</v>
       </c>
       <c r="G135" t="n">
-        <v>56989.21809999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>132</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5632,24 +4517,15 @@
         <v>1880</v>
       </c>
       <c r="G136" t="n">
-        <v>56989.21809999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>132</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5671,24 +4547,15 @@
         <v>11973.8137</v>
       </c>
       <c r="G137" t="n">
-        <v>45015.40439999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>132</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5710,24 +4577,15 @@
         <v>25964.7685</v>
       </c>
       <c r="G138" t="n">
-        <v>70980.17289999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>132</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5749,24 +4607,15 @@
         <v>2379.7808</v>
       </c>
       <c r="G139" t="n">
-        <v>70980.17289999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>132</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5788,24 +4637,15 @@
         <v>392.8296</v>
       </c>
       <c r="G140" t="n">
-        <v>70587.34329999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>132</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5827,24 +4667,15 @@
         <v>264.2516</v>
       </c>
       <c r="G141" t="n">
-        <v>70323.09169999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>132</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5866,24 +4697,15 @@
         <v>4950.9878</v>
       </c>
       <c r="G142" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>132</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5905,24 +4727,15 @@
         <v>4910.2825</v>
       </c>
       <c r="G143" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>132</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5944,24 +4757,15 @@
         <v>2204</v>
       </c>
       <c r="G144" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>132</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5983,24 +4787,15 @@
         <v>4413.7931</v>
       </c>
       <c r="G145" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>132</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6022,24 +4817,15 @@
         <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>132</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6061,24 +4847,15 @@
         <v>164.5</v>
       </c>
       <c r="G147" t="n">
-        <v>75274.07949999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>132</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6100,24 +4877,15 @@
         <v>2687.6969</v>
       </c>
       <c r="G148" t="n">
-        <v>77961.77639999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>132</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6139,24 +4907,15 @@
         <v>2559.6786</v>
       </c>
       <c r="G149" t="n">
-        <v>80521.45499999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>132</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6178,24 +4937,15 @@
         <v>1.1</v>
       </c>
       <c r="G150" t="n">
-        <v>80522.55499999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>132</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6217,24 +4967,15 @@
         <v>31124.2629</v>
       </c>
       <c r="G151" t="n">
-        <v>80522.55499999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>132</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6256,26 +4997,15 @@
         <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>80522.55499999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>132</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1.116212121212121</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.030769230769231</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6297,18 +5027,15 @@
         <v>8917.9398</v>
       </c>
       <c r="G153" t="n">
-        <v>71604.6152</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6330,18 +5057,15 @@
         <v>260.058</v>
       </c>
       <c r="G154" t="n">
-        <v>71864.6732</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6363,18 +5087,15 @@
         <v>1.11</v>
       </c>
       <c r="G155" t="n">
-        <v>71865.78320000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6396,18 +5117,15 @@
         <v>31832.961</v>
       </c>
       <c r="G156" t="n">
-        <v>40032.82220000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6429,18 +5147,15 @@
         <v>515.4267</v>
       </c>
       <c r="G157" t="n">
-        <v>40548.24890000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6462,18 +5177,15 @@
         <v>13745.571</v>
       </c>
       <c r="G158" t="n">
-        <v>40548.24890000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6495,18 +5207,15 @@
         <v>2969.9934</v>
       </c>
       <c r="G159" t="n">
-        <v>40548.24890000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6528,18 +5237,15 @@
         <v>3496.5034</v>
       </c>
       <c r="G160" t="n">
-        <v>40548.24890000001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6561,18 +5267,15 @@
         <v>9061.4426</v>
       </c>
       <c r="G161" t="n">
-        <v>31486.8063</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6594,18 +5297,15 @@
         <v>8274.2027</v>
       </c>
       <c r="G162" t="n">
-        <v>31486.8063</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6627,18 +5327,15 @@
         <v>3424.678</v>
       </c>
       <c r="G163" t="n">
-        <v>28062.1283</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6660,18 +5357,15 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>28063.1283</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6693,18 +5387,15 @@
         <v>20.1575</v>
       </c>
       <c r="G165" t="n">
-        <v>28063.1283</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6726,18 +5417,15 @@
         <v>13476.8682</v>
       </c>
       <c r="G166" t="n">
-        <v>14586.2601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6759,18 +5447,15 @@
         <v>3176</v>
       </c>
       <c r="G167" t="n">
-        <v>14586.2601</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6792,18 +5477,15 @@
         <v>4829.9526</v>
       </c>
       <c r="G168" t="n">
-        <v>14586.2601</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6825,18 +5507,15 @@
         <v>3416.4399</v>
       </c>
       <c r="G169" t="n">
-        <v>14586.2601</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6858,18 +5537,15 @@
         <v>17391.4588</v>
       </c>
       <c r="G170" t="n">
-        <v>31977.7189</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6891,18 +5567,15 @@
         <v>360.7671</v>
       </c>
       <c r="G171" t="n">
-        <v>32338.486</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6924,18 +5597,15 @@
         <v>4320</v>
       </c>
       <c r="G172" t="n">
-        <v>28018.486</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6957,18 +5627,15 @@
         <v>4593.1355</v>
       </c>
       <c r="G173" t="n">
-        <v>28018.486</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6990,18 +5657,15 @@
         <v>510.3895</v>
       </c>
       <c r="G174" t="n">
-        <v>28018.486</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7023,18 +5687,15 @@
         <v>1.18</v>
       </c>
       <c r="G175" t="n">
-        <v>28019.666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7056,18 +5717,15 @@
         <v>755.8445</v>
       </c>
       <c r="G176" t="n">
-        <v>28019.666</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7089,18 +5747,15 @@
         <v>3544.9764</v>
       </c>
       <c r="G177" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7122,18 +5777,15 @@
         <v>33548.2319</v>
       </c>
       <c r="G178" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7155,18 +5807,15 @@
         <v>1121.5692</v>
       </c>
       <c r="G179" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7188,18 +5837,15 @@
         <v>391.3121</v>
       </c>
       <c r="G180" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7221,18 +5867,15 @@
         <v>886.1741</v>
       </c>
       <c r="G181" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7254,18 +5897,15 @@
         <v>10042.3289</v>
       </c>
       <c r="G182" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7287,18 +5927,15 @@
         <v>2534.2466</v>
       </c>
       <c r="G183" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7320,18 +5957,15 @@
         <v>3038.406</v>
       </c>
       <c r="G184" t="n">
-        <v>31564.6424</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7353,18 +5987,15 @@
         <v>14371.081</v>
       </c>
       <c r="G185" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7386,18 +6017,15 @@
         <v>1740.3714</v>
       </c>
       <c r="G186" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7419,18 +6047,15 @@
         <v>134.2763</v>
       </c>
       <c r="G187" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7452,18 +6077,15 @@
         <v>640</v>
       </c>
       <c r="G188" t="n">
-        <v>45935.7234</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7485,18 +6107,15 @@
         <v>3889.306</v>
       </c>
       <c r="G189" t="n">
-        <v>42046.41740000001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7518,18 +6137,15 @@
         <v>471.3025</v>
       </c>
       <c r="G190" t="n">
-        <v>42517.7199</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7551,18 +6167,15 @@
         <v>646.3108</v>
       </c>
       <c r="G191" t="n">
-        <v>43164.0307</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7584,18 +6197,15 @@
         <v>1931.0402</v>
       </c>
       <c r="G192" t="n">
-        <v>45095.07090000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7617,18 +6227,15 @@
         <v>18533.8582</v>
       </c>
       <c r="G193" t="n">
-        <v>45095.07090000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7650,18 +6257,15 @@
         <v>7028.0872</v>
       </c>
       <c r="G194" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7683,18 +6287,15 @@
         <v>1222.3179</v>
       </c>
       <c r="G195" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7716,18 +6317,15 @@
         <v>22</v>
       </c>
       <c r="G196" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7749,18 +6347,15 @@
         <v>50188.5164</v>
       </c>
       <c r="G197" t="n">
-        <v>52123.15810000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7782,18 +6377,15 @@
         <v>37752.6393</v>
       </c>
       <c r="G198" t="n">
-        <v>14370.51880000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7815,18 +6407,15 @@
         <v>3500.6701</v>
       </c>
       <c r="G199" t="n">
-        <v>14370.51880000001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7848,18 +6437,15 @@
         <v>11935.7138</v>
       </c>
       <c r="G200" t="n">
-        <v>26306.2326</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7881,18 +6467,15 @@
         <v>1436.4502</v>
       </c>
       <c r="G201" t="n">
-        <v>27742.6828</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7914,18 +6497,15 @@
         <v>8110.5531</v>
       </c>
       <c r="G202" t="n">
-        <v>19632.1297</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7947,18 +6527,15 @@
         <v>1266.5338</v>
       </c>
       <c r="G203" t="n">
-        <v>20898.6635</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7980,18 +6557,15 @@
         <v>10879.259</v>
       </c>
       <c r="G204" t="n">
-        <v>10019.4045</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8013,18 +6587,15 @@
         <v>25213.1837</v>
       </c>
       <c r="G205" t="n">
-        <v>-15193.7792</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8046,18 +6617,15 @@
         <v>3366.198</v>
       </c>
       <c r="G206" t="n">
-        <v>-15193.7792</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8079,18 +6647,15 @@
         <v>3190.6439</v>
       </c>
       <c r="G207" t="n">
-        <v>-18384.4231</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8112,18 +6677,15 @@
         <v>1501.0037</v>
       </c>
       <c r="G208" t="n">
-        <v>-16883.4194</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8145,18 +6707,15 @@
         <v>4</v>
       </c>
       <c r="G209" t="n">
-        <v>-16883.4194</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8178,18 +6737,15 @@
         <v>9821.133099999999</v>
       </c>
       <c r="G210" t="n">
-        <v>-26704.5525</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8211,18 +6767,15 @@
         <v>42938.7896</v>
       </c>
       <c r="G211" t="n">
-        <v>-26704.5525</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8244,18 +6797,15 @@
         <v>331.8447</v>
       </c>
       <c r="G212" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8277,18 +6827,15 @@
         <v>4004.4369</v>
       </c>
       <c r="G213" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8310,18 +6857,15 @@
         <v>292.3972</v>
       </c>
       <c r="G214" t="n">
-        <v>-27036.3972</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8343,18 +6887,15 @@
         <v>5650.6855</v>
       </c>
       <c r="G215" t="n">
-        <v>-21385.7117</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8376,18 +6917,15 @@
         <v>1131.408</v>
       </c>
       <c r="G216" t="n">
-        <v>-21385.7117</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8409,18 +6947,15 @@
         <v>300</v>
       </c>
       <c r="G217" t="n">
-        <v>-21685.7117</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8442,18 +6977,15 @@
         <v>3598.0157</v>
       </c>
       <c r="G218" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8475,18 +7007,15 @@
         <v>2191.714</v>
       </c>
       <c r="G219" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8508,18 +7037,15 @@
         <v>22266.8955</v>
       </c>
       <c r="G220" t="n">
-        <v>-25283.7274</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8541,18 +7067,15 @@
         <v>1600</v>
       </c>
       <c r="G221" t="n">
-        <v>-26883.7274</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8574,18 +7097,15 @@
         <v>2520.7177</v>
       </c>
       <c r="G222" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8607,18 +7127,15 @@
         <v>1609.1953</v>
       </c>
       <c r="G223" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8640,18 +7157,15 @@
         <v>7614.967</v>
       </c>
       <c r="G224" t="n">
-        <v>-29404.4451</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
